--- a/input/dynamic_data/season_16/forecasting_method/average/improved_hor_8/forecast_point_GW3.xlsx
+++ b/input/dynamic_data/season_16/forecasting_method/average/improved_hor_8/forecast_point_GW3.xlsx
@@ -141,37 +141,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.5482750359741044</v>
+        <v>3.619957359933178</v>
       </c>
       <c r="C2" t="n">
-        <v>3.5482750359741044</v>
+        <v>3.716462179091784</v>
       </c>
       <c r="D2" t="n">
-        <v>3.5482750359741044</v>
+        <v>4.024645467958466</v>
       </c>
       <c r="E2" t="n">
-        <v>3.5482750359741044</v>
+        <v>3.9494411246616865</v>
       </c>
       <c r="F2" t="n">
-        <v>3.5482750359741044</v>
+        <v>3.9210788894592246</v>
       </c>
       <c r="G2" t="n">
-        <v>3.5482750359741044</v>
+        <v>3.8138083957759004</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5482750359741044</v>
+        <v>3.4814680262550057</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5482750359741044</v>
+        <v>3.997634427169582</v>
       </c>
       <c r="J2" t="n">
-        <v>3.5482750359741044</v>
+        <v>4.01724268846501</v>
       </c>
       <c r="K2" t="n">
-        <v>3.5482750359741044</v>
+        <v>4.024645467958466</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5482750359741044</v>
+        <v>3.9830533892729667</v>
       </c>
     </row>
     <row r="3">
@@ -445,37 +445,37 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="n">
-        <v>4.843715737032656</v>
+        <v>4.941568580205032</v>
       </c>
       <c r="C10" t="n">
-        <v>4.843715737032656</v>
+        <v>4.725689161818156</v>
       </c>
       <c r="D10" t="n">
-        <v>4.843715737032656</v>
+        <v>4.220537993717785</v>
       </c>
       <c r="E10" t="n">
-        <v>4.843715737032656</v>
+        <v>4.310385692091694</v>
       </c>
       <c r="F10" t="n">
-        <v>4.843715737032656</v>
+        <v>4.806224338561983</v>
       </c>
       <c r="G10" t="n">
-        <v>4.843715737032656</v>
+        <v>4.40906007114593</v>
       </c>
       <c r="H10" t="n">
-        <v>4.843715737032656</v>
+        <v>4.471475985120582</v>
       </c>
       <c r="I10" t="n">
-        <v>4.843715737032656</v>
+        <v>4.317455763814944</v>
       </c>
       <c r="J10" t="n">
-        <v>4.843715737032656</v>
+        <v>4.800380906191424</v>
       </c>
       <c r="K10" t="n">
-        <v>4.843715737032656</v>
+        <v>4.220537993717785</v>
       </c>
       <c r="L10" t="n">
-        <v>4.843715737032656</v>
+        <v>4.618990751435056</v>
       </c>
     </row>
     <row r="11">
@@ -559,37 +559,37 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="n">
-        <v>5.730612064381903</v>
+        <v>5.673873331071191</v>
       </c>
       <c r="C13" t="n">
-        <v>5.730612064381903</v>
+        <v>5.6461790144812944</v>
       </c>
       <c r="D13" t="n">
-        <v>5.730612064381903</v>
+        <v>4.917155899957123</v>
       </c>
       <c r="E13" t="n">
-        <v>5.730612064381903</v>
+        <v>5.538053502172107</v>
       </c>
       <c r="F13" t="n">
-        <v>5.730612064381903</v>
+        <v>5.684328868961479</v>
       </c>
       <c r="G13" t="n">
-        <v>5.730612064381903</v>
+        <v>5.578111756652697</v>
       </c>
       <c r="H13" t="n">
-        <v>5.730612064381903</v>
+        <v>5.112755468599226</v>
       </c>
       <c r="I13" t="n">
-        <v>5.730612064381903</v>
+        <v>5.7801920041846575</v>
       </c>
       <c r="J13" t="n">
-        <v>5.730612064381903</v>
+        <v>5.791043431916944</v>
       </c>
       <c r="K13" t="n">
-        <v>5.730612064381903</v>
+        <v>4.917155899957123</v>
       </c>
       <c r="L13" t="n">
-        <v>5.730612064381903</v>
+        <v>5.240140092021651</v>
       </c>
     </row>
     <row r="14">
@@ -787,37 +787,37 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="n">
-        <v>5.836605441042643</v>
+        <v>5.780484234878771</v>
       </c>
       <c r="C19" t="n">
-        <v>5.836605441042643</v>
+        <v>6.202918121399977</v>
       </c>
       <c r="D19" t="n">
-        <v>5.836605441042643</v>
+        <v>5.4866695645233134</v>
       </c>
       <c r="E19" t="n">
-        <v>5.836605441042643</v>
+        <v>5.276765099759904</v>
       </c>
       <c r="F19" t="n">
-        <v>5.836605441042643</v>
+        <v>6.059104282390447</v>
       </c>
       <c r="G19" t="n">
-        <v>5.836605441042643</v>
+        <v>6.214563152858263</v>
       </c>
       <c r="H19" t="n">
-        <v>5.836605441042643</v>
+        <v>6.088823983416104</v>
       </c>
       <c r="I19" t="n">
-        <v>5.836605441042643</v>
+        <v>6.100044172192133</v>
       </c>
       <c r="J19" t="n">
-        <v>5.836605441042643</v>
+        <v>5.943071164597344</v>
       </c>
       <c r="K19" t="n">
-        <v>5.836605441042643</v>
+        <v>5.4866695645233134</v>
       </c>
       <c r="L19" t="n">
-        <v>5.836605441042643</v>
+        <v>5.544875440288892</v>
       </c>
     </row>
     <row r="20">
@@ -977,37 +977,37 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1.8731832467475538</v>
+        <v>1.8921042896439937</v>
       </c>
       <c r="C24" t="n">
-        <v>1.8731832467475538</v>
+        <v>1.8017932758549997</v>
       </c>
       <c r="D24" t="n">
-        <v>1.8731832467475538</v>
+        <v>1.6814114542098824</v>
       </c>
       <c r="E24" t="n">
-        <v>1.8731832467475538</v>
+        <v>1.7199027269243496</v>
       </c>
       <c r="F24" t="n">
-        <v>1.8731832467475538</v>
+        <v>1.8725506292973684</v>
       </c>
       <c r="G24" t="n">
-        <v>1.8731832467475538</v>
+        <v>1.6841693743652335</v>
       </c>
       <c r="H24" t="n">
-        <v>1.8731832467475538</v>
+        <v>1.8668762329453874</v>
       </c>
       <c r="I24" t="n">
-        <v>1.8731832467475538</v>
+        <v>1.7472182549600408</v>
       </c>
       <c r="J24" t="n">
-        <v>1.8731832467475538</v>
+        <v>1.874830057362886</v>
       </c>
       <c r="K24" t="n">
-        <v>1.8731832467475538</v>
+        <v>1.6814114542098824</v>
       </c>
       <c r="L24" t="n">
-        <v>1.8731832467475538</v>
+        <v>1.8434145928738657</v>
       </c>
     </row>
     <row r="25">
@@ -1053,37 +1053,37 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="n">
-        <v>2.9764582974869147</v>
+        <v>3.0068303209306593</v>
       </c>
       <c r="C26" t="n">
-        <v>2.9764582974869147</v>
+        <v>3.3431566298201076</v>
       </c>
       <c r="D26" t="n">
-        <v>2.9764582974869147</v>
+        <v>3.1140955013500258</v>
       </c>
       <c r="E26" t="n">
-        <v>2.9764582974869147</v>
+        <v>3.1193945848097924</v>
       </c>
       <c r="F26" t="n">
-        <v>2.9764582974869147</v>
+        <v>3.3330258512512687</v>
       </c>
       <c r="G26" t="n">
-        <v>2.9764582974869147</v>
+        <v>2.939333326008903</v>
       </c>
       <c r="H26" t="n">
-        <v>2.9764582974869147</v>
+        <v>3.0019064705911163</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9764582974869147</v>
+        <v>3.070626830699014</v>
       </c>
       <c r="J26" t="n">
-        <v>2.9764582974869147</v>
+        <v>3.2168300506780847</v>
       </c>
       <c r="K26" t="n">
-        <v>2.9764582974869147</v>
+        <v>3.1140955013500258</v>
       </c>
       <c r="L26" t="n">
-        <v>2.9764582974869147</v>
+        <v>2.9221533773127883</v>
       </c>
     </row>
     <row r="27">
@@ -1243,37 +1243,37 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1.6485385453390948</v>
+        <v>1.6658915826584537</v>
       </c>
       <c r="C31" t="n">
-        <v>1.6485385453390948</v>
+        <v>1.841029121097036</v>
       </c>
       <c r="D31" t="n">
-        <v>1.6485385453390948</v>
+        <v>1.7949753115814844</v>
       </c>
       <c r="E31" t="n">
-        <v>1.6485385453390948</v>
+        <v>1.8375793465105577</v>
       </c>
       <c r="F31" t="n">
-        <v>1.6485385453390948</v>
+        <v>1.8037796046126633</v>
       </c>
       <c r="G31" t="n">
-        <v>1.6485385453390948</v>
+        <v>1.6253947699410547</v>
       </c>
       <c r="H31" t="n">
-        <v>1.6485385453390948</v>
+        <v>1.7733360672330465</v>
       </c>
       <c r="I31" t="n">
-        <v>1.6485385453390948</v>
+        <v>1.5632117616148802</v>
       </c>
       <c r="J31" t="n">
-        <v>1.6485385453390948</v>
+        <v>1.7124357012221438</v>
       </c>
       <c r="K31" t="n">
-        <v>1.6485385453390948</v>
+        <v>1.7949753115814844</v>
       </c>
       <c r="L31" t="n">
-        <v>1.6485385453390948</v>
+        <v>1.8071035219617655</v>
       </c>
     </row>
     <row r="32">
@@ -1284,34 +1284,34 @@
         <v>2.988386655837443</v>
       </c>
       <c r="C32" t="n">
-        <v>2.988386655837443</v>
+        <v>2.968464076975896</v>
       </c>
       <c r="D32" t="n">
-        <v>2.988386655837443</v>
+        <v>3.05931650576095</v>
       </c>
       <c r="E32" t="n">
-        <v>2.988386655837443</v>
+        <v>3.0650599052792393</v>
       </c>
       <c r="F32" t="n">
-        <v>2.988386655837443</v>
+        <v>2.6025322680021628</v>
       </c>
       <c r="G32" t="n">
-        <v>2.988386655837443</v>
+        <v>3.008578455594114</v>
       </c>
       <c r="H32" t="n">
-        <v>2.988386655837443</v>
+        <v>2.931158424619194</v>
       </c>
       <c r="I32" t="n">
-        <v>2.988386655837443</v>
+        <v>2.850969573505234</v>
       </c>
       <c r="J32" t="n">
-        <v>2.988386655837443</v>
+        <v>2.952360294563258</v>
       </c>
       <c r="K32" t="n">
-        <v>2.988386655837443</v>
+        <v>3.05931650576095</v>
       </c>
       <c r="L32" t="n">
-        <v>2.988386655837443</v>
+        <v>2.677947364222733</v>
       </c>
     </row>
     <row r="33">
@@ -1357,37 +1357,37 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1.1472792151170328</v>
+        <v>1.1593558384340543</v>
       </c>
       <c r="C34" t="n">
-        <v>1.1472792151170328</v>
+        <v>1.0832033599667394</v>
       </c>
       <c r="D34" t="n">
-        <v>1.1472792151170328</v>
+        <v>1.19708206135872</v>
       </c>
       <c r="E34" t="n">
-        <v>1.1472792151170328</v>
+        <v>1.1750228089111112</v>
       </c>
       <c r="F34" t="n">
-        <v>1.1472792151170328</v>
+        <v>1.153066385815856</v>
       </c>
       <c r="G34" t="n">
-        <v>1.1472792151170328</v>
+        <v>1.1948389337373908</v>
       </c>
       <c r="H34" t="n">
-        <v>1.1472792151170328</v>
+        <v>1.1134674816777235</v>
       </c>
       <c r="I34" t="n">
-        <v>1.1472792151170328</v>
+        <v>1.1447858369973536</v>
       </c>
       <c r="J34" t="n">
-        <v>1.1472792151170328</v>
+        <v>1.0164384346180615</v>
       </c>
       <c r="K34" t="n">
-        <v>1.1472792151170328</v>
+        <v>1.19708206135872</v>
       </c>
       <c r="L34" t="n">
-        <v>1.1472792151170328</v>
+        <v>1.085046586998754</v>
       </c>
     </row>
     <row r="35">
@@ -1509,37 +1509,37 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="n">
-        <v>2.688216006699547</v>
+        <v>2.634984006566883</v>
       </c>
       <c r="C38" t="n">
-        <v>2.688216006699547</v>
+        <v>2.3167015972025387</v>
       </c>
       <c r="D38" t="n">
-        <v>2.688216006699547</v>
+        <v>2.6127478547960465</v>
       </c>
       <c r="E38" t="n">
-        <v>2.688216006699547</v>
+        <v>2.523020192007598</v>
       </c>
       <c r="F38" t="n">
-        <v>2.688216006699547</v>
+        <v>2.394778280795047</v>
       </c>
       <c r="G38" t="n">
-        <v>2.688216006699547</v>
+        <v>2.657601894845605</v>
       </c>
       <c r="H38" t="n">
-        <v>2.688216006699547</v>
+        <v>2.644630074018602</v>
       </c>
       <c r="I38" t="n">
-        <v>2.688216006699547</v>
+        <v>2.712483536337615</v>
       </c>
       <c r="J38" t="n">
-        <v>2.688216006699547</v>
+        <v>2.707400804803025</v>
       </c>
       <c r="K38" t="n">
-        <v>2.688216006699547</v>
+        <v>2.6127478547960465</v>
       </c>
       <c r="L38" t="n">
-        <v>2.688216006699547</v>
+        <v>2.366020026899804</v>
       </c>
     </row>
     <row r="39">
@@ -1775,37 +1775,37 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2.476770759706393</v>
+        <v>2.452003052109329</v>
       </c>
       <c r="C45" t="n">
-        <v>2.476770759706393</v>
+        <v>2.288179267190252</v>
       </c>
       <c r="D45" t="n">
-        <v>2.476770759706393</v>
+        <v>2.4400142130743827</v>
       </c>
       <c r="E45" t="n">
-        <v>2.476770759706393</v>
+        <v>2.5701682517874826</v>
       </c>
       <c r="F45" t="n">
-        <v>2.476770759706393</v>
+        <v>2.618328804951755</v>
       </c>
       <c r="G45" t="n">
-        <v>2.476770759706393</v>
+        <v>2.5086441761109937</v>
       </c>
       <c r="H45" t="n">
-        <v>2.476770759706393</v>
+        <v>2.5749044328710147</v>
       </c>
       <c r="I45" t="n">
-        <v>2.476770759706393</v>
+        <v>2.3159913903234237</v>
       </c>
       <c r="J45" t="n">
-        <v>2.476770759706393</v>
+        <v>2.5576231967428953</v>
       </c>
       <c r="K45" t="n">
-        <v>2.476770759706393</v>
+        <v>2.4400142130743827</v>
       </c>
       <c r="L45" t="n">
-        <v>2.476770759706393</v>
+        <v>2.5513964806304767</v>
       </c>
     </row>
     <row r="46">
@@ -2003,37 +2003,37 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="n">
-        <v>2.5508350639724418</v>
+        <v>2.602367085466834</v>
       </c>
       <c r="C51" t="n">
-        <v>2.5508350639724418</v>
+        <v>2.6705315327249455</v>
       </c>
       <c r="D51" t="n">
-        <v>2.5508350639724418</v>
+        <v>2.8129817129871704</v>
       </c>
       <c r="E51" t="n">
-        <v>2.5508350639724418</v>
+        <v>2.534791807456429</v>
       </c>
       <c r="F51" t="n">
-        <v>2.5508350639724418</v>
+        <v>2.8710720741489237</v>
       </c>
       <c r="G51" t="n">
-        <v>2.5508350639724418</v>
+        <v>2.799251479410322</v>
       </c>
       <c r="H51" t="n">
-        <v>2.5508350639724418</v>
+        <v>2.8656921747416586</v>
       </c>
       <c r="I51" t="n">
-        <v>2.5508350639724418</v>
+        <v>2.765505228771188</v>
       </c>
       <c r="J51" t="n">
-        <v>2.5508350639724418</v>
+        <v>2.8181653389105334</v>
       </c>
       <c r="K51" t="n">
-        <v>2.5508350639724418</v>
+        <v>2.8129817129871704</v>
       </c>
       <c r="L51" t="n">
-        <v>2.5508350639724418</v>
+        <v>2.4521502787976863</v>
       </c>
     </row>
     <row r="52">
@@ -2307,37 +2307,37 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="n">
-        <v>2.5960604884667458</v>
+        <v>2.5708560177049327</v>
       </c>
       <c r="C59" t="n">
-        <v>2.5960604884667458</v>
+        <v>2.629708667863433</v>
       </c>
       <c r="D59" t="n">
-        <v>2.5960604884667458</v>
+        <v>2.8185566878048047</v>
       </c>
       <c r="E59" t="n">
-        <v>2.5960604884667458</v>
+        <v>2.8735864714141264</v>
       </c>
       <c r="F59" t="n">
-        <v>2.5960604884667458</v>
+        <v>2.7414483265861516</v>
       </c>
       <c r="G59" t="n">
-        <v>2.5960604884667458</v>
+        <v>2.5025548491662613</v>
       </c>
       <c r="H59" t="n">
-        <v>2.5960604884667458</v>
+        <v>2.947314284341188</v>
       </c>
       <c r="I59" t="n">
-        <v>2.5960604884667458</v>
+        <v>2.887681315605867</v>
       </c>
       <c r="J59" t="n">
-        <v>2.5960604884667458</v>
+        <v>2.60210399077562</v>
       </c>
       <c r="K59" t="n">
-        <v>2.5960604884667458</v>
+        <v>2.8185566878048047</v>
       </c>
       <c r="L59" t="n">
-        <v>2.5960604884667458</v>
+        <v>2.9417915200350877</v>
       </c>
     </row>
     <row r="60">
@@ -2421,37 +2421,37 @@
         <v>61.0</v>
       </c>
       <c r="B62" t="n">
-        <v>1.859765953403525</v>
+        <v>1.8785514680843687</v>
       </c>
       <c r="C62" t="n">
-        <v>1.859765953403525</v>
+        <v>2.047769738097906</v>
       </c>
       <c r="D62" t="n">
-        <v>1.859765953403525</v>
+        <v>1.96799583520332</v>
       </c>
       <c r="E62" t="n">
-        <v>1.859765953403525</v>
+        <v>2.039082230192679</v>
       </c>
       <c r="F62" t="n">
-        <v>1.859765953403525</v>
+        <v>1.8395219689977864</v>
       </c>
       <c r="G62" t="n">
-        <v>1.859765953403525</v>
+        <v>2.045280049075476</v>
       </c>
       <c r="H62" t="n">
-        <v>1.859765953403525</v>
+        <v>1.9083866584644138</v>
       </c>
       <c r="I62" t="n">
-        <v>1.859765953403525</v>
+        <v>1.7982285830239904</v>
       </c>
       <c r="J62" t="n">
-        <v>1.859765953403525</v>
+        <v>1.9051447793427558</v>
       </c>
       <c r="K62" t="n">
-        <v>1.859765953403525</v>
+        <v>1.96799583520332</v>
       </c>
       <c r="L62" t="n">
-        <v>1.859765953403525</v>
+        <v>1.8588318667068366</v>
       </c>
     </row>
     <row r="63">
@@ -2535,37 +2535,37 @@
         <v>64.0</v>
       </c>
       <c r="B65" t="n">
-        <v>3.3926810335366637</v>
+        <v>3.460534654207397</v>
       </c>
       <c r="C65" t="n">
-        <v>3.3926810335366637</v>
+        <v>3.1947808865762304</v>
       </c>
       <c r="D65" t="n">
-        <v>3.3926810335366637</v>
+        <v>3.279950881980845</v>
       </c>
       <c r="E65" t="n">
-        <v>3.3926810335366637</v>
+        <v>3.090621809124687</v>
       </c>
       <c r="F65" t="n">
-        <v>3.3926810335366637</v>
+        <v>3.15641561467919</v>
       </c>
       <c r="G65" t="n">
-        <v>3.3926810335366637</v>
+        <v>3.519509072638572</v>
       </c>
       <c r="H65" t="n">
-        <v>3.3926810335366637</v>
+        <v>3.3824013843209992</v>
       </c>
       <c r="I65" t="n">
-        <v>3.3926810335366637</v>
+        <v>3.515230035333025</v>
       </c>
       <c r="J65" t="n">
-        <v>3.3926810335366637</v>
+        <v>3.2286730350272106</v>
       </c>
       <c r="K65" t="n">
-        <v>3.3926810335366637</v>
+        <v>3.279950881980845</v>
       </c>
       <c r="L65" t="n">
-        <v>3.3926810335366637</v>
+        <v>3.54540368345196</v>
       </c>
     </row>
     <row r="66">
@@ -2687,37 +2687,37 @@
         <v>68.0</v>
       </c>
       <c r="B69" t="n">
-        <v>5.240579420580594</v>
+        <v>5.292985214786399</v>
       </c>
       <c r="C69" t="n">
-        <v>5.240579420580594</v>
+        <v>5.434091457256495</v>
       </c>
       <c r="D69" t="n">
-        <v>5.240579420580594</v>
+        <v>5.88470714943849</v>
       </c>
       <c r="E69" t="n">
-        <v>5.240579420580594</v>
+        <v>5.774745777637988</v>
       </c>
       <c r="F69" t="n">
-        <v>5.240579420580594</v>
+        <v>5.733275429603917</v>
       </c>
       <c r="G69" t="n">
-        <v>5.240579420580594</v>
+        <v>5.576427964124613</v>
       </c>
       <c r="H69" t="n">
-        <v>5.240579420580594</v>
+        <v>5.0904905656290635</v>
       </c>
       <c r="I69" t="n">
-        <v>5.240579420580594</v>
+        <v>5.845212474414419</v>
       </c>
       <c r="J69" t="n">
-        <v>5.240579420580594</v>
+        <v>5.873883043375563</v>
       </c>
       <c r="K69" t="n">
-        <v>5.240579420580594</v>
+        <v>5.88470714943849</v>
       </c>
       <c r="L69" t="n">
-        <v>5.240579420580594</v>
+        <v>5.8238925498050165</v>
       </c>
     </row>
     <row r="70">
@@ -2953,37 +2953,37 @@
         <v>75.0</v>
       </c>
       <c r="B76" t="n">
-        <v>6.360499970187518</v>
+        <v>6.4241049698893935</v>
       </c>
       <c r="C76" t="n">
-        <v>6.360499970187518</v>
+        <v>6.5953658513674345</v>
       </c>
       <c r="D76" t="n">
-        <v>6.360499970187518</v>
+        <v>7.142278867404137</v>
       </c>
       <c r="E76" t="n">
-        <v>6.360499970187518</v>
+        <v>7.008818567325069</v>
       </c>
       <c r="F76" t="n">
-        <v>6.360499970187518</v>
+        <v>6.958485936853236</v>
       </c>
       <c r="G76" t="n">
-        <v>6.360499970187518</v>
+        <v>6.768119906794182</v>
       </c>
       <c r="H76" t="n">
-        <v>6.360499970187518</v>
+        <v>6.178336876981515</v>
       </c>
       <c r="I76" t="n">
-        <v>6.360499970187518</v>
+        <v>7.0943441145547395</v>
       </c>
       <c r="J76" t="n">
-        <v>6.360499970187518</v>
+        <v>7.129141631849575</v>
       </c>
       <c r="K76" t="n">
-        <v>6.360499970187518</v>
+        <v>7.142278867404137</v>
       </c>
       <c r="L76" t="n">
-        <v>6.360499970187518</v>
+        <v>7.068468086551049</v>
       </c>
     </row>
     <row r="77">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>3.5753581121424567</v>
+        <v>3.6475875689534147</v>
       </c>
       <c r="C79" t="n">
-        <v>3.5753581121424567</v>
+        <v>3.7448289847234415</v>
       </c>
       <c r="D79" t="n">
-        <v>3.5753581121424567</v>
+        <v>4.055364557841363</v>
       </c>
       <c r="E79" t="n">
-        <v>3.5753581121424567</v>
+        <v>3.979586199019562</v>
       </c>
       <c r="F79" t="n">
-        <v>3.5753581121424567</v>
+        <v>3.951007482127122</v>
       </c>
       <c r="G79" t="n">
-        <v>3.5753581121424567</v>
+        <v>3.8429182201911716</v>
       </c>
       <c r="H79" t="n">
-        <v>3.5753581121424567</v>
+        <v>3.508041181598602</v>
       </c>
       <c r="I79" t="n">
-        <v>3.5753581121424567</v>
+        <v>4.028147348684003</v>
       </c>
       <c r="J79" t="n">
-        <v>3.5753581121424567</v>
+        <v>4.047905274824688</v>
       </c>
       <c r="K79" t="n">
-        <v>3.5753581121424567</v>
+        <v>4.055364557841363</v>
       </c>
       <c r="L79" t="n">
-        <v>3.5753581121424567</v>
+        <v>4.0134550174530315</v>
       </c>
     </row>
     <row r="80">
@@ -3485,37 +3485,37 @@
         <v>89.0</v>
       </c>
       <c r="B90" t="n">
-        <v>4.287135022347317</v>
+        <v>4.41704820484269</v>
       </c>
       <c r="C90" t="n">
-        <v>4.287135022347317</v>
+        <v>4.224083201530185</v>
       </c>
       <c r="D90" t="n">
-        <v>4.287135022347317</v>
+        <v>3.772551056621785</v>
       </c>
       <c r="E90" t="n">
-        <v>4.287135022347317</v>
+        <v>3.852861915081076</v>
       </c>
       <c r="F90" t="n">
-        <v>4.287135022347317</v>
+        <v>4.296070011404278</v>
       </c>
       <c r="G90" t="n">
-        <v>4.287135022347317</v>
+        <v>3.9410625505253374</v>
       </c>
       <c r="H90" t="n">
-        <v>4.287135022347317</v>
+        <v>3.9968533578976624</v>
       </c>
       <c r="I90" t="n">
-        <v>4.287135022347317</v>
+        <v>3.8591815375059038</v>
       </c>
       <c r="J90" t="n">
-        <v>4.287135022347317</v>
+        <v>4.290846827299156</v>
       </c>
       <c r="K90" t="n">
-        <v>4.287135022347317</v>
+        <v>3.772551056621785</v>
       </c>
       <c r="L90" t="n">
-        <v>4.287135022347317</v>
+        <v>4.128710241630337</v>
       </c>
     </row>
     <row r="91">
@@ -3599,37 +3599,37 @@
         <v>92.0</v>
       </c>
       <c r="B93" t="n">
-        <v>5.609989911164336</v>
+        <v>5.779989605442043</v>
       </c>
       <c r="C93" t="n">
-        <v>5.609989911164336</v>
+        <v>5.527482577753834</v>
       </c>
       <c r="D93" t="n">
-        <v>5.609989911164336</v>
+        <v>4.936623935724038</v>
       </c>
       <c r="E93" t="n">
-        <v>5.609989911164336</v>
+        <v>5.0417158218822875</v>
       </c>
       <c r="F93" t="n">
-        <v>5.609989911164336</v>
+        <v>5.621681914846196</v>
       </c>
       <c r="G93" t="n">
-        <v>5.609989911164336</v>
+        <v>5.157131984989198</v>
       </c>
       <c r="H93" t="n">
-        <v>5.609989911164336</v>
+        <v>5.23013781869002</v>
       </c>
       <c r="I93" t="n">
-        <v>5.609989911164336</v>
+        <v>5.049985451334321</v>
       </c>
       <c r="J93" t="n">
-        <v>5.609989911164336</v>
+        <v>5.6148470449433</v>
       </c>
       <c r="K93" t="n">
-        <v>5.609989911164336</v>
+        <v>4.936623935724038</v>
       </c>
       <c r="L93" t="n">
-        <v>5.609989911164336</v>
+        <v>5.4026809701424465</v>
       </c>
     </row>
     <row r="94">
@@ -3637,37 +3637,37 @@
         <v>93.0</v>
       </c>
       <c r="B94" t="n">
-        <v>4.3311336394995745</v>
+        <v>4.418631288782394</v>
       </c>
       <c r="C94" t="n">
-        <v>4.3311336394995745</v>
+        <v>4.225597126207074</v>
       </c>
       <c r="D94" t="n">
-        <v>4.3311336394995745</v>
+        <v>3.7739031507607863</v>
       </c>
       <c r="E94" t="n">
-        <v>4.3311336394995745</v>
+        <v>3.854242792883808</v>
       </c>
       <c r="F94" t="n">
-        <v>4.3311336394995745</v>
+        <v>4.2976097363797585</v>
       </c>
       <c r="G94" t="n">
-        <v>4.3311336394995745</v>
+        <v>3.942475039712634</v>
       </c>
       <c r="H94" t="n">
-        <v>4.3311336394995745</v>
+        <v>3.998285842685423</v>
       </c>
       <c r="I94" t="n">
-        <v>4.3311336394995745</v>
+        <v>3.860564680281147</v>
       </c>
       <c r="J94" t="n">
-        <v>4.3311336394995745</v>
+        <v>4.29238468026906</v>
       </c>
       <c r="K94" t="n">
-        <v>4.3311336394995745</v>
+        <v>3.7739031507607863</v>
       </c>
       <c r="L94" t="n">
-        <v>4.3311336394995745</v>
+        <v>4.130189984339066</v>
       </c>
     </row>
     <row r="95">
@@ -3751,37 +3751,37 @@
         <v>96.0</v>
       </c>
       <c r="B97" t="n">
-        <v>5.802899841518297</v>
+        <v>5.978745291261276</v>
       </c>
       <c r="C97" t="n">
-        <v>5.802899841518297</v>
+        <v>5.717555340092532</v>
       </c>
       <c r="D97" t="n">
-        <v>5.802899841518297</v>
+        <v>5.1063789254307075</v>
       </c>
       <c r="E97" t="n">
-        <v>5.802899841518297</v>
+        <v>5.2150845914282415</v>
       </c>
       <c r="F97" t="n">
-        <v>5.802899841518297</v>
+        <v>5.814993896478624</v>
       </c>
       <c r="G97" t="n">
-        <v>5.802899841518297</v>
+        <v>5.334469553826996</v>
       </c>
       <c r="H97" t="n">
-        <v>5.802899841518297</v>
+        <v>5.409985828815177</v>
       </c>
       <c r="I97" t="n">
-        <v>5.802899841518297</v>
+        <v>5.223638587459701</v>
       </c>
       <c r="J97" t="n">
-        <v>5.802899841518297</v>
+        <v>5.807923996870181</v>
       </c>
       <c r="K97" t="n">
-        <v>5.802899841518297</v>
+        <v>5.1063789254307075</v>
       </c>
       <c r="L97" t="n">
-        <v>5.802899841518297</v>
+        <v>5.588462197235338</v>
       </c>
     </row>
     <row r="98">
@@ -3865,37 +3865,37 @@
         <v>99.0</v>
       </c>
       <c r="B100" t="n">
-        <v>3.349681718123463</v>
+        <v>3.3165165525974882</v>
       </c>
       <c r="C100" t="n">
-        <v>3.349681718123463</v>
+        <v>3.3003285529676254</v>
       </c>
       <c r="D100" t="n">
-        <v>3.349681718123463</v>
+        <v>2.874196863825894</v>
       </c>
       <c r="E100" t="n">
-        <v>3.349681718123463</v>
+        <v>3.2371265689952757</v>
       </c>
       <c r="F100" t="n">
-        <v>3.349681718123463</v>
+        <v>3.3226280680396036</v>
       </c>
       <c r="G100" t="n">
-        <v>3.349681718123463</v>
+        <v>3.260541590145908</v>
       </c>
       <c r="H100" t="n">
-        <v>3.349681718123463</v>
+        <v>2.9885295549577195</v>
       </c>
       <c r="I100" t="n">
-        <v>3.349681718123463</v>
+        <v>3.378662395244356</v>
       </c>
       <c r="J100" t="n">
-        <v>3.349681718123463</v>
+        <v>3.38500531789939</v>
       </c>
       <c r="K100" t="n">
-        <v>3.349681718123463</v>
+        <v>2.874196863825894</v>
       </c>
       <c r="L100" t="n">
-        <v>3.349681718123463</v>
+        <v>3.0629889564063433</v>
       </c>
     </row>
     <row r="101">
@@ -3903,37 +3903,37 @@
         <v>100.0</v>
       </c>
       <c r="B101" t="n">
-        <v>3.5251994419148582</v>
+        <v>3.4902964771434237</v>
       </c>
       <c r="C101" t="n">
-        <v>3.5251994419148582</v>
+        <v>3.4732602533875507</v>
       </c>
       <c r="D101" t="n">
-        <v>3.5251994419148582</v>
+        <v>3.0247999759178987</v>
       </c>
       <c r="E101" t="n">
-        <v>3.5251994419148582</v>
+        <v>3.406746591082926</v>
       </c>
       <c r="F101" t="n">
-        <v>3.5251994419148582</v>
+        <v>3.4967282257806853</v>
       </c>
       <c r="G101" t="n">
-        <v>3.5251994419148582</v>
+        <v>3.431388520208919</v>
       </c>
       <c r="H101" t="n">
-        <v>3.5251994419148582</v>
+        <v>3.1451235089836995</v>
       </c>
       <c r="I101" t="n">
-        <v>3.5251994419148582</v>
+        <v>3.555698658082214</v>
       </c>
       <c r="J101" t="n">
-        <v>3.5251994419148582</v>
+        <v>3.5623739392836056</v>
       </c>
       <c r="K101" t="n">
-        <v>3.5251994419148582</v>
+        <v>3.0247999759178987</v>
       </c>
       <c r="L101" t="n">
-        <v>3.5251994419148582</v>
+        <v>3.223484458626118</v>
       </c>
     </row>
     <row r="102">
@@ -4017,37 +4017,37 @@
         <v>103.0</v>
       </c>
       <c r="B104" t="n">
-        <v>2.614585245610267</v>
+        <v>2.6409951975861286</v>
       </c>
       <c r="C104" t="n">
-        <v>2.614585245610267</v>
+        <v>2.6281044344607314</v>
       </c>
       <c r="D104" t="n">
-        <v>2.614585245610267</v>
+        <v>2.2887689519704786</v>
       </c>
       <c r="E104" t="n">
-        <v>2.614585245610267</v>
+        <v>2.5777756833443943</v>
       </c>
       <c r="F104" t="n">
-        <v>2.614585245610267</v>
+        <v>2.645861895121517</v>
       </c>
       <c r="G104" t="n">
-        <v>2.614585245610267</v>
+        <v>2.5964214393445464</v>
       </c>
       <c r="H104" t="n">
-        <v>2.614585245610267</v>
+        <v>2.379813903327577</v>
       </c>
       <c r="I104" t="n">
-        <v>2.614585245610267</v>
+        <v>2.6904829264659313</v>
       </c>
       <c r="J104" t="n">
-        <v>2.614585245610267</v>
+        <v>2.6955338972676555</v>
       </c>
       <c r="K104" t="n">
-        <v>2.614585245610267</v>
+        <v>2.2887689519704786</v>
       </c>
       <c r="L104" t="n">
-        <v>2.614585245610267</v>
+        <v>2.4391071161073956</v>
       </c>
     </row>
     <row r="105">
@@ -4093,37 +4093,37 @@
         <v>105.0</v>
       </c>
       <c r="B106" t="n">
-        <v>6.158779827532749</v>
+        <v>6.09956079072955</v>
       </c>
       <c r="C106" t="n">
-        <v>6.158779827532749</v>
+        <v>6.545312576601218</v>
       </c>
       <c r="D106" t="n">
-        <v>6.158779827532749</v>
+        <v>5.789527864382703</v>
       </c>
       <c r="E106" t="n">
-        <v>6.158779827532749</v>
+        <v>5.568036897355298</v>
       </c>
       <c r="F106" t="n">
-        <v>6.158779827532749</v>
+        <v>6.3935603672804335</v>
       </c>
       <c r="G106" t="n">
-        <v>6.158779827532749</v>
+        <v>6.557600401358389</v>
       </c>
       <c r="H106" t="n">
-        <v>6.158779827532749</v>
+        <v>6.424920564060229</v>
       </c>
       <c r="I106" t="n">
-        <v>6.158779827532749</v>
+        <v>6.43676009527284</v>
       </c>
       <c r="J106" t="n">
-        <v>6.158779827532749</v>
+        <v>6.271122345315695</v>
       </c>
       <c r="K106" t="n">
-        <v>6.158779827532749</v>
+        <v>5.789527864382703</v>
       </c>
       <c r="L106" t="n">
-        <v>6.158779827532749</v>
+        <v>5.850946642323067</v>
       </c>
     </row>
     <row r="107">
@@ -4131,37 +4131,37 @@
         <v>106.0</v>
       </c>
       <c r="B107" t="n">
-        <v>6.851330765405115</v>
+        <v>6.785452584968527</v>
       </c>
       <c r="C107" t="n">
-        <v>6.851330765405115</v>
+        <v>7.281328880241172</v>
       </c>
       <c r="D107" t="n">
-        <v>6.851330765405115</v>
+        <v>6.4405566500509</v>
       </c>
       <c r="E107" t="n">
-        <v>6.851330765405115</v>
+        <v>6.19415916237482</v>
       </c>
       <c r="F107" t="n">
-        <v>6.851330765405115</v>
+        <v>7.112512229938185</v>
       </c>
       <c r="G107" t="n">
-        <v>6.851330765405115</v>
+        <v>7.294998463203425</v>
       </c>
       <c r="H107" t="n">
-        <v>6.851330765405115</v>
+        <v>7.14739886122285</v>
       </c>
       <c r="I107" t="n">
-        <v>6.851330765405115</v>
+        <v>7.160569740311968</v>
       </c>
       <c r="J107" t="n">
-        <v>6.851330765405115</v>
+        <v>6.976306129016662</v>
       </c>
       <c r="K107" t="n">
-        <v>6.851330765405115</v>
+        <v>6.4405566500509</v>
       </c>
       <c r="L107" t="n">
-        <v>6.851330765405115</v>
+        <v>6.508881931139083</v>
       </c>
     </row>
     <row r="108">
@@ -4283,37 +4283,37 @@
         <v>110.0</v>
       </c>
       <c r="B111" t="n">
-        <v>4.691705169920797</v>
+        <v>4.645252643485938</v>
       </c>
       <c r="C111" t="n">
-        <v>4.691705169920797</v>
+        <v>4.984724571498527</v>
       </c>
       <c r="D111" t="n">
-        <v>4.691705169920797</v>
+        <v>4.409140352766705</v>
       </c>
       <c r="E111" t="n">
-        <v>4.691705169920797</v>
+        <v>4.240459109085019</v>
       </c>
       <c r="F111" t="n">
-        <v>4.691705169920797</v>
+        <v>4.8691543893677744</v>
       </c>
       <c r="G111" t="n">
-        <v>4.691705169920797</v>
+        <v>4.994082630610371</v>
       </c>
       <c r="H111" t="n">
-        <v>4.691705169920797</v>
+        <v>4.8930374265223495</v>
       </c>
       <c r="I111" t="n">
-        <v>4.691705169920797</v>
+        <v>4.902054077974796</v>
       </c>
       <c r="J111" t="n">
-        <v>4.691705169920797</v>
+        <v>4.77590906159609</v>
       </c>
       <c r="K111" t="n">
-        <v>4.691705169920797</v>
+        <v>4.409140352766705</v>
       </c>
       <c r="L111" t="n">
-        <v>4.691705169920797</v>
+        <v>4.455915153506584</v>
       </c>
     </row>
     <row r="112">
@@ -4473,37 +4473,37 @@
         <v>115.0</v>
       </c>
       <c r="B116" t="n">
-        <v>1.0834473743888813</v>
+        <v>1.0948520835929747</v>
       </c>
       <c r="C116" t="n">
-        <v>1.0834473743888813</v>
+        <v>0.9558140137684086</v>
       </c>
       <c r="D116" t="n">
-        <v>1.0834473743888813</v>
+        <v>1.0935209567758366</v>
       </c>
       <c r="E116" t="n">
-        <v>1.0834473743888813</v>
+        <v>1.0185968140867054</v>
       </c>
       <c r="F116" t="n">
-        <v>1.0834473743888813</v>
+        <v>1.0522004992006746</v>
       </c>
       <c r="G116" t="n">
-        <v>1.0834473743888813</v>
+        <v>1.0203301037457275</v>
       </c>
       <c r="H116" t="n">
-        <v>1.0834473743888813</v>
+        <v>0.9835111942043877</v>
       </c>
       <c r="I116" t="n">
-        <v>1.0834473743888813</v>
+        <v>1.090207256611547</v>
       </c>
       <c r="J116" t="n">
-        <v>1.0834473743888813</v>
+        <v>0.9614334435516149</v>
       </c>
       <c r="K116" t="n">
-        <v>1.0834473743888813</v>
+        <v>1.0935209567758366</v>
       </c>
       <c r="L116" t="n">
-        <v>1.0834473743888813</v>
+        <v>1.0842929319002177</v>
       </c>
     </row>
     <row r="117">
@@ -4511,37 +4511,37 @@
         <v>116.0</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9389956280457245</v>
+        <v>0.9485772160870074</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9389956280457245</v>
+        <v>0.8281149662719638</v>
       </c>
       <c r="D117" t="n">
-        <v>0.9389956280457245</v>
+        <v>0.9474239310091583</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9389956280457245</v>
+        <v>0.8825098337034044</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9389956280457245</v>
+        <v>0.9116239857914809</v>
       </c>
       <c r="G117" t="n">
-        <v>0.9389956280457245</v>
+        <v>0.8840115517017225</v>
       </c>
       <c r="H117" t="n">
-        <v>0.9389956280457245</v>
+        <v>0.852111736890695</v>
       </c>
       <c r="I117" t="n">
-        <v>0.9389956280457245</v>
+        <v>0.9445529491442168</v>
       </c>
       <c r="J117" t="n">
-        <v>0.9389956280457245</v>
+        <v>0.8329836267418395</v>
       </c>
       <c r="K117" t="n">
-        <v>0.9389956280457245</v>
+        <v>0.9474239310091583</v>
       </c>
       <c r="L117" t="n">
-        <v>0.9389956280457245</v>
+        <v>0.9394287924167652</v>
       </c>
     </row>
     <row r="118">
@@ -4625,37 +4625,37 @@
         <v>119.0</v>
       </c>
       <c r="B120" t="n">
-        <v>1.2094154782356819</v>
+        <v>1.2218836790422354</v>
       </c>
       <c r="C120" t="n">
-        <v>1.2094154782356819</v>
+        <v>1.0667135416053593</v>
       </c>
       <c r="D120" t="n">
-        <v>1.2094154782356819</v>
+        <v>1.2203981065553484</v>
       </c>
       <c r="E120" t="n">
-        <v>1.2094154782356819</v>
+        <v>1.1367807956053193</v>
       </c>
       <c r="F120" t="n">
-        <v>1.2094154782356819</v>
+        <v>1.1742833907154162</v>
       </c>
       <c r="G120" t="n">
-        <v>1.2094154782356819</v>
+        <v>1.1387151923856238</v>
       </c>
       <c r="H120" t="n">
-        <v>1.2094154782356819</v>
+        <v>1.0976243223741633</v>
       </c>
       <c r="I120" t="n">
-        <v>1.2094154782356819</v>
+        <v>1.2166999301453465</v>
       </c>
       <c r="J120" t="n">
-        <v>1.2094154782356819</v>
+        <v>1.0729849728247167</v>
       </c>
       <c r="K120" t="n">
-        <v>1.2094154782356819</v>
+        <v>1.2203981065553484</v>
       </c>
       <c r="L120" t="n">
-        <v>1.2094154782356819</v>
+        <v>1.210099388441472</v>
       </c>
     </row>
     <row r="121">
@@ -4853,37 +4853,37 @@
         <v>125.0</v>
       </c>
       <c r="B126" t="n">
-        <v>1.3493816736658353</v>
+        <v>1.3630117915816518</v>
       </c>
       <c r="C126" t="n">
-        <v>1.3493816736658353</v>
+        <v>1.297954607695</v>
       </c>
       <c r="D126" t="n">
-        <v>1.3493816736658353</v>
+        <v>1.2112353695999123</v>
       </c>
       <c r="E126" t="n">
-        <v>1.3493816736658353</v>
+        <v>1.2389632590560877</v>
       </c>
       <c r="F126" t="n">
-        <v>1.3493816736658353</v>
+        <v>1.3489259561618463</v>
       </c>
       <c r="G126" t="n">
-        <v>1.3493816736658353</v>
+        <v>1.2132220876220416</v>
       </c>
       <c r="H126" t="n">
-        <v>1.3493816736658353</v>
+        <v>1.3448383013849985</v>
       </c>
       <c r="I126" t="n">
-        <v>1.3493816736658353</v>
+        <v>1.2586404972557492</v>
       </c>
       <c r="J126" t="n">
-        <v>1.3493816736658353</v>
+        <v>1.3505679836908613</v>
       </c>
       <c r="K126" t="n">
-        <v>1.3493816736658353</v>
+        <v>1.2112353695999123</v>
       </c>
       <c r="L126" t="n">
-        <v>1.3493816736658353</v>
+        <v>1.3279372815826778</v>
       </c>
     </row>
     <row r="127">
@@ -4891,37 +4891,37 @@
         <v>126.0</v>
       </c>
       <c r="B127" t="n">
-        <v>1.610653813457661</v>
+        <v>1.627089056452127</v>
       </c>
       <c r="C127" t="n">
-        <v>1.610653813457661</v>
+        <v>1.42046085047624</v>
       </c>
       <c r="D127" t="n">
-        <v>1.610653813457661</v>
+        <v>1.6251108331748714</v>
       </c>
       <c r="E127" t="n">
-        <v>1.610653813457661</v>
+        <v>1.513764054500005</v>
       </c>
       <c r="F127" t="n">
-        <v>1.610653813457661</v>
+        <v>1.5637033925391417</v>
       </c>
       <c r="G127" t="n">
-        <v>1.610653813457661</v>
+        <v>1.5163399427666664</v>
       </c>
       <c r="H127" t="n">
-        <v>1.610653813457661</v>
+        <v>1.4616223734411222</v>
       </c>
       <c r="I127" t="n">
-        <v>1.610653813457661</v>
+        <v>1.6201862544537118</v>
       </c>
       <c r="J127" t="n">
-        <v>1.610653813457661</v>
+        <v>1.4288120358470988</v>
       </c>
       <c r="K127" t="n">
-        <v>1.610653813457661</v>
+        <v>1.6251108331748714</v>
       </c>
       <c r="L127" t="n">
-        <v>1.610653813457661</v>
+        <v>1.6113968178180997</v>
       </c>
     </row>
     <row r="128">
@@ -4929,37 +4929,37 @@
         <v>127.0</v>
       </c>
       <c r="B128" t="n">
-        <v>1.1457302493189958</v>
+        <v>1.15779056773288</v>
       </c>
       <c r="C128" t="n">
-        <v>1.1457302493189958</v>
+        <v>1.287294193328918</v>
       </c>
       <c r="D128" t="n">
-        <v>1.1457302493189958</v>
+        <v>1.1990934019071973</v>
       </c>
       <c r="E128" t="n">
-        <v>1.1457302493189958</v>
+        <v>1.2011338325908443</v>
       </c>
       <c r="F128" t="n">
-        <v>1.1457302493189958</v>
+        <v>1.2833933014863872</v>
       </c>
       <c r="G128" t="n">
-        <v>1.1457302493189958</v>
+        <v>1.1318006129533447</v>
       </c>
       <c r="H128" t="n">
-        <v>1.1457302493189958</v>
+        <v>1.155894621879079</v>
       </c>
       <c r="I128" t="n">
-        <v>1.1457302493189958</v>
+        <v>1.1823556377170148</v>
       </c>
       <c r="J128" t="n">
-        <v>1.1457302493189958</v>
+        <v>1.238651700679274</v>
       </c>
       <c r="K128" t="n">
-        <v>1.1457302493189958</v>
+        <v>1.1990934019071973</v>
       </c>
       <c r="L128" t="n">
-        <v>1.1457302493189958</v>
+        <v>1.1251854134138044</v>
       </c>
     </row>
     <row r="129">
@@ -5081,37 +5081,37 @@
         <v>131.0</v>
       </c>
       <c r="B132" t="n">
-        <v>2.2075311489342995</v>
+        <v>2.2300569769846494</v>
       </c>
       <c r="C132" t="n">
-        <v>2.2075311489342995</v>
+        <v>2.4794980001316635</v>
       </c>
       <c r="D132" t="n">
-        <v>2.2075311489342995</v>
+        <v>2.3096116702829685</v>
       </c>
       <c r="E132" t="n">
-        <v>2.2075311489342995</v>
+        <v>2.3135418082620944</v>
       </c>
       <c r="F132" t="n">
-        <v>2.2075311489342995</v>
+        <v>2.4719843691587213</v>
       </c>
       <c r="G132" t="n">
-        <v>2.2075311489342995</v>
+        <v>2.179996904288505</v>
       </c>
       <c r="H132" t="n">
-        <v>2.2075311489342995</v>
+        <v>2.226405135799302</v>
       </c>
       <c r="I132" t="n">
-        <v>2.2075311489342995</v>
+        <v>2.2773725340767283</v>
       </c>
       <c r="J132" t="n">
-        <v>2.2075311489342995</v>
+        <v>2.3858061588484225</v>
       </c>
       <c r="K132" t="n">
-        <v>2.2075311489342995</v>
+        <v>2.3096116702829685</v>
       </c>
       <c r="L132" t="n">
-        <v>2.2075311489342995</v>
+        <v>2.1672551595391205</v>
       </c>
     </row>
     <row r="133">
@@ -5119,37 +5119,37 @@
         <v>132.0</v>
       </c>
       <c r="B133" t="n">
-        <v>4.6266641910198665</v>
+        <v>4.580855634673135</v>
       </c>
       <c r="C133" t="n">
-        <v>4.6266641910198665</v>
+        <v>4.558496364594876</v>
       </c>
       <c r="D133" t="n">
-        <v>4.6266641910198665</v>
+        <v>3.9699126146392665</v>
       </c>
       <c r="E133" t="n">
-        <v>4.6266641910198665</v>
+        <v>4.471200203152381</v>
       </c>
       <c r="F133" t="n">
-        <v>4.6266641910198665</v>
+        <v>4.589297012698968</v>
       </c>
       <c r="G133" t="n">
-        <v>4.6266641910198665</v>
+        <v>4.503541616159911</v>
       </c>
       <c r="H133" t="n">
-        <v>4.6266641910198665</v>
+        <v>4.127831787992517</v>
       </c>
       <c r="I133" t="n">
-        <v>4.6266641910198665</v>
+        <v>4.666693027294455</v>
       </c>
       <c r="J133" t="n">
-        <v>4.6266641910198665</v>
+        <v>4.675454030752089</v>
       </c>
       <c r="K133" t="n">
-        <v>4.6266641910198665</v>
+        <v>3.9699126146392665</v>
       </c>
       <c r="L133" t="n">
-        <v>4.6266641910198665</v>
+        <v>4.230676976090003</v>
       </c>
     </row>
     <row r="134">
@@ -5309,37 +5309,37 @@
         <v>137.0</v>
       </c>
       <c r="B138" t="n">
-        <v>2.3576502384799185</v>
+        <v>2.2876210234755643</v>
       </c>
       <c r="C138" t="n">
-        <v>2.3576502384799185</v>
+        <v>2.5435008214168406</v>
       </c>
       <c r="D138" t="n">
-        <v>2.3576502384799185</v>
+        <v>2.369229247293892</v>
       </c>
       <c r="E138" t="n">
-        <v>2.3576502384799185</v>
+        <v>2.3732608331946095</v>
       </c>
       <c r="F138" t="n">
-        <v>2.3576502384799185</v>
+        <v>2.5357932424833276</v>
       </c>
       <c r="G138" t="n">
-        <v>2.3576502384799185</v>
+        <v>2.236268759422087</v>
       </c>
       <c r="H138" t="n">
-        <v>2.3576502384799185</v>
+        <v>2.2838749179920668</v>
       </c>
       <c r="I138" t="n">
-        <v>2.3576502384799185</v>
+        <v>2.3361579282535105</v>
       </c>
       <c r="J138" t="n">
-        <v>2.3576502384799185</v>
+        <v>2.447390530038777</v>
       </c>
       <c r="K138" t="n">
-        <v>2.3576502384799185</v>
+        <v>2.369229247293892</v>
       </c>
       <c r="L138" t="n">
-        <v>2.3576502384799185</v>
+        <v>2.223198114382397</v>
       </c>
     </row>
     <row r="139">
@@ -5879,37 +5879,37 @@
         <v>152.0</v>
       </c>
       <c r="B153" t="n">
-        <v>4.927508920330704</v>
+        <v>4.976784009534011</v>
       </c>
       <c r="C153" t="n">
-        <v>4.927508920330704</v>
+        <v>4.9436054475453375</v>
       </c>
       <c r="D153" t="n">
-        <v>4.927508920330704</v>
+        <v>5.094908798442571</v>
       </c>
       <c r="E153" t="n">
-        <v>4.927508920330704</v>
+        <v>5.104473711613079</v>
       </c>
       <c r="F153" t="n">
-        <v>4.927508920330704</v>
+        <v>4.3341918122907055</v>
       </c>
       <c r="G153" t="n">
-        <v>4.927508920330704</v>
+        <v>5.010410925233296</v>
       </c>
       <c r="H153" t="n">
-        <v>4.927508920330704</v>
+        <v>4.881477551962816</v>
       </c>
       <c r="I153" t="n">
-        <v>4.927508920330704</v>
+        <v>4.747933055240044</v>
       </c>
       <c r="J153" t="n">
-        <v>4.927508920330704</v>
+        <v>4.9167866131593385</v>
       </c>
       <c r="K153" t="n">
-        <v>4.927508920330704</v>
+        <v>5.094908798442571</v>
       </c>
       <c r="L153" t="n">
-        <v>4.927508920330704</v>
+        <v>4.4597862176247185</v>
       </c>
     </row>
     <row r="154">
@@ -5920,34 +5920,34 @@
         <v>2.881209273105489</v>
       </c>
       <c r="C154" t="n">
-        <v>2.881209273105489</v>
+        <v>2.86200121017028</v>
       </c>
       <c r="D154" t="n">
-        <v>2.881209273105489</v>
+        <v>2.949595250181243</v>
       </c>
       <c r="E154" t="n">
-        <v>2.881209273105489</v>
+        <v>2.9551326647989002</v>
       </c>
       <c r="F154" t="n">
-        <v>2.881209273105489</v>
+        <v>2.509193410255938</v>
       </c>
       <c r="G154" t="n">
-        <v>2.881209273105489</v>
+        <v>2.900676901427938</v>
       </c>
       <c r="H154" t="n">
-        <v>2.881209273105489</v>
+        <v>2.8260335112450354</v>
       </c>
       <c r="I154" t="n">
-        <v>2.881209273105489</v>
+        <v>2.7487206036338647</v>
       </c>
       <c r="J154" t="n">
-        <v>2.881209273105489</v>
+        <v>2.8464749839609866</v>
       </c>
       <c r="K154" t="n">
-        <v>2.881209273105489</v>
+        <v>2.949595250181243</v>
       </c>
       <c r="L154" t="n">
-        <v>2.881209273105489</v>
+        <v>2.5819037719283164</v>
       </c>
     </row>
     <row r="155">
@@ -5996,34 +5996,34 @@
         <v>4.017822780517262</v>
       </c>
       <c r="C156" t="n">
-        <v>4.017822780517262</v>
+        <v>3.991037293759644</v>
       </c>
       <c r="D156" t="n">
-        <v>4.017822780517262</v>
+        <v>4.113186466566607</v>
       </c>
       <c r="E156" t="n">
-        <v>4.017822780517262</v>
+        <v>4.120908345988442</v>
       </c>
       <c r="F156" t="n">
-        <v>4.017822780517262</v>
+        <v>3.4990497006084684</v>
       </c>
       <c r="G156" t="n">
-        <v>4.017822780517262</v>
+        <v>4.044970229085714</v>
       </c>
       <c r="H156" t="n">
-        <v>4.017822780517262</v>
+        <v>3.9408806316061615</v>
       </c>
       <c r="I156" t="n">
-        <v>4.017822780517262</v>
+        <v>3.833068413893361</v>
       </c>
       <c r="J156" t="n">
-        <v>4.017822780517262</v>
+        <v>3.969386098221208</v>
       </c>
       <c r="K156" t="n">
-        <v>4.017822780517262</v>
+        <v>4.113186466566607</v>
       </c>
       <c r="L156" t="n">
-        <v>4.017822780517262</v>
+        <v>3.6004437056305516</v>
       </c>
     </row>
     <row r="157">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>2.5315801556856155</v>
+        <v>2.5571516724097125</v>
       </c>
       <c r="C157" t="n">
-        <v>2.5315801556856155</v>
+        <v>2.5401039936044936</v>
       </c>
       <c r="D157" t="n">
-        <v>2.5315801556856155</v>
+        <v>2.6178460889107917</v>
       </c>
       <c r="E157" t="n">
-        <v>2.5315801556856155</v>
+        <v>2.6227606951431626</v>
       </c>
       <c r="F157" t="n">
-        <v>2.5315801556856155</v>
+        <v>2.2269774657914896</v>
       </c>
       <c r="G157" t="n">
-        <v>2.5315801556856155</v>
+        <v>2.574429722562919</v>
       </c>
       <c r="H157" t="n">
-        <v>2.5315801556856155</v>
+        <v>2.5081816815676854</v>
       </c>
       <c r="I157" t="n">
-        <v>2.5315801556856155</v>
+        <v>2.4395643711757637</v>
       </c>
       <c r="J157" t="n">
-        <v>2.5315801556856155</v>
+        <v>2.526324045133582</v>
       </c>
       <c r="K157" t="n">
-        <v>2.5315801556856155</v>
+        <v>2.6178460889107917</v>
       </c>
       <c r="L157" t="n">
-        <v>2.5315801556856155</v>
+        <v>2.2915098913558545</v>
       </c>
     </row>
     <row r="158">
@@ -6107,37 +6107,37 @@
         <v>158.0</v>
       </c>
       <c r="B159" t="n">
-        <v>3.61576174958742</v>
+        <v>3.6522845955428482</v>
       </c>
       <c r="C159" t="n">
-        <v>3.61576174958742</v>
+        <v>3.4123836826408573</v>
       </c>
       <c r="D159" t="n">
-        <v>3.61576174958742</v>
+        <v>3.771132405911304</v>
       </c>
       <c r="E159" t="n">
-        <v>3.61576174958742</v>
+        <v>3.7016397917951624</v>
       </c>
       <c r="F159" t="n">
-        <v>3.61576174958742</v>
+        <v>3.632471117963032</v>
       </c>
       <c r="G159" t="n">
-        <v>3.61576174958742</v>
+        <v>3.7640659469470883</v>
       </c>
       <c r="H159" t="n">
-        <v>3.61576174958742</v>
+        <v>3.507723855052426</v>
       </c>
       <c r="I159" t="n">
-        <v>3.61576174958742</v>
+        <v>3.60638514859119</v>
       </c>
       <c r="J159" t="n">
-        <v>3.61576174958742</v>
+        <v>3.2020561021950593</v>
       </c>
       <c r="K159" t="n">
-        <v>3.61576174958742</v>
+        <v>3.771132405911304</v>
       </c>
       <c r="L159" t="n">
-        <v>3.61576174958742</v>
+        <v>3.4181903465415693</v>
       </c>
     </row>
     <row r="160">
@@ -6297,37 +6297,37 @@
         <v>163.0</v>
       </c>
       <c r="B164" t="n">
-        <v>4.1101897537090375</v>
+        <v>4.069494805652512</v>
       </c>
       <c r="C164" t="n">
-        <v>4.1101897537090375</v>
+        <v>3.802189371646256</v>
       </c>
       <c r="D164" t="n">
-        <v>4.1101897537090375</v>
+        <v>4.201918918370301</v>
       </c>
       <c r="E164" t="n">
-        <v>4.1101897537090375</v>
+        <v>4.1244879776046295</v>
       </c>
       <c r="F164" t="n">
-        <v>4.1101897537090375</v>
+        <v>4.04741798168557</v>
       </c>
       <c r="G164" t="n">
-        <v>4.1101897537090375</v>
+        <v>4.194045238952128</v>
       </c>
       <c r="H164" t="n">
-        <v>4.1101897537090375</v>
+        <v>3.908420506227712</v>
       </c>
       <c r="I164" t="n">
-        <v>4.1101897537090375</v>
+        <v>4.0183521424602615</v>
       </c>
       <c r="J164" t="n">
-        <v>4.1101897537090375</v>
+        <v>3.567835510735694</v>
       </c>
       <c r="K164" t="n">
-        <v>4.1101897537090375</v>
+        <v>4.201918918370301</v>
       </c>
       <c r="L164" t="n">
-        <v>4.1101897537090375</v>
+        <v>3.808659346250906</v>
       </c>
     </row>
     <row r="165">
@@ -6335,37 +6335,37 @@
         <v>164.0</v>
       </c>
       <c r="B165" t="n">
-        <v>6.4946501355833455</v>
+        <v>6.560252662205399</v>
       </c>
       <c r="C165" t="n">
-        <v>6.4946501355833455</v>
+        <v>6.129341389723669</v>
       </c>
       <c r="D165" t="n">
-        <v>6.4946501355833455</v>
+        <v>6.773727719794952</v>
       </c>
       <c r="E165" t="n">
-        <v>6.4946501355833455</v>
+        <v>6.64890472343936</v>
       </c>
       <c r="F165" t="n">
-        <v>6.4946501355833455</v>
+        <v>6.524663590313477</v>
       </c>
       <c r="G165" t="n">
-        <v>6.4946501355833455</v>
+        <v>6.761034909303421</v>
       </c>
       <c r="H165" t="n">
-        <v>6.4946501355833455</v>
+        <v>6.300591905261643</v>
       </c>
       <c r="I165" t="n">
-        <v>6.4946501355833455</v>
+        <v>6.47780783591069</v>
       </c>
       <c r="J165" t="n">
-        <v>6.4946501355833455</v>
+        <v>5.751549891427331</v>
       </c>
       <c r="K165" t="n">
-        <v>6.4946501355833455</v>
+        <v>6.773727719794952</v>
       </c>
       <c r="L165" t="n">
-        <v>6.4946501355833455</v>
+        <v>6.13977134974367</v>
       </c>
     </row>
     <row r="166">
@@ -6414,34 +6414,34 @@
         <v>0.5735244294327863</v>
       </c>
       <c r="C167" t="n">
-        <v>0.5735244294327863</v>
+        <v>0.6338198639321658</v>
       </c>
       <c r="D167" t="n">
-        <v>0.5735244294327863</v>
+        <v>0.6179646995861987</v>
       </c>
       <c r="E167" t="n">
-        <v>0.5735244294327863</v>
+        <v>0.6326321936047701</v>
       </c>
       <c r="F167" t="n">
-        <v>0.5735244294327863</v>
+        <v>0.6209957954809315</v>
       </c>
       <c r="G167" t="n">
-        <v>0.5735244294327863</v>
+        <v>0.5595823988412585</v>
       </c>
       <c r="H167" t="n">
-        <v>0.5735244294327863</v>
+        <v>0.6105148538714558</v>
       </c>
       <c r="I167" t="n">
-        <v>0.5735244294327863</v>
+        <v>0.5381743584009729</v>
       </c>
       <c r="J167" t="n">
-        <v>0.5735244294327863</v>
+        <v>0.5895483948099888</v>
       </c>
       <c r="K167" t="n">
-        <v>0.5735244294327863</v>
+        <v>0.6179646995861987</v>
       </c>
       <c r="L167" t="n">
-        <v>0.5735244294327863</v>
+        <v>0.6221401363377858</v>
       </c>
     </row>
     <row r="168">
@@ -6449,37 +6449,37 @@
         <v>167.0</v>
       </c>
       <c r="B168" t="n">
-        <v>2.6577923411552913</v>
+        <v>2.684638728439688</v>
       </c>
       <c r="C168" t="n">
-        <v>2.6577923411552913</v>
+        <v>2.505272035867677</v>
       </c>
       <c r="D168" t="n">
-        <v>2.6577923411552913</v>
+        <v>2.671512439076158</v>
       </c>
       <c r="E168" t="n">
-        <v>2.6577923411552913</v>
+        <v>2.814014942362784</v>
       </c>
       <c r="F168" t="n">
-        <v>2.6577923411552913</v>
+        <v>2.866744765066985</v>
       </c>
       <c r="G168" t="n">
-        <v>2.6577923411552913</v>
+        <v>2.746653722665089</v>
       </c>
       <c r="H168" t="n">
-        <v>2.6577923411552913</v>
+        <v>2.8192004722710013</v>
       </c>
       <c r="I168" t="n">
-        <v>2.6577923411552913</v>
+        <v>2.5357228555839146</v>
       </c>
       <c r="J168" t="n">
-        <v>2.6577923411552913</v>
+        <v>2.8002796655677025</v>
       </c>
       <c r="K168" t="n">
-        <v>2.6577923411552913</v>
+        <v>2.671512439076158</v>
       </c>
       <c r="L168" t="n">
-        <v>2.6577923411552913</v>
+        <v>2.7934621849727996</v>
       </c>
     </row>
     <row r="169">
@@ -6563,37 +6563,37 @@
         <v>170.0</v>
       </c>
       <c r="B171" t="n">
-        <v>2.447432886597488</v>
+        <v>2.326272842706523</v>
       </c>
       <c r="C171" t="n">
-        <v>2.447432886597488</v>
+        <v>2.28348425683301</v>
       </c>
       <c r="D171" t="n">
-        <v>2.447432886597488</v>
+        <v>2.266806343283933</v>
       </c>
       <c r="E171" t="n">
-        <v>2.447432886597488</v>
+        <v>2.036283665275538</v>
       </c>
       <c r="F171" t="n">
-        <v>2.447432886597488</v>
+        <v>2.079487895936177</v>
       </c>
       <c r="G171" t="n">
-        <v>2.447432886597488</v>
+        <v>2.257189589182864</v>
       </c>
       <c r="H171" t="n">
-        <v>2.447432886597488</v>
+        <v>1.9905733944772115</v>
       </c>
       <c r="I171" t="n">
-        <v>2.447432886597488</v>
+        <v>2.178499545041113</v>
       </c>
       <c r="J171" t="n">
-        <v>2.447432886597488</v>
+        <v>2.03294913856584</v>
       </c>
       <c r="K171" t="n">
-        <v>2.447432886597488</v>
+        <v>2.266806343283933</v>
       </c>
       <c r="L171" t="n">
-        <v>2.447432886597488</v>
+        <v>2.1678479757615667</v>
       </c>
     </row>
     <row r="172">
@@ -6715,37 +6715,37 @@
         <v>174.0</v>
       </c>
       <c r="B175" t="n">
-        <v>2.333371163085879</v>
+        <v>2.2871657935198217</v>
       </c>
       <c r="C175" t="n">
-        <v>2.333371163085879</v>
+        <v>2.245096527969215</v>
       </c>
       <c r="D175" t="n">
-        <v>2.333371163085879</v>
+        <v>2.228698987372752</v>
       </c>
       <c r="E175" t="n">
-        <v>2.333371163085879</v>
+        <v>2.0020516336780068</v>
       </c>
       <c r="F175" t="n">
-        <v>2.333371163085879</v>
+        <v>2.044529556597568</v>
       </c>
       <c r="G175" t="n">
-        <v>2.333371163085879</v>
+        <v>2.219243900840828</v>
       </c>
       <c r="H175" t="n">
-        <v>2.333371163085879</v>
+        <v>1.9571097997438485</v>
       </c>
       <c r="I175" t="n">
-        <v>2.333371163085879</v>
+        <v>2.141876717616446</v>
       </c>
       <c r="J175" t="n">
-        <v>2.333371163085879</v>
+        <v>1.9987731638063795</v>
       </c>
       <c r="K175" t="n">
-        <v>2.333371163085879</v>
+        <v>2.228698987372752</v>
       </c>
       <c r="L175" t="n">
-        <v>2.333371163085879</v>
+        <v>2.131404212218008</v>
       </c>
     </row>
     <row r="176">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>3.1815254120534293</v>
+        <v>3.15002516044894</v>
       </c>
       <c r="C176" t="n">
-        <v>3.1815254120534293</v>
+        <v>3.0920847849232644</v>
       </c>
       <c r="D176" t="n">
-        <v>3.1815254120534293</v>
+        <v>3.0695010852217877</v>
       </c>
       <c r="E176" t="n">
-        <v>3.1815254120534293</v>
+        <v>2.757348433800355</v>
       </c>
       <c r="F176" t="n">
-        <v>3.1815254120534293</v>
+        <v>2.815851637345694</v>
       </c>
       <c r="G176" t="n">
-        <v>3.1815254120534293</v>
+        <v>3.0564789595174906</v>
       </c>
       <c r="H176" t="n">
-        <v>3.1815254120534293</v>
+        <v>2.6954517807241247</v>
       </c>
       <c r="I176" t="n">
-        <v>3.1815254120534293</v>
+        <v>2.949924124515866</v>
       </c>
       <c r="J176" t="n">
-        <v>3.1815254120534293</v>
+        <v>2.7528331237984913</v>
       </c>
       <c r="K176" t="n">
-        <v>3.1815254120534293</v>
+        <v>3.0695010852217877</v>
       </c>
       <c r="L176" t="n">
-        <v>3.1815254120534293</v>
+        <v>2.9355007470801397</v>
       </c>
     </row>
     <row r="177">
@@ -6791,37 +6791,37 @@
         <v>176.0</v>
       </c>
       <c r="B177" t="n">
-        <v>3.103105096782386</v>
+        <v>3.1341361477502097</v>
       </c>
       <c r="C177" t="n">
-        <v>3.103105096782386</v>
+        <v>3.534640588395643</v>
       </c>
       <c r="D177" t="n">
-        <v>3.103105096782386</v>
+        <v>3.20610647169303</v>
       </c>
       <c r="E177" t="n">
-        <v>3.103105096782386</v>
+        <v>3.56472263570635</v>
       </c>
       <c r="F177" t="n">
-        <v>3.103105096782386</v>
+        <v>3.3261308749299077</v>
       </c>
       <c r="G177" t="n">
-        <v>3.103105096782386</v>
+        <v>3.430023826759683</v>
       </c>
       <c r="H177" t="n">
-        <v>3.103105096782386</v>
+        <v>3.56906191961915</v>
       </c>
       <c r="I177" t="n">
-        <v>3.103105096782386</v>
+        <v>3.3204805974080487</v>
       </c>
       <c r="J177" t="n">
-        <v>3.103105096782386</v>
+        <v>3.553920444938634</v>
       </c>
       <c r="K177" t="n">
-        <v>3.103105096782386</v>
+        <v>3.20610647169303</v>
       </c>
       <c r="L177" t="n">
-        <v>3.103105096782386</v>
+        <v>3.577772261398574</v>
       </c>
     </row>
     <row r="178">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>1.934026430740994</v>
+        <v>1.9537613943199839</v>
       </c>
       <c r="C178" t="n">
-        <v>1.934026430740994</v>
+        <v>1.7177645600479574</v>
       </c>
       <c r="D178" t="n">
-        <v>1.934026430740994</v>
+        <v>1.9372739565291552</v>
       </c>
       <c r="E178" t="n">
-        <v>1.934026430740994</v>
+        <v>1.8707435931107301</v>
       </c>
       <c r="F178" t="n">
-        <v>1.934026430740994</v>
+        <v>1.7756560727931627</v>
       </c>
       <c r="G178" t="n">
-        <v>1.934026430740994</v>
+        <v>1.9705318782507704</v>
       </c>
       <c r="H178" t="n">
-        <v>1.934026430740994</v>
+        <v>1.9609136632321318</v>
       </c>
       <c r="I178" t="n">
-        <v>1.934026430740994</v>
+        <v>2.011224964864113</v>
       </c>
       <c r="J178" t="n">
-        <v>1.934026430740994</v>
+        <v>2.0074562722932185</v>
       </c>
       <c r="K178" t="n">
-        <v>1.934026430740994</v>
+        <v>1.9372739565291552</v>
       </c>
       <c r="L178" t="n">
-        <v>1.934026430740994</v>
+        <v>1.754332692427836</v>
       </c>
     </row>
     <row r="179">
@@ -6867,37 +6867,37 @@
         <v>178.0</v>
       </c>
       <c r="B179" t="n">
-        <v>3.505559445883779</v>
+        <v>3.436142427153407</v>
       </c>
       <c r="C179" t="n">
-        <v>3.505559445883779</v>
+        <v>3.02108727391232</v>
       </c>
       <c r="D179" t="n">
-        <v>3.505559445883779</v>
+        <v>3.4071454448848346</v>
       </c>
       <c r="E179" t="n">
-        <v>3.505559445883779</v>
+        <v>3.290136374534382</v>
       </c>
       <c r="F179" t="n">
-        <v>3.505559445883779</v>
+        <v>3.1229029222787004</v>
       </c>
       <c r="G179" t="n">
-        <v>3.505559445883779</v>
+        <v>3.4656372116885104</v>
       </c>
       <c r="H179" t="n">
-        <v>3.505559445883779</v>
+        <v>3.4487213504195187</v>
       </c>
       <c r="I179" t="n">
-        <v>3.505559445883779</v>
+        <v>3.5372054399329844</v>
       </c>
       <c r="J179" t="n">
-        <v>3.505559445883779</v>
+        <v>3.530577320206903</v>
       </c>
       <c r="K179" t="n">
-        <v>3.505559445883779</v>
+        <v>3.4071454448848346</v>
       </c>
       <c r="L179" t="n">
-        <v>3.505559445883779</v>
+        <v>3.085400813691315</v>
       </c>
     </row>
     <row r="180">
@@ -7057,37 +7057,37 @@
         <v>183.0</v>
       </c>
       <c r="B184" t="n">
-        <v>1.4582933772213513</v>
+        <v>1.3716620874854295</v>
       </c>
       <c r="C184" t="n">
-        <v>1.4582933772213513</v>
+        <v>1.2059776230064962</v>
       </c>
       <c r="D184" t="n">
-        <v>1.4582933772213513</v>
+        <v>1.360086880091527</v>
       </c>
       <c r="E184" t="n">
-        <v>1.4582933772213513</v>
+        <v>1.3133784245795153</v>
       </c>
       <c r="F184" t="n">
-        <v>1.4582933772213513</v>
+        <v>1.246621067723253</v>
       </c>
       <c r="G184" t="n">
-        <v>1.4582933772213513</v>
+        <v>1.383436010884428</v>
       </c>
       <c r="H184" t="n">
-        <v>1.4582933772213513</v>
+        <v>1.376683425369787</v>
       </c>
       <c r="I184" t="n">
-        <v>1.4582933772213513</v>
+        <v>1.4120050901448513</v>
       </c>
       <c r="J184" t="n">
-        <v>1.4582933772213513</v>
+        <v>1.4093592334225755</v>
       </c>
       <c r="K184" t="n">
-        <v>1.4582933772213513</v>
+        <v>1.360086880091527</v>
       </c>
       <c r="L184" t="n">
-        <v>1.4582933772213513</v>
+        <v>1.2316507276862445</v>
       </c>
     </row>
     <row r="185">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>1.8620282293920678</v>
+        <v>1.8810285174470889</v>
       </c>
       <c r="C187" t="n">
-        <v>1.8620282293920678</v>
+        <v>1.653817161657441</v>
       </c>
       <c r="D187" t="n">
-        <v>1.8620282293920678</v>
+        <v>1.8651548592028704</v>
       </c>
       <c r="E187" t="n">
-        <v>1.8620282293920678</v>
+        <v>1.8011012284831716</v>
       </c>
       <c r="F187" t="n">
-        <v>1.8620282293920678</v>
+        <v>1.7095535410886584</v>
       </c>
       <c r="G187" t="n">
-        <v>1.8620282293920678</v>
+        <v>1.8971746848434292</v>
       </c>
       <c r="H187" t="n">
-        <v>1.8620282293920678</v>
+        <v>1.8879145281069951</v>
       </c>
       <c r="I187" t="n">
-        <v>1.8620282293920678</v>
+        <v>1.9363528857256733</v>
       </c>
       <c r="J187" t="n">
-        <v>1.8620282293920678</v>
+        <v>1.9327244906616943</v>
       </c>
       <c r="K187" t="n">
-        <v>1.8620282293920678</v>
+        <v>1.8651548592028704</v>
       </c>
       <c r="L187" t="n">
-        <v>1.8620282293920678</v>
+        <v>1.6890239684027823</v>
       </c>
     </row>
     <row r="188">
@@ -7475,37 +7475,37 @@
         <v>194.0</v>
       </c>
       <c r="B195" t="n">
-        <v>0.9781287513050521</v>
+        <v>0.9880088397020728</v>
       </c>
       <c r="C195" t="n">
-        <v>0.9781287513050521</v>
+        <v>0.9408507203350001</v>
       </c>
       <c r="D195" t="n">
-        <v>0.9781287513050521</v>
+        <v>0.8779903882825882</v>
       </c>
       <c r="E195" t="n">
-        <v>0.9781287513050521</v>
+        <v>0.8980895540111499</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9781287513050521</v>
+        <v>0.9777984145279759</v>
       </c>
       <c r="G195" t="n">
-        <v>0.9781287513050521</v>
+        <v>0.879430504193531</v>
       </c>
       <c r="H195" t="n">
-        <v>0.9781287513050521</v>
+        <v>0.9748353887653817</v>
       </c>
       <c r="I195" t="n">
-        <v>0.9781287513050521</v>
+        <v>0.9123530295014308</v>
       </c>
       <c r="J195" t="n">
-        <v>0.9781287513050521</v>
+        <v>0.978988674013419</v>
       </c>
       <c r="K195" t="n">
-        <v>0.9781287513050521</v>
+        <v>0.8779903882825882</v>
       </c>
       <c r="L195" t="n">
-        <v>0.9781287513050521</v>
+        <v>0.9625843157608733</v>
       </c>
     </row>
     <row r="196">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>1.892129266983281</v>
+        <v>1.9118389468476902</v>
       </c>
       <c r="C200" t="n">
-        <v>1.892129266983281</v>
+        <v>1.784104728834031</v>
       </c>
       <c r="D200" t="n">
-        <v>1.892129266983281</v>
+        <v>1.9024911895621595</v>
       </c>
       <c r="E200" t="n">
-        <v>1.892129266983281</v>
+        <v>2.003972939385908</v>
       </c>
       <c r="F200" t="n">
-        <v>1.892129266983281</v>
+        <v>2.041523961666234</v>
       </c>
       <c r="G200" t="n">
-        <v>1.892129266983281</v>
+        <v>1.9560023122914882</v>
       </c>
       <c r="H200" t="n">
-        <v>1.892129266983281</v>
+        <v>2.007665763278207</v>
       </c>
       <c r="I200" t="n">
-        <v>1.892129266983281</v>
+        <v>1.8057899792478835</v>
       </c>
       <c r="J200" t="n">
-        <v>1.892129266983281</v>
+        <v>1.9941914977176531</v>
       </c>
       <c r="K200" t="n">
-        <v>1.892129266983281</v>
+        <v>1.9024911895621595</v>
       </c>
       <c r="L200" t="n">
-        <v>1.892129266983281</v>
+        <v>1.989336496267127</v>
       </c>
     </row>
     <row r="201">
@@ -7969,37 +7969,37 @@
         <v>207.0</v>
       </c>
       <c r="B208" t="n">
-        <v>1.9313268580923626</v>
+        <v>1.9898519143981919</v>
       </c>
       <c r="C208" t="n">
-        <v>1.9313268580923626</v>
+        <v>2.0277422137485774</v>
       </c>
       <c r="D208" t="n">
-        <v>1.9313268580923626</v>
+        <v>2.000705651430846</v>
       </c>
       <c r="E208" t="n">
-        <v>1.9313268580923626</v>
+        <v>2.0092296559587046</v>
       </c>
       <c r="F208" t="n">
-        <v>1.9313268580923626</v>
+        <v>1.7643849940669734</v>
       </c>
       <c r="G208" t="n">
-        <v>1.9313268580923626</v>
+        <v>1.8692889724534805</v>
       </c>
       <c r="H208" t="n">
-        <v>1.9313268580923626</v>
+        <v>1.843196161022385</v>
       </c>
       <c r="I208" t="n">
-        <v>1.9313268580923626</v>
+        <v>1.8019455920282628</v>
       </c>
       <c r="J208" t="n">
-        <v>1.9313268580923626</v>
+        <v>1.8049012172291368</v>
       </c>
       <c r="K208" t="n">
-        <v>1.9313268580923626</v>
+        <v>2.000705651430846</v>
       </c>
       <c r="L208" t="n">
-        <v>1.9313268580923626</v>
+        <v>2.065809966180724</v>
       </c>
     </row>
     <row r="209">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>1.9224147530513456</v>
+        <v>1.980669745568053</v>
       </c>
       <c r="C213" t="n">
-        <v>1.9224147530513456</v>
+        <v>2.0183852001859526</v>
       </c>
       <c r="D213" t="n">
-        <v>1.9224147530513456</v>
+        <v>1.9914733980466004</v>
       </c>
       <c r="E213" t="n">
-        <v>1.9224147530513456</v>
+        <v>1.999958068567683</v>
       </c>
       <c r="F213" t="n">
-        <v>1.9224147530513456</v>
+        <v>1.7562432420201701</v>
       </c>
       <c r="G213" t="n">
-        <v>1.9224147530513456</v>
+        <v>1.8606631411475485</v>
       </c>
       <c r="H213" t="n">
-        <v>1.9224147530513456</v>
+        <v>1.8346907349577073</v>
       </c>
       <c r="I213" t="n">
-        <v>1.9224147530513456</v>
+        <v>1.793630516655565</v>
       </c>
       <c r="J213" t="n">
-        <v>1.9224147530513456</v>
+        <v>1.7965725031281514</v>
       </c>
       <c r="K213" t="n">
-        <v>1.9224147530513456</v>
+        <v>1.9914733980466004</v>
       </c>
       <c r="L213" t="n">
-        <v>1.9224147530513456</v>
+        <v>2.0562772890286194</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>2.3455039650958858</v>
+        <v>2.3924140443978033</v>
       </c>
       <c r="C214" t="n">
-        <v>2.3455039650958858</v>
+        <v>2.4379698386035824</v>
       </c>
       <c r="D214" t="n">
-        <v>2.3455039650958858</v>
+        <v>2.405463574728796</v>
       </c>
       <c r="E214" t="n">
-        <v>2.3455039650958858</v>
+        <v>2.415712050004468</v>
       </c>
       <c r="F214" t="n">
-        <v>2.3455039650958858</v>
+        <v>2.1213334565186464</v>
       </c>
       <c r="G214" t="n">
-        <v>2.3455039650958858</v>
+        <v>2.247460305149484</v>
       </c>
       <c r="H214" t="n">
-        <v>2.3455039650958858</v>
+        <v>2.216088720121532</v>
       </c>
       <c r="I214" t="n">
-        <v>2.3455039650958858</v>
+        <v>2.1664928482444097</v>
       </c>
       <c r="J214" t="n">
-        <v>2.3455039650958858</v>
+        <v>2.1700464188339508</v>
       </c>
       <c r="K214" t="n">
-        <v>2.3455039650958858</v>
+        <v>2.405463574728796</v>
       </c>
       <c r="L214" t="n">
-        <v>2.3455039650958858</v>
+        <v>2.4837389859950707</v>
       </c>
     </row>
     <row r="215">
@@ -8463,37 +8463,37 @@
         <v>220.0</v>
       </c>
       <c r="B221" t="n">
-        <v>0.4420308249112551</v>
+        <v>0.4466837809629526</v>
       </c>
       <c r="C221" t="n">
-        <v>0.4420308249112551</v>
+        <v>0.45838388015285636</v>
       </c>
       <c r="D221" t="n">
-        <v>0.4420308249112551</v>
+        <v>0.48283476775965617</v>
       </c>
       <c r="E221" t="n">
-        <v>0.4420308249112551</v>
+        <v>0.43508480983782566</v>
       </c>
       <c r="F221" t="n">
-        <v>0.4420308249112551</v>
+        <v>0.4928056985734313</v>
       </c>
       <c r="G221" t="n">
-        <v>0.4420308249112551</v>
+        <v>0.48047803927124966</v>
       </c>
       <c r="H221" t="n">
-        <v>0.4420308249112551</v>
+        <v>0.49188226474203306</v>
       </c>
       <c r="I221" t="n">
-        <v>0.4420308249112551</v>
+        <v>0.47468565782245503</v>
       </c>
       <c r="J221" t="n">
-        <v>0.4420308249112551</v>
+        <v>0.4837245121925136</v>
       </c>
       <c r="K221" t="n">
-        <v>0.4420308249112551</v>
+        <v>0.48283476775965617</v>
       </c>
       <c r="L221" t="n">
-        <v>0.4420308249112551</v>
+        <v>0.42089978932630806</v>
       </c>
     </row>
     <row r="222">
@@ -8501,37 +8501,37 @@
         <v>221.0</v>
       </c>
       <c r="B222" t="n">
-        <v>1.310307731135543</v>
+        <v>1.3367785943908066</v>
       </c>
       <c r="C222" t="n">
-        <v>1.310307731135543</v>
+        <v>1.371793168046459</v>
       </c>
       <c r="D222" t="n">
-        <v>1.310307731135543</v>
+        <v>1.44496668488238</v>
       </c>
       <c r="E222" t="n">
-        <v>1.310307731135543</v>
+        <v>1.3020666639876008</v>
       </c>
       <c r="F222" t="n">
-        <v>1.310307731135543</v>
+        <v>1.4748064226254252</v>
       </c>
       <c r="G222" t="n">
-        <v>1.310307731135543</v>
+        <v>1.4379137666203798</v>
       </c>
       <c r="H222" t="n">
-        <v>1.310307731135543</v>
+        <v>1.4720428869168116</v>
       </c>
       <c r="I222" t="n">
-        <v>1.310307731135543</v>
+        <v>1.420579061709889</v>
       </c>
       <c r="J222" t="n">
-        <v>1.310307731135543</v>
+        <v>1.4476293992297826</v>
       </c>
       <c r="K222" t="n">
-        <v>1.310307731135543</v>
+        <v>1.44496668488238</v>
       </c>
       <c r="L222" t="n">
-        <v>1.310307731135543</v>
+        <v>1.2596155328094936</v>
       </c>
     </row>
     <row r="223">
@@ -8577,37 +8577,37 @@
         <v>223.0</v>
       </c>
       <c r="B224" t="n">
-        <v>2.3597742816818323</v>
+        <v>2.4074464893925764</v>
       </c>
       <c r="C224" t="n">
-        <v>2.3597742816818323</v>
+        <v>2.470505333077378</v>
       </c>
       <c r="D224" t="n">
-        <v>2.3597742816818323</v>
+        <v>2.602285814125121</v>
       </c>
       <c r="E224" t="n">
-        <v>2.3597742816818323</v>
+        <v>2.3449326854314054</v>
       </c>
       <c r="F224" t="n">
-        <v>2.3597742816818323</v>
+        <v>2.656025133542206</v>
       </c>
       <c r="G224" t="n">
-        <v>2.3597742816818323</v>
+        <v>2.5895839924614052</v>
       </c>
       <c r="H224" t="n">
-        <v>2.3597742816818323</v>
+        <v>2.651048195425506</v>
       </c>
       <c r="I224" t="n">
-        <v>2.3597742816818323</v>
+        <v>2.5583653788057643</v>
       </c>
       <c r="J224" t="n">
-        <v>2.3597742816818323</v>
+        <v>2.607081179890857</v>
       </c>
       <c r="K224" t="n">
-        <v>2.3597742816818323</v>
+        <v>2.602285814125121</v>
       </c>
       <c r="L224" t="n">
-        <v>2.3597742816818323</v>
+        <v>2.2684811121085606</v>
       </c>
     </row>
     <row r="225">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>1.9472177290284285</v>
+        <v>1.9672921386060414</v>
       </c>
       <c r="C230" t="n">
-        <v>1.9472177290284285</v>
+        <v>2.2186881215546945</v>
       </c>
       <c r="D230" t="n">
-        <v>1.9472177290284285</v>
+        <v>2.012467793341805</v>
       </c>
       <c r="E230" t="n">
-        <v>1.9472177290284285</v>
+        <v>2.2375705734960407</v>
       </c>
       <c r="F230" t="n">
-        <v>1.9472177290284285</v>
+        <v>2.087806915127656</v>
       </c>
       <c r="G230" t="n">
-        <v>1.9472177290284285</v>
+        <v>2.1530203512248756</v>
       </c>
       <c r="H230" t="n">
-        <v>1.9472177290284285</v>
+        <v>2.2402943349174964</v>
       </c>
       <c r="I230" t="n">
-        <v>1.9472177290284285</v>
+        <v>2.0842602451600243</v>
       </c>
       <c r="J230" t="n">
-        <v>1.9472177290284285</v>
+        <v>2.230790056002471</v>
       </c>
       <c r="K230" t="n">
-        <v>1.9472177290284285</v>
+        <v>2.012467793341805</v>
       </c>
       <c r="L230" t="n">
-        <v>1.9472177290284285</v>
+        <v>2.2457618022193024</v>
       </c>
     </row>
     <row r="231">
@@ -9109,37 +9109,37 @@
         <v>237.0</v>
       </c>
       <c r="B238" t="n">
-        <v>2.591163637930245</v>
+        <v>2.6170752743095473</v>
       </c>
       <c r="C238" t="n">
-        <v>2.591163637930245</v>
+        <v>2.951505630698735</v>
       </c>
       <c r="D238" t="n">
-        <v>2.591163637930245</v>
+        <v>2.677172138770911</v>
       </c>
       <c r="E238" t="n">
-        <v>2.591163637930245</v>
+        <v>2.9766248273469005</v>
       </c>
       <c r="F238" t="n">
-        <v>2.591163637930245</v>
+        <v>2.777395257109427</v>
       </c>
       <c r="G238" t="n">
-        <v>2.591163637930245</v>
+        <v>2.864148245043252</v>
       </c>
       <c r="H238" t="n">
-        <v>2.591163637930245</v>
+        <v>2.9802482285333967</v>
       </c>
       <c r="I238" t="n">
-        <v>2.591163637930245</v>
+        <v>2.7726771463132325</v>
       </c>
       <c r="J238" t="n">
-        <v>2.591163637930245</v>
+        <v>2.9676047513087687</v>
       </c>
       <c r="K238" t="n">
-        <v>2.591163637930245</v>
+        <v>2.677172138770911</v>
       </c>
       <c r="L238" t="n">
-        <v>2.591163637930245</v>
+        <v>2.9875215628836225</v>
       </c>
     </row>
     <row r="239">
@@ -9261,37 +9261,37 @@
         <v>241.0</v>
       </c>
       <c r="B242" t="n">
-        <v>3.673284694396162</v>
+        <v>3.6379646492577375</v>
       </c>
       <c r="C242" t="n">
-        <v>3.673284694396162</v>
+        <v>3.721245805151833</v>
       </c>
       <c r="D242" t="n">
-        <v>3.673284694396162</v>
+        <v>3.9884806934138184</v>
       </c>
       <c r="E242" t="n">
-        <v>3.673284694396162</v>
+        <v>4.066352190708224</v>
       </c>
       <c r="F242" t="n">
-        <v>3.673284694396162</v>
+        <v>3.8793662621334226</v>
       </c>
       <c r="G242" t="n">
-        <v>3.673284694396162</v>
+        <v>3.541313092369498</v>
       </c>
       <c r="H242" t="n">
-        <v>3.673284694396162</v>
+        <v>4.170682878715864</v>
       </c>
       <c r="I242" t="n">
-        <v>3.673284694396162</v>
+        <v>4.086297510303416</v>
       </c>
       <c r="J242" t="n">
-        <v>3.673284694396162</v>
+        <v>3.6821830032259233</v>
       </c>
       <c r="K242" t="n">
-        <v>3.673284694396162</v>
+        <v>3.9884806934138184</v>
       </c>
       <c r="L242" t="n">
-        <v>3.673284694396162</v>
+        <v>4.162867730308715</v>
       </c>
     </row>
     <row r="243">
@@ -9299,37 +9299,37 @@
         <v>242.0</v>
       </c>
       <c r="B243" t="n">
-        <v>0.6200448393016746</v>
+        <v>0.6265716270837975</v>
       </c>
       <c r="C243" t="n">
-        <v>0.6200448393016746</v>
+        <v>0.6409152544647368</v>
       </c>
       <c r="D243" t="n">
-        <v>0.6200448393016746</v>
+        <v>0.6869414847597543</v>
       </c>
       <c r="E243" t="n">
-        <v>0.6200448393016746</v>
+        <v>0.7003533992414309</v>
       </c>
       <c r="F243" t="n">
-        <v>0.6200448393016746</v>
+        <v>0.6681485570275868</v>
       </c>
       <c r="G243" t="n">
-        <v>0.6200448393016746</v>
+        <v>0.6099251972533145</v>
       </c>
       <c r="H243" t="n">
-        <v>0.6200448393016746</v>
+        <v>0.7183224163271402</v>
       </c>
       <c r="I243" t="n">
-        <v>0.6200448393016746</v>
+        <v>0.7037886089139646</v>
       </c>
       <c r="J243" t="n">
-        <v>0.6200448393016746</v>
+        <v>0.6341874146639397</v>
       </c>
       <c r="K243" t="n">
-        <v>0.6200448393016746</v>
+        <v>0.6869414847597543</v>
       </c>
       <c r="L243" t="n">
-        <v>0.6200448393016746</v>
+        <v>0.716976402628418</v>
       </c>
     </row>
     <row r="244">
@@ -9375,37 +9375,37 @@
         <v>244.0</v>
       </c>
       <c r="B245" t="n">
-        <v>1.873602645001783</v>
+        <v>1.8554123280600183</v>
       </c>
       <c r="C245" t="n">
-        <v>1.873602645001783</v>
+        <v>1.8978868703490754</v>
       </c>
       <c r="D245" t="n">
-        <v>1.873602645001783</v>
+        <v>2.0341803624450456</v>
       </c>
       <c r="E245" t="n">
-        <v>1.873602645001783</v>
+        <v>2.073895903967422</v>
       </c>
       <c r="F245" t="n">
-        <v>1.873602645001783</v>
+        <v>1.9785304921231308</v>
       </c>
       <c r="G245" t="n">
-        <v>1.873602645001783</v>
+        <v>1.8061186961900046</v>
       </c>
       <c r="H245" t="n">
-        <v>1.873602645001783</v>
+        <v>2.1271059990033523</v>
       </c>
       <c r="I245" t="n">
-        <v>1.873602645001783</v>
+        <v>2.084068293045355</v>
       </c>
       <c r="J245" t="n">
-        <v>1.873602645001783</v>
+        <v>1.8779643006570674</v>
       </c>
       <c r="K245" t="n">
-        <v>1.873602645001783</v>
+        <v>2.0341803624450456</v>
       </c>
       <c r="L245" t="n">
-        <v>1.873602645001783</v>
+        <v>2.123120165137924</v>
       </c>
     </row>
     <row r="246">
@@ -9565,37 +9565,37 @@
         <v>249.0</v>
       </c>
       <c r="B250" t="n">
-        <v>2.2460783150871615</v>
+        <v>2.224271729503791</v>
       </c>
       <c r="C250" t="n">
-        <v>2.2460783150871615</v>
+        <v>2.27519028933461</v>
       </c>
       <c r="D250" t="n">
-        <v>2.2460783150871615</v>
+        <v>2.4385791796635785</v>
       </c>
       <c r="E250" t="n">
-        <v>2.2460783150871615</v>
+        <v>2.486190244273956</v>
       </c>
       <c r="F250" t="n">
-        <v>2.2460783150871615</v>
+        <v>2.371866012226015</v>
       </c>
       <c r="G250" t="n">
-        <v>2.2460783150871615</v>
+        <v>2.165178432474942</v>
       </c>
       <c r="H250" t="n">
-        <v>2.2460783150871615</v>
+        <v>2.549978604587578</v>
       </c>
       <c r="I250" t="n">
-        <v>2.2460783150871615</v>
+        <v>2.498384923109154</v>
       </c>
       <c r="J250" t="n">
-        <v>2.2460783150871615</v>
+        <v>2.2513070759513423</v>
       </c>
       <c r="K250" t="n">
-        <v>2.2460783150871615</v>
+        <v>2.4385791796635785</v>
       </c>
       <c r="L250" t="n">
-        <v>2.2460783150871615</v>
+        <v>2.5452003795799647</v>
       </c>
     </row>
     <row r="251">
@@ -9679,37 +9679,37 @@
         <v>252.0</v>
       </c>
       <c r="B253" t="n">
-        <v>1.1891575527578628</v>
+        <v>1.2012918135002904</v>
       </c>
       <c r="C253" t="n">
-        <v>1.1891575527578628</v>
+        <v>1.3095031273320252</v>
       </c>
       <c r="D253" t="n">
-        <v>1.1891575527578628</v>
+        <v>1.2584894936326747</v>
       </c>
       <c r="E253" t="n">
-        <v>1.1891575527578628</v>
+        <v>1.3039476595667954</v>
       </c>
       <c r="F253" t="n">
-        <v>1.1891575527578628</v>
+        <v>1.1763333183329794</v>
       </c>
       <c r="G253" t="n">
-        <v>1.1891575527578628</v>
+        <v>1.3079110266674339</v>
       </c>
       <c r="H253" t="n">
-        <v>1.1891575527578628</v>
+        <v>1.2203707530804335</v>
       </c>
       <c r="I253" t="n">
-        <v>1.1891575527578628</v>
+        <v>1.1499271179361314</v>
       </c>
       <c r="J253" t="n">
-        <v>1.1891575527578628</v>
+        <v>1.2182976436046644</v>
       </c>
       <c r="K253" t="n">
-        <v>1.1891575527578628</v>
+        <v>1.2584894936326747</v>
       </c>
       <c r="L253" t="n">
-        <v>1.1891575527578628</v>
+        <v>1.1886815677323237</v>
       </c>
     </row>
     <row r="254">
@@ -9717,37 +9717,37 @@
         <v>253.0</v>
       </c>
       <c r="B254" t="n">
-        <v>0.9973612674553354</v>
+        <v>1.007750447324662</v>
       </c>
       <c r="C254" t="n">
-        <v>0.9973612674553354</v>
+        <v>1.0985277244974527</v>
       </c>
       <c r="D254" t="n">
-        <v>0.9973612674553354</v>
+        <v>1.0557329500700943</v>
       </c>
       <c r="E254" t="n">
-        <v>0.9973612674553354</v>
+        <v>1.0938673038880793</v>
       </c>
       <c r="F254" t="n">
-        <v>0.9973612674553354</v>
+        <v>0.9868130411201519</v>
       </c>
       <c r="G254" t="n">
-        <v>0.9973612674553354</v>
+        <v>1.0971921288171216</v>
       </c>
       <c r="H254" t="n">
-        <v>0.9973612674553354</v>
+        <v>1.023755559221951</v>
       </c>
       <c r="I254" t="n">
-        <v>0.9973612674553354</v>
+        <v>0.9646611709725229</v>
       </c>
       <c r="J254" t="n">
-        <v>0.9973612674553354</v>
+        <v>1.022016450557361</v>
       </c>
       <c r="K254" t="n">
-        <v>0.9973612674553354</v>
+        <v>1.0557329500700943</v>
       </c>
       <c r="L254" t="n">
-        <v>0.9973612674553354</v>
+        <v>0.9971718512910186</v>
       </c>
     </row>
     <row r="255">
@@ -9945,37 +9945,37 @@
         <v>259.0</v>
       </c>
       <c r="B260" t="n">
-        <v>2.0532603876278714</v>
+        <v>2.0947403954587376</v>
       </c>
       <c r="C260" t="n">
-        <v>2.0532603876278714</v>
+        <v>2.2834327745972587</v>
       </c>
       <c r="D260" t="n">
-        <v>2.0532603876278714</v>
+        <v>2.1944782690988833</v>
       </c>
       <c r="E260" t="n">
-        <v>2.0532603876278714</v>
+        <v>2.2737454841215268</v>
       </c>
       <c r="F260" t="n">
-        <v>2.0532603876278714</v>
+        <v>2.0512192730725864</v>
       </c>
       <c r="G260" t="n">
-        <v>2.0532603876278714</v>
+        <v>2.2806565652380697</v>
       </c>
       <c r="H260" t="n">
-        <v>2.0532603876278714</v>
+        <v>2.1280091025221717</v>
       </c>
       <c r="I260" t="n">
-        <v>2.0532603876278714</v>
+        <v>2.00517372940016</v>
       </c>
       <c r="J260" t="n">
-        <v>2.0532603876278714</v>
+        <v>2.1243941389352243</v>
       </c>
       <c r="K260" t="n">
-        <v>2.0532603876278714</v>
+        <v>2.1944782690988833</v>
       </c>
       <c r="L260" t="n">
-        <v>2.0532603876278714</v>
+        <v>2.0727514075126248</v>
       </c>
     </row>
     <row r="261">
@@ -10138,34 +10138,34 @@
         <v>0.1610730389951607</v>
       </c>
       <c r="C265" t="n">
-        <v>0.1610730389951607</v>
+        <v>0.1487033414616534</v>
       </c>
       <c r="D265" t="n">
-        <v>0.1610730389951607</v>
+        <v>0.15266763928318966</v>
       </c>
       <c r="E265" t="n">
-        <v>0.1610730389951607</v>
+        <v>0.14385518335300554</v>
       </c>
       <c r="F265" t="n">
-        <v>0.1610730389951607</v>
+        <v>0.14691760268027215</v>
       </c>
       <c r="G265" t="n">
-        <v>0.1610730389951607</v>
+        <v>0.16381804511383435</v>
       </c>
       <c r="H265" t="n">
-        <v>0.1610730389951607</v>
+        <v>0.1574362705519001</v>
       </c>
       <c r="I265" t="n">
-        <v>0.1610730389951607</v>
+        <v>0.16361887428861516</v>
       </c>
       <c r="J265" t="n">
-        <v>0.1610730389951607</v>
+        <v>0.15028087554079844</v>
       </c>
       <c r="K265" t="n">
-        <v>0.1610730389951607</v>
+        <v>0.15266763928318966</v>
       </c>
       <c r="L265" t="n">
-        <v>0.1610730389951607</v>
+        <v>0.1650233281333927</v>
       </c>
     </row>
     <row r="266">
@@ -10173,37 +10173,37 @@
         <v>265.0</v>
       </c>
       <c r="B266" t="n">
-        <v>0.4498248655829969</v>
+        <v>0.4544622353312752</v>
       </c>
       <c r="C266" t="n">
-        <v>0.4498248655829969</v>
+        <v>0.41956154415093194</v>
       </c>
       <c r="D266" t="n">
-        <v>0.4498248655829969</v>
+        <v>0.4307466789241599</v>
       </c>
       <c r="E266" t="n">
-        <v>0.4498248655829969</v>
+        <v>0.4058826269029514</v>
       </c>
       <c r="F266" t="n">
-        <v>0.4498248655829969</v>
+        <v>0.4145231414277509</v>
       </c>
       <c r="G266" t="n">
-        <v>0.4498248655829969</v>
+        <v>0.46220717901938635</v>
       </c>
       <c r="H266" t="n">
-        <v>0.4498248655829969</v>
+        <v>0.444201213831854</v>
       </c>
       <c r="I266" t="n">
-        <v>0.4498248655829969</v>
+        <v>0.4616452251442589</v>
       </c>
       <c r="J266" t="n">
-        <v>0.4498248655829969</v>
+        <v>0.42401250421471426</v>
       </c>
       <c r="K266" t="n">
-        <v>0.4498248655829969</v>
+        <v>0.4307466789241599</v>
       </c>
       <c r="L266" t="n">
-        <v>0.4498248655829969</v>
+        <v>0.46560784506935005</v>
       </c>
     </row>
     <row r="267">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>2.7442345290569157</v>
+        <v>2.77195406975446</v>
       </c>
       <c r="C268" t="n">
-        <v>2.7442345290569157</v>
+        <v>2.586753644763812</v>
       </c>
       <c r="D268" t="n">
-        <v>2.7442345290569157</v>
+        <v>2.7584008602158496</v>
       </c>
       <c r="E268" t="n">
-        <v>2.7442345290569157</v>
+        <v>2.9055381229510635</v>
       </c>
       <c r="F268" t="n">
-        <v>2.7442345290569157</v>
+        <v>2.9599829333808425</v>
       </c>
       <c r="G268" t="n">
-        <v>2.7442345290569157</v>
+        <v>2.8359860431473227</v>
       </c>
       <c r="H268" t="n">
-        <v>2.7442345290569157</v>
+        <v>2.910892307326282</v>
       </c>
       <c r="I268" t="n">
-        <v>2.7442345290569157</v>
+        <v>2.618194848656763</v>
       </c>
       <c r="J268" t="n">
-        <v>2.7442345290569157</v>
+        <v>2.891356119239354</v>
       </c>
       <c r="K268" t="n">
-        <v>2.7442345290569157</v>
+        <v>2.7584008602158496</v>
       </c>
       <c r="L268" t="n">
-        <v>2.7442345290569157</v>
+        <v>2.709559313137183</v>
       </c>
     </row>
     <row r="269">
@@ -10290,34 +10290,34 @@
         <v>0.4804700882059311</v>
       </c>
       <c r="C269" t="n">
-        <v>0.4804700882059311</v>
+        <v>0.44357210886636267</v>
       </c>
       <c r="D269" t="n">
-        <v>0.4804700882059311</v>
+        <v>0.45539734377762137</v>
       </c>
       <c r="E269" t="n">
-        <v>0.4804700882059311</v>
+        <v>0.4291103779110765</v>
       </c>
       <c r="F269" t="n">
-        <v>0.4804700882059311</v>
+        <v>0.4382453696730407</v>
       </c>
       <c r="G269" t="n">
-        <v>0.4804700882059311</v>
+        <v>0.4886582576239339</v>
       </c>
       <c r="H269" t="n">
-        <v>0.4804700882059311</v>
+        <v>0.469621851495314</v>
       </c>
       <c r="I269" t="n">
-        <v>0.4804700882059311</v>
+        <v>0.48806414439084345</v>
       </c>
       <c r="J269" t="n">
-        <v>0.4804700882059311</v>
+        <v>0.44827778737645424</v>
       </c>
       <c r="K269" t="n">
-        <v>0.4804700882059311</v>
+        <v>0.45539734377762137</v>
       </c>
       <c r="L269" t="n">
-        <v>0.4804700882059311</v>
+        <v>0.49225353615305956</v>
       </c>
     </row>
     <row r="270">
@@ -10401,37 +10401,37 @@
         <v>271.0</v>
       </c>
       <c r="B272" t="n">
-        <v>4.47378549081251</v>
+        <v>4.654544500542309</v>
       </c>
       <c r="C272" t="n">
-        <v>4.47378549081251</v>
+        <v>4.297096053631911</v>
       </c>
       <c r="D272" t="n">
-        <v>4.47378549081251</v>
+        <v>4.411652783540619</v>
       </c>
       <c r="E272" t="n">
-        <v>4.47378549081251</v>
+        <v>4.156998320310791</v>
       </c>
       <c r="F272" t="n">
-        <v>4.47378549081251</v>
+        <v>4.2454933727851625</v>
       </c>
       <c r="G272" t="n">
-        <v>4.47378549081251</v>
+        <v>4.733867230238936</v>
       </c>
       <c r="H272" t="n">
-        <v>4.47378549081251</v>
+        <v>4.54945242142761</v>
       </c>
       <c r="I272" t="n">
-        <v>4.47378549081251</v>
+        <v>4.728111770014333</v>
       </c>
       <c r="J272" t="n">
-        <v>4.47378549081251</v>
+        <v>4.34268222136246</v>
       </c>
       <c r="K272" t="n">
-        <v>4.47378549081251</v>
+        <v>4.411652783540619</v>
       </c>
       <c r="L272" t="n">
-        <v>4.47378549081251</v>
+        <v>4.768696420060399</v>
       </c>
     </row>
     <row r="273">
@@ -10480,34 +10480,34 @@
         <v>0.8038157648456212</v>
       </c>
       <c r="C274" t="n">
-        <v>0.8038157648456212</v>
+        <v>0.7890306806331586</v>
       </c>
       <c r="D274" t="n">
-        <v>0.8038157648456212</v>
+        <v>0.7832678270291579</v>
       </c>
       <c r="E274" t="n">
-        <v>0.8038157648456212</v>
+        <v>0.7036134720731018</v>
       </c>
       <c r="F274" t="n">
-        <v>0.8038157648456212</v>
+        <v>0.7185421773717647</v>
       </c>
       <c r="G274" t="n">
-        <v>0.8038157648456212</v>
+        <v>0.779944872639986</v>
       </c>
       <c r="H274" t="n">
-        <v>0.8038157648456212</v>
+        <v>0.687818834570345</v>
       </c>
       <c r="I274" t="n">
-        <v>0.8038157648456212</v>
+        <v>0.7527544688075852</v>
       </c>
       <c r="J274" t="n">
-        <v>0.8038157648456212</v>
+        <v>0.7024612662405153</v>
       </c>
       <c r="K274" t="n">
-        <v>0.8038157648456212</v>
+        <v>0.7832678270291579</v>
       </c>
       <c r="L274" t="n">
-        <v>0.8038157648456212</v>
+        <v>0.7490739464070902</v>
       </c>
     </row>
     <row r="275">
@@ -10515,37 +10515,37 @@
         <v>274.0</v>
       </c>
       <c r="B275" t="n">
-        <v>3.320049630469658</v>
+        <v>3.35392768792343</v>
       </c>
       <c r="C275" t="n">
-        <v>3.320049630469658</v>
+        <v>3.4433403944311296</v>
       </c>
       <c r="D275" t="n">
-        <v>3.320049630469658</v>
+        <v>3.7288753780543487</v>
       </c>
       <c r="E275" t="n">
-        <v>3.320049630469658</v>
+        <v>3.6591977812884506</v>
       </c>
       <c r="F275" t="n">
-        <v>3.320049630469658</v>
+        <v>3.632919878960151</v>
       </c>
       <c r="G275" t="n">
-        <v>3.320049630469658</v>
+        <v>3.5335326643913145</v>
       </c>
       <c r="H275" t="n">
-        <v>3.320049630469658</v>
+        <v>3.2256158973354156</v>
       </c>
       <c r="I275" t="n">
-        <v>3.320049630469658</v>
+        <v>3.7038493712333347</v>
       </c>
       <c r="J275" t="n">
-        <v>3.320049630469658</v>
+        <v>3.722016626792385</v>
       </c>
       <c r="K275" t="n">
-        <v>3.320049630469658</v>
+        <v>3.7288753780543487</v>
       </c>
       <c r="L275" t="n">
-        <v>3.320049630469658</v>
+        <v>3.690339889806453</v>
       </c>
     </row>
     <row r="276">
@@ -10708,34 +10708,34 @@
         <v>0.19160821838514716</v>
       </c>
       <c r="C280" t="n">
-        <v>0.19160821838514716</v>
+        <v>0.16846366598951723</v>
       </c>
       <c r="D280" t="n">
-        <v>0.19160821838514716</v>
+        <v>0.1899912714078853</v>
       </c>
       <c r="E280" t="n">
-        <v>0.19160821838514716</v>
+        <v>0.18346654201145984</v>
       </c>
       <c r="F280" t="n">
-        <v>0.19160821838514716</v>
+        <v>0.17414117074981098</v>
       </c>
       <c r="G280" t="n">
-        <v>0.19160821838514716</v>
+        <v>0.19325292410856698</v>
       </c>
       <c r="H280" t="n">
-        <v>0.19160821838514716</v>
+        <v>0.19230965178824966</v>
       </c>
       <c r="I280" t="n">
-        <v>0.19160821838514716</v>
+        <v>0.1972437542320626</v>
       </c>
       <c r="J280" t="n">
-        <v>0.19160821838514716</v>
+        <v>0.19687415307644054</v>
       </c>
       <c r="K280" t="n">
-        <v>0.19160821838514716</v>
+        <v>0.1899912714078853</v>
       </c>
       <c r="L280" t="n">
-        <v>0.19160821838514716</v>
+        <v>0.17204995585856214</v>
       </c>
     </row>
     <row r="281">
@@ -10781,37 +10781,37 @@
         <v>281.0</v>
       </c>
       <c r="B282" t="n">
-        <v>6.159350061747304</v>
+        <v>6.098366397769608</v>
       </c>
       <c r="C282" t="n">
-        <v>6.159350061747304</v>
+        <v>6.260943380828475</v>
       </c>
       <c r="D282" t="n">
-        <v>6.159350061747304</v>
+        <v>6.780124803786836</v>
       </c>
       <c r="E282" t="n">
-        <v>6.159350061747304</v>
+        <v>6.6534316981708415</v>
       </c>
       <c r="F282" t="n">
-        <v>6.159350061747304</v>
+        <v>6.605651217649512</v>
       </c>
       <c r="G282" t="n">
-        <v>6.159350061747304</v>
+        <v>6.4249378254446325</v>
       </c>
       <c r="H282" t="n">
-        <v>6.159350061747304</v>
+        <v>5.8650601416517025</v>
       </c>
       <c r="I282" t="n">
-        <v>6.159350061747304</v>
+        <v>6.73462061488701</v>
       </c>
       <c r="J282" t="n">
-        <v>6.159350061747304</v>
+        <v>6.767653700615105</v>
       </c>
       <c r="K282" t="n">
-        <v>6.159350061747304</v>
+        <v>6.780124803786836</v>
       </c>
       <c r="L282" t="n">
-        <v>6.159350061747304</v>
+        <v>6.710056648322784</v>
       </c>
     </row>
     <row r="283">
@@ -10860,34 +10860,34 @@
         <v>2.5241305975139485</v>
       </c>
       <c r="C284" t="n">
-        <v>2.5241305975139485</v>
+        <v>2.413860379367706</v>
       </c>
       <c r="D284" t="n">
-        <v>2.5241305975139485</v>
+        <v>2.1558314763833915</v>
       </c>
       <c r="E284" t="n">
-        <v>2.5241305975139485</v>
+        <v>2.2017252691944953</v>
       </c>
       <c r="F284" t="n">
-        <v>2.5241305975139485</v>
+        <v>2.454997378783153</v>
       </c>
       <c r="G284" t="n">
-        <v>2.5241305975139485</v>
+        <v>2.2521276900693565</v>
       </c>
       <c r="H284" t="n">
-        <v>2.5241305975139485</v>
+        <v>2.2840094530517256</v>
       </c>
       <c r="I284" t="n">
-        <v>2.5241305975139485</v>
+        <v>2.205336629448557</v>
       </c>
       <c r="J284" t="n">
-        <v>2.5241305975139485</v>
+        <v>2.4520125802922212</v>
       </c>
       <c r="K284" t="n">
-        <v>2.5241305975139485</v>
+        <v>2.1558314763833915</v>
       </c>
       <c r="L284" t="n">
-        <v>2.5241305975139485</v>
+        <v>2.3593593200415373</v>
       </c>
     </row>
     <row r="285">
@@ -11430,34 +11430,34 @@
         <v>4.4897071408145495</v>
       </c>
       <c r="C299" t="n">
-        <v>4.4897071408145495</v>
+        <v>4.293567929032886</v>
       </c>
       <c r="D299" t="n">
-        <v>4.4897071408145495</v>
+        <v>3.834608234393386</v>
       </c>
       <c r="E299" t="n">
-        <v>4.4897071408145495</v>
+        <v>3.916240179074068</v>
       </c>
       <c r="F299" t="n">
-        <v>4.4897071408145495</v>
+        <v>4.366738897369122</v>
       </c>
       <c r="G299" t="n">
-        <v>4.4897071408145495</v>
+        <v>4.005891684879308</v>
       </c>
       <c r="H299" t="n">
-        <v>4.4897071408145495</v>
+        <v>4.062600231998336</v>
       </c>
       <c r="I299" t="n">
-        <v>4.4897071408145495</v>
+        <v>3.9226637571316707</v>
       </c>
       <c r="J299" t="n">
-        <v>4.4897071408145495</v>
+        <v>4.3614297936675035</v>
       </c>
       <c r="K299" t="n">
-        <v>4.4897071408145495</v>
+        <v>3.834608234393386</v>
       </c>
       <c r="L299" t="n">
-        <v>4.4897071408145495</v>
+        <v>4.1966261164818</v>
       </c>
     </row>
     <row r="300">
@@ -11541,37 +11541,37 @@
         <v>301.0</v>
       </c>
       <c r="B302" t="n">
-        <v>2.314308588855816</v>
+        <v>2.337685443288703</v>
       </c>
       <c r="C302" t="n">
-        <v>2.314308588855816</v>
+        <v>2.235560345624331</v>
       </c>
       <c r="D302" t="n">
-        <v>2.314308588855816</v>
+        <v>1.9965907728739054</v>
       </c>
       <c r="E302" t="n">
-        <v>2.314308588855816</v>
+        <v>2.0390946161764236</v>
       </c>
       <c r="F302" t="n">
-        <v>2.314308588855816</v>
+        <v>2.2736587565420474</v>
       </c>
       <c r="G302" t="n">
-        <v>2.314308588855816</v>
+        <v>2.085774057288434</v>
       </c>
       <c r="H302" t="n">
-        <v>2.314308588855816</v>
+        <v>2.1153008707202225</v>
       </c>
       <c r="I302" t="n">
-        <v>2.314308588855816</v>
+        <v>2.042439222951012</v>
       </c>
       <c r="J302" t="n">
-        <v>2.314308588855816</v>
+        <v>2.2708944304844834</v>
       </c>
       <c r="K302" t="n">
-        <v>2.314308588855816</v>
+        <v>1.9965907728739054</v>
       </c>
       <c r="L302" t="n">
-        <v>2.314308588855816</v>
+        <v>2.1850850123923333</v>
       </c>
     </row>
     <row r="303">
@@ -11655,37 +11655,37 @@
         <v>304.0</v>
       </c>
       <c r="B305" t="n">
-        <v>2.269909892552005</v>
+        <v>2.2930722383943722</v>
       </c>
       <c r="C305" t="n">
-        <v>2.269909892552005</v>
+        <v>2.192896131737338</v>
       </c>
       <c r="D305" t="n">
-        <v>2.269909892552005</v>
+        <v>1.9584871377179958</v>
       </c>
       <c r="E305" t="n">
-        <v>2.269909892552005</v>
+        <v>2.000179822840317</v>
       </c>
       <c r="F305" t="n">
-        <v>2.269909892552005</v>
+        <v>2.230267459284064</v>
       </c>
       <c r="G305" t="n">
-        <v>2.269909892552005</v>
+        <v>2.045968417206174</v>
       </c>
       <c r="H305" t="n">
-        <v>2.269909892552005</v>
+        <v>2.074931730625037</v>
       </c>
       <c r="I305" t="n">
-        <v>2.269909892552005</v>
+        <v>2.0034605999718904</v>
       </c>
       <c r="J305" t="n">
-        <v>2.269909892552005</v>
+        <v>2.227555888589783</v>
       </c>
       <c r="K305" t="n">
-        <v>2.269909892552005</v>
+        <v>1.9584871377179958</v>
       </c>
       <c r="L305" t="n">
-        <v>2.269909892552005</v>
+        <v>2.143384087381546</v>
       </c>
     </row>
     <row r="306">
@@ -11845,37 +11845,37 @@
         <v>309.0</v>
       </c>
       <c r="B310" t="n">
-        <v>2.467111097087458</v>
+        <v>2.4424399861165837</v>
       </c>
       <c r="C310" t="n">
-        <v>2.467111097087458</v>
+        <v>2.3357385379651103</v>
       </c>
       <c r="D310" t="n">
-        <v>2.467111097087458</v>
+        <v>2.086060446489416</v>
       </c>
       <c r="E310" t="n">
-        <v>2.467111097087458</v>
+        <v>2.130468938976608</v>
       </c>
       <c r="F310" t="n">
-        <v>2.467111097087458</v>
+        <v>2.3755441852561425</v>
       </c>
       <c r="G310" t="n">
-        <v>2.467111097087458</v>
+        <v>2.1792401429163277</v>
       </c>
       <c r="H310" t="n">
-        <v>2.467111097087458</v>
+        <v>2.210090088958234</v>
       </c>
       <c r="I310" t="n">
-        <v>2.467111097087458</v>
+        <v>2.133963421669968</v>
       </c>
       <c r="J310" t="n">
-        <v>2.467111097087458</v>
+        <v>2.3726559863682035</v>
       </c>
       <c r="K310" t="n">
-        <v>2.467111097087458</v>
+        <v>2.086060446489416</v>
       </c>
       <c r="L310" t="n">
-        <v>2.467111097087458</v>
+        <v>2.283001343338551</v>
       </c>
     </row>
     <row r="311">
@@ -11921,37 +11921,37 @@
         <v>311.0</v>
       </c>
       <c r="B312" t="n">
-        <v>3.165437580526061</v>
+        <v>3.1970919563313216</v>
       </c>
       <c r="C312" t="n">
-        <v>3.165437580526061</v>
+        <v>3.181486871120698</v>
       </c>
       <c r="D312" t="n">
-        <v>3.165437580526061</v>
+        <v>2.770699777467903</v>
       </c>
       <c r="E312" t="n">
-        <v>3.165437580526061</v>
+        <v>3.120560730280567</v>
       </c>
       <c r="F312" t="n">
-        <v>3.165437580526061</v>
+        <v>3.202983401934293</v>
       </c>
       <c r="G312" t="n">
-        <v>3.165437580526061</v>
+        <v>3.143132598863398</v>
       </c>
       <c r="H312" t="n">
-        <v>3.165437580526061</v>
+        <v>2.8809154574942815</v>
       </c>
       <c r="I312" t="n">
-        <v>3.165437580526061</v>
+        <v>3.2569999864872767</v>
       </c>
       <c r="J312" t="n">
-        <v>3.165437580526061</v>
+        <v>3.26311450655025</v>
       </c>
       <c r="K312" t="n">
-        <v>3.165437580526061</v>
+        <v>2.770699777467903</v>
       </c>
       <c r="L312" t="n">
-        <v>3.165437580526061</v>
+        <v>2.95269364694978</v>
       </c>
     </row>
     <row r="313">
@@ -11997,37 +11997,37 @@
         <v>313.0</v>
       </c>
       <c r="B314" t="n">
-        <v>1.8432726289215096</v>
+        <v>1.8620815332982597</v>
       </c>
       <c r="C314" t="n">
-        <v>1.8432726289215096</v>
+        <v>1.9108554972696195</v>
       </c>
       <c r="D314" t="n">
-        <v>1.8432726289215096</v>
+        <v>2.0127834118834462</v>
       </c>
       <c r="E314" t="n">
-        <v>1.8432726289215096</v>
+        <v>1.8137291398202662</v>
       </c>
       <c r="F314" t="n">
-        <v>1.8432726289215096</v>
+        <v>2.054349027044354</v>
       </c>
       <c r="G314" t="n">
-        <v>1.8432726289215096</v>
+        <v>2.0029589660802003</v>
       </c>
       <c r="H314" t="n">
-        <v>1.8432726289215096</v>
+        <v>2.0504995273357176</v>
       </c>
       <c r="I314" t="n">
-        <v>1.8432726289215096</v>
+        <v>1.9788123841148377</v>
       </c>
       <c r="J314" t="n">
-        <v>1.8432726289215096</v>
+        <v>2.016492471286067</v>
       </c>
       <c r="K314" t="n">
-        <v>1.8432726289215096</v>
+        <v>2.0127834118834462</v>
       </c>
       <c r="L314" t="n">
-        <v>1.8432726289215096</v>
+        <v>1.7545963352062013</v>
       </c>
     </row>
     <row r="315">
@@ -12035,37 +12035,37 @@
         <v>314.0</v>
       </c>
       <c r="B315" t="n">
-        <v>3.6459697018674744</v>
+        <v>3.6835570183815722</v>
       </c>
       <c r="C315" t="n">
-        <v>3.6459697018674744</v>
+        <v>3.6655774851259832</v>
       </c>
       <c r="D315" t="n">
-        <v>3.6459697018674744</v>
+        <v>3.1922855990766132</v>
       </c>
       <c r="E315" t="n">
-        <v>3.6459697018674744</v>
+        <v>3.5953809074985768</v>
       </c>
       <c r="F315" t="n">
-        <v>3.6459697018674744</v>
+        <v>3.690344898147202</v>
       </c>
       <c r="G315" t="n">
-        <v>3.6459697018674744</v>
+        <v>3.6213872801872378</v>
       </c>
       <c r="H315" t="n">
-        <v>3.6459697018674744</v>
+        <v>3.3192715435668476</v>
       </c>
       <c r="I315" t="n">
-        <v>3.6459697018674744</v>
+        <v>3.752580571020205</v>
       </c>
       <c r="J315" t="n">
-        <v>3.6459697018674744</v>
+        <v>3.759625467945173</v>
       </c>
       <c r="K315" t="n">
-        <v>3.6459697018674744</v>
+        <v>3.1922855990766132</v>
       </c>
       <c r="L315" t="n">
-        <v>3.6459697018674744</v>
+        <v>3.401971402421994</v>
       </c>
     </row>
     <row r="316">
@@ -12073,37 +12073,37 @@
         <v>315.0</v>
       </c>
       <c r="B316" t="n">
-        <v>3.170266018223166</v>
+        <v>3.201968678405398</v>
       </c>
       <c r="C316" t="n">
-        <v>3.170266018223166</v>
+        <v>3.18633978979326</v>
       </c>
       <c r="D316" t="n">
-        <v>3.170266018223166</v>
+        <v>2.7749260971828105</v>
       </c>
       <c r="E316" t="n">
-        <v>3.170266018223166</v>
+        <v>3.125320714542739</v>
       </c>
       <c r="F316" t="n">
-        <v>3.170266018223166</v>
+        <v>3.2078691105946837</v>
       </c>
       <c r="G316" t="n">
-        <v>3.170266018223166</v>
+        <v>3.1479270133925987</v>
       </c>
       <c r="H316" t="n">
-        <v>3.170266018223166</v>
+        <v>2.8853098960018406</v>
       </c>
       <c r="I316" t="n">
-        <v>3.170266018223166</v>
+        <v>3.2619680899845545</v>
       </c>
       <c r="J316" t="n">
-        <v>3.170266018223166</v>
+        <v>3.268091936903111</v>
       </c>
       <c r="K316" t="n">
-        <v>3.170266018223166</v>
+        <v>2.7749260971828105</v>
       </c>
       <c r="L316" t="n">
-        <v>3.170266018223166</v>
+        <v>2.9571975731685893</v>
       </c>
     </row>
     <row r="317">
@@ -12190,34 +12190,34 @@
         <v>3.1691708779425265</v>
       </c>
       <c r="C319" t="n">
-        <v>3.1691708779425265</v>
+        <v>3.1537020762086936</v>
       </c>
       <c r="D319" t="n">
-        <v>3.1691708779425265</v>
+        <v>2.746502498585981</v>
       </c>
       <c r="E319" t="n">
-        <v>3.1691708779425265</v>
+        <v>3.0933080200184757</v>
       </c>
       <c r="F319" t="n">
-        <v>3.1691708779425265</v>
+        <v>3.175010871939867</v>
       </c>
       <c r="G319" t="n">
-        <v>3.1691708779425265</v>
+        <v>3.1156827623000645</v>
       </c>
       <c r="H319" t="n">
-        <v>3.1691708779425265</v>
+        <v>2.855755634937131</v>
       </c>
       <c r="I319" t="n">
-        <v>3.1691708779425265</v>
+        <v>3.2285557148876043</v>
       </c>
       <c r="J319" t="n">
-        <v>3.1691708779425265</v>
+        <v>3.2346168351746813</v>
       </c>
       <c r="K319" t="n">
-        <v>3.1691708779425265</v>
+        <v>2.746502498585981</v>
       </c>
       <c r="L319" t="n">
-        <v>3.1691708779425265</v>
+        <v>2.9269069658343625</v>
       </c>
     </row>
     <row r="320">
@@ -12339,37 +12339,37 @@
         <v>322.0</v>
       </c>
       <c r="B323" t="n">
-        <v>1.06710874574797</v>
+        <v>1.0781098668381552</v>
       </c>
       <c r="C323" t="n">
-        <v>1.06710874574797</v>
+        <v>1.0986389852572296</v>
       </c>
       <c r="D323" t="n">
-        <v>1.06710874574797</v>
+        <v>1.0839904657421748</v>
       </c>
       <c r="E323" t="n">
-        <v>1.06710874574797</v>
+        <v>1.0886088060920078</v>
       </c>
       <c r="F323" t="n">
-        <v>1.06710874574797</v>
+        <v>0.9559509716481002</v>
       </c>
       <c r="G323" t="n">
-        <v>1.06710874574797</v>
+        <v>1.0127883741455999</v>
       </c>
       <c r="H323" t="n">
-        <v>1.06710874574797</v>
+        <v>0.9986511827024268</v>
       </c>
       <c r="I323" t="n">
-        <v>1.06710874574797</v>
+        <v>0.9763014565125252</v>
       </c>
       <c r="J323" t="n">
-        <v>1.06710874574797</v>
+        <v>0.9779028262771197</v>
       </c>
       <c r="K323" t="n">
-        <v>1.06710874574797</v>
+        <v>1.0839904657421748</v>
       </c>
       <c r="L323" t="n">
-        <v>1.06710874574797</v>
+        <v>1.119264248478318</v>
       </c>
     </row>
     <row r="324">
@@ -12491,37 +12491,37 @@
         <v>326.0</v>
       </c>
       <c r="B327" t="n">
-        <v>1.8207340002946137</v>
+        <v>1.802706930984766</v>
       </c>
       <c r="C327" t="n">
-        <v>1.8207340002946137</v>
+        <v>2.004347098002862</v>
       </c>
       <c r="D327" t="n">
-        <v>1.8207340002946137</v>
+        <v>1.8670164075951634</v>
       </c>
       <c r="E327" t="n">
-        <v>1.8207340002946137</v>
+        <v>1.8701934057830196</v>
       </c>
       <c r="F327" t="n">
-        <v>1.8207340002946137</v>
+        <v>1.9982733183767916</v>
       </c>
       <c r="G327" t="n">
-        <v>1.8207340002946137</v>
+        <v>1.762239964917844</v>
       </c>
       <c r="H327" t="n">
-        <v>1.8207340002946137</v>
+        <v>1.7997548990485315</v>
       </c>
       <c r="I327" t="n">
-        <v>1.8207340002946137</v>
+        <v>1.840955318175585</v>
       </c>
       <c r="J327" t="n">
-        <v>1.8207340002946137</v>
+        <v>1.9286096018755663</v>
       </c>
       <c r="K327" t="n">
-        <v>1.8207340002946137</v>
+        <v>1.8670164075951634</v>
       </c>
       <c r="L327" t="n">
-        <v>1.8207340002946137</v>
+        <v>1.7519399448692028</v>
       </c>
     </row>
     <row r="328">
@@ -12570,34 +12570,34 @@
         <v>3.4196292529767294</v>
       </c>
       <c r="C329" t="n">
-        <v>3.4196292529767294</v>
+        <v>3.396831723300774</v>
       </c>
       <c r="D329" t="n">
-        <v>3.4196292529767294</v>
+        <v>3.5007947170353626</v>
       </c>
       <c r="E329" t="n">
-        <v>3.4196292529767294</v>
+        <v>3.5073669244724126</v>
       </c>
       <c r="F329" t="n">
-        <v>3.4196292529767294</v>
+        <v>2.97809370085749</v>
       </c>
       <c r="G329" t="n">
-        <v>3.4196292529767294</v>
+        <v>3.4427348537808564</v>
       </c>
       <c r="H329" t="n">
-        <v>3.4196292529767294</v>
+        <v>3.3541426355780852</v>
       </c>
       <c r="I329" t="n">
-        <v>3.4196292529767294</v>
+        <v>3.2623820394396152</v>
       </c>
       <c r="J329" t="n">
-        <v>3.4196292529767294</v>
+        <v>3.3784040659177315</v>
       </c>
       <c r="K329" t="n">
-        <v>3.4196292529767294</v>
+        <v>3.5007947170353626</v>
       </c>
       <c r="L329" t="n">
-        <v>3.4196292529767294</v>
+        <v>3.0643916598743255</v>
       </c>
     </row>
     <row r="330">
@@ -12643,37 +12643,37 @@
         <v>330.0</v>
       </c>
       <c r="B331" t="n">
-        <v>7.607930045422243</v>
+        <v>7.534066646922998</v>
       </c>
       <c r="C331" t="n">
-        <v>7.607930045422243</v>
+        <v>8.084651152588762</v>
       </c>
       <c r="D331" t="n">
-        <v>7.607930045422243</v>
+        <v>7.151119610246553</v>
       </c>
       <c r="E331" t="n">
-        <v>7.607930045422243</v>
+        <v>6.877537992728762</v>
       </c>
       <c r="F331" t="n">
-        <v>7.607930045422243</v>
+        <v>7.897209581290994</v>
       </c>
       <c r="G331" t="n">
-        <v>7.607930045422243</v>
+        <v>8.099828850433324</v>
       </c>
       <c r="H331" t="n">
-        <v>7.607930045422243</v>
+        <v>7.935945126472984</v>
       </c>
       <c r="I331" t="n">
-        <v>7.607930045422243</v>
+        <v>7.950569100277738</v>
       </c>
       <c r="J331" t="n">
-        <v>7.607930045422243</v>
+        <v>7.745976361515274</v>
       </c>
       <c r="K331" t="n">
-        <v>7.607930045422243</v>
+        <v>7.151119610246553</v>
       </c>
       <c r="L331" t="n">
-        <v>7.607930045422243</v>
+        <v>7.226982968650745</v>
       </c>
     </row>
     <row r="332">
@@ -12719,37 +12719,37 @@
         <v>332.0</v>
       </c>
       <c r="B333" t="n">
-        <v>4.189135839192656</v>
+        <v>4.231027197584583</v>
       </c>
       <c r="C333" t="n">
-        <v>4.189135839192656</v>
+        <v>4.540227809579689</v>
       </c>
       <c r="D333" t="n">
-        <v>4.189135839192656</v>
+        <v>4.015969460064542</v>
       </c>
       <c r="E333" t="n">
-        <v>4.189135839192656</v>
+        <v>3.862329823103047</v>
       </c>
       <c r="F333" t="n">
-        <v>4.189135839192656</v>
+        <v>4.434963226282866</v>
       </c>
       <c r="G333" t="n">
-        <v>4.189135839192656</v>
+        <v>4.548751393904934</v>
       </c>
       <c r="H333" t="n">
-        <v>4.189135839192656</v>
+        <v>4.456716570507024</v>
       </c>
       <c r="I333" t="n">
-        <v>4.189135839192656</v>
+        <v>4.4649291911015005</v>
       </c>
       <c r="J333" t="n">
-        <v>4.189135839192656</v>
+        <v>4.350032750347842</v>
       </c>
       <c r="K333" t="n">
-        <v>4.189135839192656</v>
+        <v>4.015969460064542</v>
       </c>
       <c r="L333" t="n">
-        <v>4.189135839192656</v>
+        <v>4.058573268572041</v>
       </c>
     </row>
     <row r="334">
@@ -12909,37 +12909,37 @@
         <v>337.0</v>
       </c>
       <c r="B338" t="n">
-        <v>3.652850151684996</v>
+        <v>3.6905084006714395</v>
       </c>
       <c r="C338" t="n">
-        <v>3.652850151684996</v>
+        <v>3.960208263795016</v>
       </c>
       <c r="D338" t="n">
-        <v>3.652850151684996</v>
+        <v>3.502924546944336</v>
       </c>
       <c r="E338" t="n">
-        <v>3.652850151684996</v>
+        <v>3.3689125577975387</v>
       </c>
       <c r="F338" t="n">
-        <v>3.652850151684996</v>
+        <v>3.8683913572121695</v>
       </c>
       <c r="G338" t="n">
-        <v>3.652850151684996</v>
+        <v>3.9676429500041013</v>
       </c>
       <c r="H338" t="n">
-        <v>3.652850151684996</v>
+        <v>3.8873656856324135</v>
       </c>
       <c r="I338" t="n">
-        <v>3.652850151684996</v>
+        <v>3.894529134100139</v>
       </c>
       <c r="J338" t="n">
-        <v>3.652850151684996</v>
+        <v>3.7943108513978454</v>
       </c>
       <c r="K338" t="n">
-        <v>3.652850151684996</v>
+        <v>3.502924546944336</v>
       </c>
       <c r="L338" t="n">
-        <v>3.652850151684996</v>
+        <v>3.540085667838875</v>
       </c>
     </row>
     <row r="339">
@@ -13023,37 +13023,37 @@
         <v>340.0</v>
       </c>
       <c r="B341" t="n">
-        <v>1.0685094287856</v>
+        <v>1.036454145922032</v>
       </c>
       <c r="C341" t="n">
-        <v>1.0685094287856</v>
+        <v>0.904832179749438</v>
       </c>
       <c r="D341" t="n">
-        <v>1.0685094287856</v>
+        <v>1.0351940196190859</v>
       </c>
       <c r="E341" t="n">
-        <v>1.0685094287856</v>
+        <v>0.9642662299354218</v>
       </c>
       <c r="F341" t="n">
-        <v>1.0685094287856</v>
+        <v>0.9960775396790491</v>
       </c>
       <c r="G341" t="n">
-        <v>1.0685094287856</v>
+        <v>0.9659070682551352</v>
       </c>
       <c r="H341" t="n">
-        <v>1.0685094287856</v>
+        <v>0.9310520298309338</v>
       </c>
       <c r="I341" t="n">
-        <v>1.0685094287856</v>
+        <v>1.03205706776496</v>
       </c>
       <c r="J341" t="n">
-        <v>1.0685094287856</v>
+        <v>0.9101518767055861</v>
       </c>
       <c r="K341" t="n">
-        <v>1.0685094287856</v>
+        <v>1.0351940196190859</v>
       </c>
       <c r="L341" t="n">
-        <v>1.0685094287856</v>
+        <v>1.0264582051795506</v>
       </c>
     </row>
     <row r="342">
@@ -13175,37 +13175,37 @@
         <v>344.0</v>
       </c>
       <c r="B345" t="n">
-        <v>4.475485312324723</v>
+        <v>4.431173576559132</v>
       </c>
       <c r="C345" t="n">
-        <v>4.475485312324723</v>
+        <v>3.8684474965935713</v>
       </c>
       <c r="D345" t="n">
-        <v>4.475485312324723</v>
+        <v>4.425786132841808</v>
       </c>
       <c r="E345" t="n">
-        <v>4.475485312324723</v>
+        <v>4.122547105117722</v>
       </c>
       <c r="F345" t="n">
-        <v>4.475485312324723</v>
+        <v>4.258550647316204</v>
       </c>
       <c r="G345" t="n">
-        <v>4.475485312324723</v>
+        <v>4.129562214695243</v>
       </c>
       <c r="H345" t="n">
-        <v>4.475485312324723</v>
+        <v>3.980545757109581</v>
       </c>
       <c r="I345" t="n">
-        <v>4.475485312324723</v>
+        <v>4.412374658516937</v>
       </c>
       <c r="J345" t="n">
-        <v>4.475485312324723</v>
+        <v>3.891190905629207</v>
       </c>
       <c r="K345" t="n">
-        <v>4.475485312324723</v>
+        <v>4.425786132841808</v>
       </c>
       <c r="L345" t="n">
-        <v>4.475485312324723</v>
+        <v>4.38843772696539</v>
       </c>
     </row>
     <row r="346">
@@ -13289,37 +13289,37 @@
         <v>347.0</v>
       </c>
       <c r="B348" t="n">
-        <v>1.5937246505242817</v>
+        <v>1.609987146958203</v>
       </c>
       <c r="C348" t="n">
-        <v>1.5937246505242817</v>
+        <v>1.4055307562640171</v>
       </c>
       <c r="D348" t="n">
-        <v>1.5937246505242817</v>
+        <v>1.6080297162708257</v>
       </c>
       <c r="E348" t="n">
-        <v>1.5937246505242817</v>
+        <v>1.497853274599817</v>
       </c>
       <c r="F348" t="n">
-        <v>1.5937246505242817</v>
+        <v>1.5472677132574815</v>
       </c>
       <c r="G348" t="n">
-        <v>1.5937246505242817</v>
+        <v>1.5004020883754858</v>
       </c>
       <c r="H348" t="n">
-        <v>1.5937246505242817</v>
+        <v>1.4462596411765531</v>
       </c>
       <c r="I348" t="n">
-        <v>1.5937246505242817</v>
+        <v>1.6031568985145936</v>
       </c>
       <c r="J348" t="n">
-        <v>1.5937246505242817</v>
+        <v>1.4137941644994985</v>
       </c>
       <c r="K348" t="n">
-        <v>1.5937246505242817</v>
+        <v>1.6080297162708257</v>
       </c>
       <c r="L348" t="n">
-        <v>1.5937246505242817</v>
+        <v>1.5944598453593135</v>
       </c>
     </row>
     <row r="349">
@@ -13403,37 +13403,37 @@
         <v>350.0</v>
       </c>
       <c r="B351" t="n">
-        <v>2.474435653582583</v>
+        <v>2.49942995311372</v>
       </c>
       <c r="C351" t="n">
-        <v>2.474435653582583</v>
+        <v>2.1820209427548094</v>
       </c>
       <c r="D351" t="n">
-        <v>2.474435653582583</v>
+        <v>2.4963911332694635</v>
       </c>
       <c r="E351" t="n">
-        <v>2.474435653582583</v>
+        <v>2.3253473463918564</v>
       </c>
       <c r="F351" t="n">
-        <v>2.474435653582583</v>
+        <v>2.4020609576344145</v>
       </c>
       <c r="G351" t="n">
-        <v>2.474435653582583</v>
+        <v>2.3293042608975725</v>
       </c>
       <c r="H351" t="n">
-        <v>2.474435653582583</v>
+        <v>2.2452506369170555</v>
       </c>
       <c r="I351" t="n">
-        <v>2.474435653582583</v>
+        <v>2.4888263109794213</v>
       </c>
       <c r="J351" t="n">
-        <v>2.474435653582583</v>
+        <v>2.1948494986209792</v>
       </c>
       <c r="K351" t="n">
-        <v>2.474435653582583</v>
+        <v>2.4963911332694635</v>
       </c>
       <c r="L351" t="n">
-        <v>2.474435653582583</v>
+        <v>2.4753245416012004</v>
       </c>
     </row>
     <row r="352">
@@ -13479,37 +13479,37 @@
         <v>352.0</v>
       </c>
       <c r="B353" t="n">
-        <v>2.7076651647103547</v>
+        <v>2.68111942780143</v>
       </c>
       <c r="C353" t="n">
-        <v>2.7076651647103547</v>
+        <v>2.34063720577623</v>
       </c>
       <c r="D353" t="n">
-        <v>2.7076651647103547</v>
+        <v>2.6778597089555887</v>
       </c>
       <c r="E353" t="n">
-        <v>2.7076651647103547</v>
+        <v>2.4943823446745923</v>
       </c>
       <c r="F353" t="n">
-        <v>2.7076651647103547</v>
+        <v>2.5766724497535525</v>
       </c>
       <c r="G353" t="n">
-        <v>2.7076651647103547</v>
+        <v>2.4986268966542178</v>
       </c>
       <c r="H353" t="n">
-        <v>2.7076651647103547</v>
+        <v>2.40846321595153</v>
       </c>
       <c r="I353" t="n">
-        <v>2.7076651647103547</v>
+        <v>2.66974498184174</v>
       </c>
       <c r="J353" t="n">
-        <v>2.7076651647103547</v>
+        <v>2.3543982997090986</v>
       </c>
       <c r="K353" t="n">
-        <v>2.7076651647103547</v>
+        <v>2.6778597089555887</v>
       </c>
       <c r="L353" t="n">
-        <v>2.7076651647103547</v>
+        <v>2.6552617369144134</v>
       </c>
     </row>
     <row r="354">
@@ -13593,37 +13593,37 @@
         <v>355.0</v>
       </c>
       <c r="B356" t="n">
-        <v>3.28801427115986</v>
+        <v>3.2560918025078225</v>
       </c>
       <c r="C356" t="n">
-        <v>3.28801427115986</v>
+        <v>3.6202990308703775</v>
       </c>
       <c r="D356" t="n">
-        <v>3.28801427115986</v>
+        <v>3.3722490968608736</v>
       </c>
       <c r="E356" t="n">
-        <v>3.28801427115986</v>
+        <v>3.3779874659647247</v>
       </c>
       <c r="F356" t="n">
-        <v>3.28801427115986</v>
+        <v>3.6093284267689763</v>
       </c>
       <c r="G356" t="n">
-        <v>3.28801427115986</v>
+        <v>3.1829994133800517</v>
       </c>
       <c r="H356" t="n">
-        <v>3.28801427115986</v>
+        <v>3.2507597727568394</v>
       </c>
       <c r="I356" t="n">
-        <v>3.28801427115986</v>
+        <v>3.3251769421112622</v>
       </c>
       <c r="J356" t="n">
-        <v>3.28801427115986</v>
+        <v>3.4835001779654076</v>
       </c>
       <c r="K356" t="n">
-        <v>3.28801427115986</v>
+        <v>3.3722490968608736</v>
       </c>
       <c r="L356" t="n">
-        <v>3.28801427115986</v>
+        <v>3.164395274088411</v>
       </c>
     </row>
     <row r="357">
@@ -13634,34 +13634,34 @@
         <v>0.1647170060878132</v>
       </c>
       <c r="C357" t="n">
-        <v>0.1647170060878132</v>
+        <v>0.18314127907827854</v>
       </c>
       <c r="D357" t="n">
-        <v>0.1647170060878132</v>
+        <v>0.17059309402438774</v>
       </c>
       <c r="E357" t="n">
-        <v>0.1647170060878132</v>
+        <v>0.17088338282333532</v>
       </c>
       <c r="F357" t="n">
-        <v>0.1647170060878132</v>
+        <v>0.18258630545586235</v>
       </c>
       <c r="G357" t="n">
-        <v>0.1647170060878132</v>
+        <v>0.16101945692913805</v>
       </c>
       <c r="H357" t="n">
-        <v>0.1647170060878132</v>
+        <v>0.1644472729137434</v>
       </c>
       <c r="I357" t="n">
-        <v>0.1647170060878132</v>
+        <v>0.16821183917325408</v>
       </c>
       <c r="J357" t="n">
-        <v>0.1647170060878132</v>
+        <v>0.17622098970885752</v>
       </c>
       <c r="K357" t="n">
-        <v>0.1647170060878132</v>
+        <v>0.17059309402438774</v>
       </c>
       <c r="L357" t="n">
-        <v>0.1647170060878132</v>
+        <v>0.16007832310649844</v>
       </c>
     </row>
     <row r="358">
@@ -13824,34 +13824,34 @@
         <v>1.639717130209526</v>
       </c>
       <c r="C362" t="n">
-        <v>1.639717130209526</v>
+        <v>1.82312621923836</v>
       </c>
       <c r="D362" t="n">
-        <v>1.639717130209526</v>
+        <v>1.6982121349273884</v>
       </c>
       <c r="E362" t="n">
-        <v>1.639717130209526</v>
+        <v>1.701101888254307</v>
       </c>
       <c r="F362" t="n">
-        <v>1.639717130209526</v>
+        <v>1.8176015938392973</v>
       </c>
       <c r="G362" t="n">
-        <v>1.639717130209526</v>
+        <v>1.6029089411872024</v>
       </c>
       <c r="H362" t="n">
-        <v>1.639717130209526</v>
+        <v>1.6370320030534855</v>
       </c>
       <c r="I362" t="n">
-        <v>1.639717130209526</v>
+        <v>1.674507330769421</v>
       </c>
       <c r="J362" t="n">
-        <v>1.639717130209526</v>
+        <v>1.7542364470493421</v>
       </c>
       <c r="K362" t="n">
-        <v>1.639717130209526</v>
+        <v>1.6982121349273884</v>
       </c>
       <c r="L362" t="n">
-        <v>1.639717130209526</v>
+        <v>1.5935401863302872</v>
       </c>
     </row>
     <row r="363">
@@ -13897,37 +13897,37 @@
         <v>363.0</v>
       </c>
       <c r="B364" t="n">
-        <v>5.379874232538415</v>
+        <v>5.326608151028134</v>
       </c>
       <c r="C364" t="n">
-        <v>5.379874232538415</v>
+        <v>5.466129320967251</v>
       </c>
       <c r="D364" t="n">
-        <v>5.379874232538415</v>
+        <v>5.757700904214538</v>
       </c>
       <c r="E364" t="n">
-        <v>5.379874232538415</v>
+        <v>5.1882929115416</v>
       </c>
       <c r="F364" t="n">
-        <v>5.379874232538415</v>
+        <v>5.8766021126521855</v>
       </c>
       <c r="G364" t="n">
-        <v>5.379874232538415</v>
+        <v>5.729597423159005</v>
       </c>
       <c r="H364" t="n">
-        <v>5.379874232538415</v>
+        <v>5.865590362544183</v>
       </c>
       <c r="I364" t="n">
-        <v>5.379874232538415</v>
+        <v>5.660524518446638</v>
       </c>
       <c r="J364" t="n">
-        <v>5.379874232538415</v>
+        <v>5.768310915480614</v>
       </c>
       <c r="K364" t="n">
-        <v>5.379874232538415</v>
+        <v>5.757700904214538</v>
       </c>
       <c r="L364" t="n">
-        <v>5.379874232538415</v>
+        <v>5.019139588543697</v>
       </c>
     </row>
     <row r="365">
@@ -13973,37 +13973,37 @@
         <v>365.0</v>
       </c>
       <c r="B366" t="n">
-        <v>7.226467342584729</v>
+        <v>7.299461962206798</v>
       </c>
       <c r="C366" t="n">
-        <v>7.226467342584729</v>
+        <v>7.494059076641012</v>
       </c>
       <c r="D366" t="n">
-        <v>7.226467342584729</v>
+        <v>8.115495179554573</v>
       </c>
       <c r="E366" t="n">
-        <v>7.226467342584729</v>
+        <v>7.963849403456891</v>
       </c>
       <c r="F366" t="n">
-        <v>7.226467342584729</v>
+        <v>7.906658382558413</v>
       </c>
       <c r="G366" t="n">
-        <v>7.226467342584729</v>
+        <v>7.690352826870038</v>
       </c>
       <c r="H366" t="n">
-        <v>7.226467342584729</v>
+        <v>7.020205185719839</v>
       </c>
       <c r="I366" t="n">
-        <v>7.226467342584729</v>
+        <v>8.061028774237103</v>
       </c>
       <c r="J366" t="n">
-        <v>7.226467342584729</v>
+        <v>8.100567847004973</v>
       </c>
       <c r="K366" t="n">
-        <v>7.226467342584729</v>
+        <v>8.115495179554573</v>
       </c>
       <c r="L366" t="n">
-        <v>7.226467342584729</v>
+        <v>8.031626844624926</v>
       </c>
     </row>
     <row r="367">
@@ -14543,37 +14543,37 @@
         <v>380.0</v>
       </c>
       <c r="B381" t="n">
-        <v>2.566948233782785</v>
+        <v>2.5931415831070987</v>
       </c>
       <c r="C381" t="n">
-        <v>2.566948233782785</v>
+        <v>2.5758539715499755</v>
       </c>
       <c r="D381" t="n">
-        <v>2.566948233782785</v>
+        <v>2.654690226071658</v>
       </c>
       <c r="E381" t="n">
-        <v>2.566948233782785</v>
+        <v>2.6596740015446816</v>
       </c>
       <c r="F381" t="n">
-        <v>2.566948233782785</v>
+        <v>2.258320432649376</v>
       </c>
       <c r="G381" t="n">
-        <v>2.566948233782785</v>
+        <v>2.6106628083088363</v>
       </c>
       <c r="H381" t="n">
-        <v>2.566948233782785</v>
+        <v>2.5434823779269973</v>
       </c>
       <c r="I381" t="n">
-        <v>2.566948233782785</v>
+        <v>2.4738993325339234</v>
       </c>
       <c r="J381" t="n">
-        <v>2.566948233782785</v>
+        <v>2.561880081077018</v>
       </c>
       <c r="K381" t="n">
-        <v>2.566948233782785</v>
+        <v>2.654690226071658</v>
       </c>
       <c r="L381" t="n">
-        <v>2.566948233782785</v>
+        <v>2.323761101654365</v>
       </c>
     </row>
     <row r="382">
@@ -14581,37 +14581,37 @@
         <v>381.0</v>
       </c>
       <c r="B382" t="n">
-        <v>2.7193194769336575</v>
+        <v>2.7470676348615517</v>
       </c>
       <c r="C382" t="n">
-        <v>2.7193194769336575</v>
+        <v>2.728753849566524</v>
       </c>
       <c r="D382" t="n">
-        <v>2.7193194769336575</v>
+        <v>2.812269738039813</v>
       </c>
       <c r="E382" t="n">
-        <v>2.7193194769336575</v>
+        <v>2.8175493449808875</v>
       </c>
       <c r="F382" t="n">
-        <v>2.7193194769336575</v>
+        <v>2.3923718666546168</v>
       </c>
       <c r="G382" t="n">
-        <v>2.7193194769336575</v>
+        <v>2.76562890085195</v>
       </c>
       <c r="H382" t="n">
-        <v>2.7193194769336575</v>
+        <v>2.694460713507203</v>
       </c>
       <c r="I382" t="n">
-        <v>2.7193194769336575</v>
+        <v>2.6207472945486514</v>
       </c>
       <c r="J382" t="n">
-        <v>2.7193194769336575</v>
+        <v>2.713950484219474</v>
       </c>
       <c r="K382" t="n">
-        <v>2.7193194769336575</v>
+        <v>2.812269738039813</v>
       </c>
       <c r="L382" t="n">
-        <v>2.7193194769336575</v>
+        <v>2.4616970222876127</v>
       </c>
     </row>
     <row r="383">
@@ -14771,37 +14771,37 @@
         <v>386.0</v>
       </c>
       <c r="B387" t="n">
-        <v>2.7040822397688675</v>
+        <v>2.7313962017867346</v>
       </c>
       <c r="C387" t="n">
-        <v>2.7040822397688675</v>
+        <v>2.7131868927182676</v>
       </c>
       <c r="D387" t="n">
-        <v>2.7040822397688675</v>
+        <v>2.7962263409174684</v>
       </c>
       <c r="E387" t="n">
-        <v>2.7040822397688675</v>
+        <v>2.8014758288306063</v>
       </c>
       <c r="F387" t="n">
-        <v>2.7040822397688675</v>
+        <v>2.3787238970441993</v>
       </c>
       <c r="G387" t="n">
-        <v>2.7040822397688675</v>
+        <v>2.749851579726158</v>
       </c>
       <c r="H387" t="n">
-        <v>2.7040822397688675</v>
+        <v>2.6790893916625627</v>
       </c>
       <c r="I387" t="n">
-        <v>2.7040822397688675</v>
+        <v>2.605796491986924</v>
       </c>
       <c r="J387" t="n">
-        <v>2.7040822397688675</v>
+        <v>2.6984679774030895</v>
       </c>
       <c r="K387" t="n">
-        <v>2.7040822397688675</v>
+        <v>2.7962263409174684</v>
       </c>
       <c r="L387" t="n">
-        <v>2.7040822397688675</v>
+        <v>2.4476535674976105</v>
       </c>
     </row>
     <row r="388">
@@ -14847,37 +14847,37 @@
         <v>388.0</v>
       </c>
       <c r="B389" t="n">
-        <v>3.358487411793721</v>
+        <v>3.3255610646192726</v>
       </c>
       <c r="C389" t="n">
-        <v>3.358487411793721</v>
+        <v>3.3033906562354214</v>
       </c>
       <c r="D389" t="n">
-        <v>3.358487411793721</v>
+        <v>3.4044938047197335</v>
       </c>
       <c r="E389" t="n">
-        <v>3.358487411793721</v>
+        <v>3.4108852219010637</v>
       </c>
       <c r="F389" t="n">
-        <v>3.358487411793721</v>
+        <v>2.8961714050546465</v>
       </c>
       <c r="G389" t="n">
-        <v>3.358487411793721</v>
+        <v>3.3480310696181927</v>
       </c>
       <c r="H389" t="n">
-        <v>3.358487411793721</v>
+        <v>3.2618758727567405</v>
       </c>
       <c r="I389" t="n">
-        <v>3.358487411793721</v>
+        <v>3.1726394546512644</v>
       </c>
       <c r="J389" t="n">
-        <v>3.358487411793721</v>
+        <v>3.2854699123852376</v>
       </c>
       <c r="K389" t="n">
-        <v>3.358487411793721</v>
+        <v>3.4044938047197335</v>
       </c>
       <c r="L389" t="n">
-        <v>3.358487411793721</v>
+        <v>2.980095453900783</v>
       </c>
     </row>
     <row r="390">
@@ -15037,37 +15037,37 @@
         <v>393.0</v>
       </c>
       <c r="B394" t="n">
-        <v>1.7165112667011455</v>
+        <v>1.6145403003624634</v>
       </c>
       <c r="C394" t="n">
-        <v>1.7165112667011455</v>
+        <v>1.657582497885375</v>
       </c>
       <c r="D394" t="n">
-        <v>1.7165112667011455</v>
+        <v>1.7950355920242216</v>
       </c>
       <c r="E394" t="n">
-        <v>1.7165112667011455</v>
+        <v>1.7614936380888344</v>
       </c>
       <c r="F394" t="n">
-        <v>1.7165112667011455</v>
+        <v>1.7488437731347402</v>
       </c>
       <c r="G394" t="n">
-        <v>1.7165112667011455</v>
+        <v>1.7009999678434256</v>
       </c>
       <c r="H394" t="n">
-        <v>1.7165112667011455</v>
+        <v>1.552772553352902</v>
       </c>
       <c r="I394" t="n">
-        <v>1.7165112667011455</v>
+        <v>1.7829883744544563</v>
       </c>
       <c r="J394" t="n">
-        <v>1.7165112667011455</v>
+        <v>1.7917338719655347</v>
       </c>
       <c r="K394" t="n">
-        <v>1.7165112667011455</v>
+        <v>1.7950355920242216</v>
       </c>
       <c r="L394" t="n">
-        <v>1.7165112667011455</v>
+        <v>1.7764850731819706</v>
       </c>
     </row>
     <row r="395">
@@ -15075,37 +15075,37 @@
         <v>394.0</v>
       </c>
       <c r="B395" t="n">
-        <v>7.756915957674215</v>
+        <v>7.680867762010742</v>
       </c>
       <c r="C395" t="n">
-        <v>7.756915957674215</v>
+        <v>7.176348702834859</v>
       </c>
       <c r="D395" t="n">
-        <v>7.756915957674215</v>
+        <v>7.930808392693975</v>
       </c>
       <c r="E395" t="n">
-        <v>7.756915957674215</v>
+        <v>7.784663270237222</v>
       </c>
       <c r="F395" t="n">
-        <v>7.756915957674215</v>
+        <v>7.639199404243152</v>
       </c>
       <c r="G395" t="n">
-        <v>7.756915957674215</v>
+        <v>7.915947410360875</v>
       </c>
       <c r="H395" t="n">
-        <v>7.756915957674215</v>
+        <v>7.376852041921368</v>
       </c>
       <c r="I395" t="n">
-        <v>7.756915957674215</v>
+        <v>7.584339801726553</v>
       </c>
       <c r="J395" t="n">
-        <v>7.756915957674215</v>
+        <v>6.734023278885322</v>
       </c>
       <c r="K395" t="n">
-        <v>7.756915957674215</v>
+        <v>7.930808392693975</v>
       </c>
       <c r="L395" t="n">
-        <v>7.756915957674215</v>
+        <v>7.188560297083083</v>
       </c>
     </row>
     <row r="396">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>4.9664242934306175</v>
+        <v>4.86807925791714</v>
       </c>
       <c r="C397" t="n">
-        <v>4.9664242934306175</v>
+        <v>4.548318673137194</v>
       </c>
       <c r="D397" t="n">
-        <v>4.9664242934306175</v>
+        <v>5.026489848704509</v>
       </c>
       <c r="E397" t="n">
-        <v>4.9664242934306175</v>
+        <v>4.933864111441297</v>
       </c>
       <c r="F397" t="n">
-        <v>4.9664242934306175</v>
+        <v>4.841670149669875</v>
       </c>
       <c r="G397" t="n">
-        <v>4.9664242934306175</v>
+        <v>5.017071063992988</v>
       </c>
       <c r="H397" t="n">
-        <v>4.9664242934306175</v>
+        <v>4.675396260773548</v>
       </c>
       <c r="I397" t="n">
-        <v>4.9664242934306175</v>
+        <v>4.806900524494252</v>
       </c>
       <c r="J397" t="n">
-        <v>4.9664242934306175</v>
+        <v>4.26797597120602</v>
       </c>
       <c r="K397" t="n">
-        <v>4.9664242934306175</v>
+        <v>5.026489848704509</v>
       </c>
       <c r="L397" t="n">
-        <v>4.9664242934306175</v>
+        <v>4.556058294558605</v>
       </c>
     </row>
     <row r="398">
@@ -15192,34 +15192,34 @@
         <v>5.4324139366540685</v>
       </c>
       <c r="C398" t="n">
-        <v>5.4324139366540685</v>
+        <v>5.0755849359088225</v>
       </c>
       <c r="D398" t="n">
-        <v>5.4324139366540685</v>
+        <v>5.609188359483639</v>
       </c>
       <c r="E398" t="n">
-        <v>5.4324139366540685</v>
+        <v>5.505824934333322</v>
       </c>
       <c r="F398" t="n">
-        <v>5.4324139366540685</v>
+        <v>5.402943338478469</v>
       </c>
       <c r="G398" t="n">
-        <v>5.4324139366540685</v>
+        <v>5.598677697141815</v>
       </c>
       <c r="H398" t="n">
-        <v>5.4324139366540685</v>
+        <v>5.217394060521858</v>
       </c>
       <c r="I398" t="n">
-        <v>5.4324139366540685</v>
+        <v>5.364143026000174</v>
       </c>
       <c r="J398" t="n">
-        <v>5.4324139366540685</v>
+        <v>4.762743357059555</v>
       </c>
       <c r="K398" t="n">
-        <v>5.4324139366540685</v>
+        <v>5.609188359483639</v>
       </c>
       <c r="L398" t="n">
-        <v>5.4324139366540685</v>
+        <v>5.084221777062491</v>
       </c>
     </row>
     <row r="399">
@@ -15265,37 +15265,37 @@
         <v>399.0</v>
       </c>
       <c r="B400" t="n">
-        <v>6.376356793700031</v>
+        <v>6.440120361637032</v>
       </c>
       <c r="C400" t="n">
-        <v>6.376356793700031</v>
+        <v>6.017099999028683</v>
       </c>
       <c r="D400" t="n">
-        <v>6.376356793700031</v>
+        <v>6.649686232934119</v>
       </c>
       <c r="E400" t="n">
-        <v>6.376356793700031</v>
+        <v>6.527149013436243</v>
       </c>
       <c r="F400" t="n">
-        <v>6.376356793700031</v>
+        <v>6.405183002004013</v>
       </c>
       <c r="G400" t="n">
-        <v>6.376356793700031</v>
+        <v>6.637225855033762</v>
       </c>
       <c r="H400" t="n">
-        <v>6.376356793700031</v>
+        <v>6.185214550227414</v>
       </c>
       <c r="I400" t="n">
-        <v>6.376356793700031</v>
+        <v>6.359185276988373</v>
       </c>
       <c r="J400" t="n">
-        <v>6.376356793700031</v>
+        <v>5.646226673577574</v>
       </c>
       <c r="K400" t="n">
-        <v>6.376356793700031</v>
+        <v>6.649686232934119</v>
       </c>
       <c r="L400" t="n">
-        <v>6.376356793700031</v>
+        <v>6.0273389641043496</v>
       </c>
     </row>
     <row r="401">
@@ -15379,37 +15379,37 @@
         <v>402.0</v>
       </c>
       <c r="B403" t="n">
-        <v>2.427788338895678</v>
+        <v>2.4528170846574886</v>
       </c>
       <c r="C403" t="n">
-        <v>2.427788338895678</v>
+        <v>2.291703392009046</v>
       </c>
       <c r="D403" t="n">
-        <v>2.427788338895678</v>
+        <v>2.532633411156698</v>
       </c>
       <c r="E403" t="n">
-        <v>2.427788338895678</v>
+        <v>2.4859632608158413</v>
       </c>
       <c r="F403" t="n">
-        <v>2.427788338895678</v>
+        <v>2.4395106636919484</v>
       </c>
       <c r="G403" t="n">
-        <v>2.427788338895678</v>
+        <v>2.527887688083362</v>
       </c>
       <c r="H403" t="n">
-        <v>2.427788338895678</v>
+        <v>2.3557323573395883</v>
       </c>
       <c r="I403" t="n">
-        <v>2.427788338895678</v>
+        <v>2.4219917355604466</v>
       </c>
       <c r="J403" t="n">
-        <v>2.427788338895678</v>
+        <v>2.150450685874998</v>
       </c>
       <c r="K403" t="n">
-        <v>2.427788338895678</v>
+        <v>2.532633411156698</v>
       </c>
       <c r="L403" t="n">
-        <v>2.427788338895678</v>
+        <v>2.2956030564650725</v>
       </c>
     </row>
     <row r="404">
@@ -15496,34 +15496,34 @@
         <v>3.679945438227139</v>
       </c>
       <c r="C406" t="n">
-        <v>3.679945438227139</v>
+        <v>3.612257908844202</v>
       </c>
       <c r="D406" t="n">
-        <v>3.679945438227139</v>
+        <v>3.5858750139587223</v>
       </c>
       <c r="E406" t="n">
-        <v>3.679945438227139</v>
+        <v>3.22120975983577</v>
       </c>
       <c r="F406" t="n">
-        <v>3.679945438227139</v>
+        <v>3.2895548002854342</v>
       </c>
       <c r="G406" t="n">
-        <v>3.679945438227139</v>
+        <v>3.5706622109998025</v>
       </c>
       <c r="H406" t="n">
-        <v>3.679945438227139</v>
+        <v>3.14890039894897</v>
       </c>
       <c r="I406" t="n">
-        <v>3.679945438227139</v>
+        <v>3.4461819421090647</v>
       </c>
       <c r="J406" t="n">
-        <v>3.679945438227139</v>
+        <v>3.21593485135181</v>
       </c>
       <c r="K406" t="n">
-        <v>3.679945438227139</v>
+        <v>3.5858750139587223</v>
       </c>
       <c r="L406" t="n">
-        <v>3.679945438227139</v>
+        <v>3.4293321586010297</v>
       </c>
     </row>
     <row r="407">
@@ -15531,37 +15531,37 @@
         <v>406.0</v>
       </c>
       <c r="B407" t="n">
-        <v>6.687624566349696</v>
+        <v>6.486995829359205</v>
       </c>
       <c r="C407" t="n">
-        <v>6.687624566349696</v>
+        <v>6.367676473086825</v>
       </c>
       <c r="D407" t="n">
-        <v>6.687624566349696</v>
+        <v>6.321168791937351</v>
       </c>
       <c r="E407" t="n">
-        <v>6.687624566349696</v>
+        <v>5.678338070037448</v>
       </c>
       <c r="F407" t="n">
-        <v>6.687624566349696</v>
+        <v>5.798816484676104</v>
       </c>
       <c r="G407" t="n">
-        <v>6.687624566349696</v>
+        <v>6.294351712444206</v>
       </c>
       <c r="H407" t="n">
-        <v>6.687624566349696</v>
+        <v>5.550871364247842</v>
       </c>
       <c r="I407" t="n">
-        <v>6.687624566349696</v>
+        <v>6.074918299996451</v>
       </c>
       <c r="J407" t="n">
-        <v>6.687624566349696</v>
+        <v>5.66903947854741</v>
       </c>
       <c r="K407" t="n">
-        <v>6.687624566349696</v>
+        <v>6.321168791937351</v>
       </c>
       <c r="L407" t="n">
-        <v>6.687624566349696</v>
+        <v>6.045215556524557</v>
       </c>
     </row>
     <row r="408">
@@ -15648,34 +15648,34 @@
         <v>3.320245344577528</v>
       </c>
       <c r="C410" t="n">
-        <v>3.320245344577528</v>
+        <v>3.2591740031426615</v>
       </c>
       <c r="D410" t="n">
-        <v>3.320245344577528</v>
+        <v>3.235369931753442</v>
       </c>
       <c r="E410" t="n">
-        <v>3.320245344577528</v>
+        <v>2.906349262111605</v>
       </c>
       <c r="F410" t="n">
-        <v>3.320245344577528</v>
+        <v>2.9680138455102343</v>
       </c>
       <c r="G410" t="n">
-        <v>3.320245344577528</v>
+        <v>3.221644120039597</v>
       </c>
       <c r="H410" t="n">
-        <v>3.320245344577528</v>
+        <v>2.8411078548994815</v>
       </c>
       <c r="I410" t="n">
-        <v>3.320245344577528</v>
+        <v>3.1093313044791175</v>
       </c>
       <c r="J410" t="n">
-        <v>3.320245344577528</v>
+        <v>2.9015899550428084</v>
       </c>
       <c r="K410" t="n">
-        <v>3.320245344577528</v>
+        <v>3.235369931753442</v>
       </c>
       <c r="L410" t="n">
-        <v>3.320245344577528</v>
+        <v>3.0941285205822333</v>
       </c>
     </row>
     <row r="411">
@@ -15683,37 +15683,37 @@
         <v>410.0</v>
       </c>
       <c r="B411" t="n">
-        <v>1.0026783941663866</v>
+        <v>0.9525444744580672</v>
       </c>
       <c r="C411" t="n">
-        <v>1.0026783941663866</v>
+        <v>0.9350237304183141</v>
       </c>
       <c r="D411" t="n">
-        <v>1.0026783941663866</v>
+        <v>0.9281945854852635</v>
       </c>
       <c r="E411" t="n">
-        <v>1.0026783941663866</v>
+        <v>0.8338019161719351</v>
       </c>
       <c r="F411" t="n">
-        <v>1.0026783941663866</v>
+        <v>0.8514928552713759</v>
       </c>
       <c r="G411" t="n">
-        <v>1.0026783941663866</v>
+        <v>0.92425679030792</v>
       </c>
       <c r="H411" t="n">
-        <v>1.0026783941663866</v>
+        <v>0.8150848228561446</v>
       </c>
       <c r="I411" t="n">
-        <v>1.0026783941663866</v>
+        <v>0.892035390751504</v>
       </c>
       <c r="J411" t="n">
-        <v>1.0026783941663866</v>
+        <v>0.8324365195882052</v>
       </c>
       <c r="K411" t="n">
-        <v>1.0026783941663866</v>
+        <v>0.9281945854852635</v>
       </c>
       <c r="L411" t="n">
-        <v>1.0026783941663866</v>
+        <v>0.8876738673414922</v>
       </c>
     </row>
     <row r="412">
@@ -15797,37 +15797,37 @@
         <v>413.0</v>
       </c>
       <c r="B414" t="n">
-        <v>3.150039437261367</v>
+        <v>3.1185390428887536</v>
       </c>
       <c r="C414" t="n">
-        <v>3.150039437261367</v>
+        <v>3.0611778111420507</v>
       </c>
       <c r="D414" t="n">
-        <v>3.150039437261367</v>
+        <v>3.0388198471053784</v>
       </c>
       <c r="E414" t="n">
-        <v>3.150039437261367</v>
+        <v>2.729787321580965</v>
       </c>
       <c r="F414" t="n">
-        <v>3.150039437261367</v>
+        <v>2.7877057555925226</v>
       </c>
       <c r="G414" t="n">
-        <v>3.150039437261367</v>
+        <v>3.0259278842283366</v>
       </c>
       <c r="H414" t="n">
-        <v>3.150039437261367</v>
+        <v>2.668509357307545</v>
       </c>
       <c r="I414" t="n">
-        <v>3.150039437261367</v>
+        <v>2.920438119469195</v>
       </c>
       <c r="J414" t="n">
-        <v>3.150039437261367</v>
+        <v>2.725317144419094</v>
       </c>
       <c r="K414" t="n">
-        <v>3.150039437261367</v>
+        <v>3.0388198471053784</v>
       </c>
       <c r="L414" t="n">
-        <v>3.150039437261367</v>
+        <v>2.9061589110906745</v>
       </c>
     </row>
     <row r="415">
@@ -15876,34 +15876,34 @@
         <v>6.688984150008942</v>
       </c>
       <c r="C416" t="n">
-        <v>6.688984150008942</v>
+        <v>6.565949496697926</v>
       </c>
       <c r="D416" t="n">
-        <v>6.688984150008942</v>
+        <v>6.517993686297285</v>
       </c>
       <c r="E416" t="n">
-        <v>6.688984150008942</v>
+        <v>5.8551468735297165</v>
       </c>
       <c r="F416" t="n">
-        <v>6.688984150008942</v>
+        <v>5.97937667529541</v>
       </c>
       <c r="G416" t="n">
-        <v>6.688984150008942</v>
+        <v>6.4903415921079635</v>
       </c>
       <c r="H416" t="n">
-        <v>6.688984150008942</v>
+        <v>5.723711183248913</v>
       </c>
       <c r="I416" t="n">
-        <v>6.688984150008942</v>
+        <v>6.264075589098925</v>
       </c>
       <c r="J416" t="n">
-        <v>6.688984150008942</v>
+        <v>5.84555874788105</v>
       </c>
       <c r="K416" t="n">
-        <v>6.688984150008942</v>
+        <v>6.517993686297285</v>
       </c>
       <c r="L416" t="n">
-        <v>6.688984150008942</v>
+        <v>6.233447978796467</v>
       </c>
     </row>
     <row r="417">
@@ -16025,37 +16025,37 @@
         <v>419.0</v>
       </c>
       <c r="B420" t="n">
-        <v>0.7796980775712209</v>
+        <v>0.7876541804035803</v>
       </c>
       <c r="C420" t="n">
-        <v>0.7796980775712209</v>
+        <v>0.692512627490938</v>
       </c>
       <c r="D420" t="n">
-        <v>0.7796980775712209</v>
+        <v>0.7810073097376717</v>
       </c>
       <c r="E420" t="n">
-        <v>0.7796980775712209</v>
+        <v>0.7541857546477622</v>
       </c>
       <c r="F420" t="n">
-        <v>0.7796980775712209</v>
+        <v>0.7158514508274073</v>
       </c>
       <c r="G420" t="n">
-        <v>0.7796980775712209</v>
+        <v>0.794415160436187</v>
       </c>
       <c r="H420" t="n">
-        <v>0.7796980775712209</v>
+        <v>0.7905376003157568</v>
       </c>
       <c r="I420" t="n">
-        <v>0.7796980775712209</v>
+        <v>0.8108204798767833</v>
       </c>
       <c r="J420" t="n">
-        <v>0.7796980775712209</v>
+        <v>0.8093011405824606</v>
       </c>
       <c r="K420" t="n">
-        <v>0.7796980775712209</v>
+        <v>0.7810073097376717</v>
       </c>
       <c r="L420" t="n">
-        <v>0.7796980775712209</v>
+        <v>0.7072549816096649</v>
       </c>
     </row>
     <row r="421">
@@ -16139,37 +16139,37 @@
         <v>422.0</v>
       </c>
       <c r="B423" t="n">
-        <v>1.1155003610049559</v>
+        <v>1.1270003647266564</v>
       </c>
       <c r="C423" t="n">
-        <v>1.1155003610049559</v>
+        <v>0.9908688396222403</v>
       </c>
       <c r="D423" t="n">
-        <v>1.1155003610049559</v>
+        <v>1.1174898132039925</v>
       </c>
       <c r="E423" t="n">
-        <v>1.1155003610049559</v>
+        <v>1.0791126889267166</v>
       </c>
       <c r="F423" t="n">
-        <v>1.1155003610049559</v>
+        <v>1.0242627618115632</v>
       </c>
       <c r="G423" t="n">
-        <v>1.1155003610049559</v>
+        <v>1.1366741875187265</v>
       </c>
       <c r="H423" t="n">
-        <v>1.1155003610049559</v>
+        <v>1.1311260525901017</v>
       </c>
       <c r="I423" t="n">
-        <v>1.1155003610049559</v>
+        <v>1.1601474343483644</v>
       </c>
       <c r="J423" t="n">
-        <v>1.1155003610049559</v>
+        <v>1.157973515918873</v>
       </c>
       <c r="K423" t="n">
-        <v>1.1155003610049559</v>
+        <v>1.1174898132039925</v>
       </c>
       <c r="L423" t="n">
-        <v>1.1155003610049559</v>
+        <v>1.0119626633866514</v>
       </c>
     </row>
     <row r="424">
@@ -16215,37 +16215,37 @@
         <v>424.0</v>
       </c>
       <c r="B425" t="n">
-        <v>5.619580289175691</v>
+        <v>5.788167697850962</v>
       </c>
       <c r="C425" t="n">
-        <v>5.619580289175691</v>
+        <v>6.211163086660454</v>
       </c>
       <c r="D425" t="n">
-        <v>5.619580289175691</v>
+        <v>5.493962486833402</v>
       </c>
       <c r="E425" t="n">
-        <v>5.619580289175691</v>
+        <v>5.283779015482105</v>
       </c>
       <c r="F425" t="n">
-        <v>5.619580289175691</v>
+        <v>6.067158089218167</v>
       </c>
       <c r="G425" t="n">
-        <v>5.619580289175691</v>
+        <v>6.222823596781839</v>
       </c>
       <c r="H425" t="n">
-        <v>5.619580289175691</v>
+        <v>6.096917293893189</v>
       </c>
       <c r="I425" t="n">
-        <v>5.619580289175691</v>
+        <v>6.108152396628239</v>
       </c>
       <c r="J425" t="n">
-        <v>5.619580289175691</v>
+        <v>5.950970739335176</v>
       </c>
       <c r="K425" t="n">
-        <v>5.619580289175691</v>
+        <v>5.493962486833402</v>
       </c>
       <c r="L425" t="n">
-        <v>5.619580289175691</v>
+        <v>5.552245730285326</v>
       </c>
     </row>
     <row r="426">
@@ -16329,37 +16329,37 @@
         <v>427.0</v>
       </c>
       <c r="B428" t="n">
-        <v>2.2114266227960013</v>
+        <v>2.189312356568041</v>
       </c>
       <c r="C428" t="n">
-        <v>2.2114266227960013</v>
+        <v>1.924863080988759</v>
       </c>
       <c r="D428" t="n">
-        <v>2.2114266227960013</v>
+        <v>2.1708371469602827</v>
       </c>
       <c r="E428" t="n">
-        <v>2.2114266227960013</v>
+        <v>2.096285696029594</v>
       </c>
       <c r="F428" t="n">
-        <v>2.2114266227960013</v>
+        <v>1.9897341571406184</v>
       </c>
       <c r="G428" t="n">
-        <v>2.2114266227960013</v>
+        <v>2.2081047371535303</v>
       </c>
       <c r="H428" t="n">
-        <v>2.2114266227960013</v>
+        <v>2.1973269231125463</v>
       </c>
       <c r="I428" t="n">
-        <v>2.2114266227960013</v>
+        <v>2.253703896604878</v>
       </c>
       <c r="J428" t="n">
-        <v>2.2114266227960013</v>
+        <v>2.2494808398705435</v>
       </c>
       <c r="K428" t="n">
-        <v>2.2114266227960013</v>
+        <v>2.1708371469602827</v>
       </c>
       <c r="L428" t="n">
-        <v>2.2114266227960013</v>
+        <v>1.9658399701363458</v>
       </c>
     </row>
     <row r="429">
@@ -16367,37 +16367,37 @@
         <v>428.0</v>
       </c>
       <c r="B429" t="n">
-        <v>8.660362178270125</v>
+        <v>8.574616018089232</v>
       </c>
       <c r="C429" t="n">
-        <v>8.660362178270125</v>
+        <v>8.803207596912543</v>
       </c>
       <c r="D429" t="n">
-        <v>8.660362178270125</v>
+        <v>9.533203313014695</v>
       </c>
       <c r="E429" t="n">
-        <v>8.660362178270125</v>
+        <v>9.355066306816823</v>
       </c>
       <c r="F429" t="n">
-        <v>8.660362178270125</v>
+        <v>9.287884499934895</v>
       </c>
       <c r="G429" t="n">
-        <v>8.660362178270125</v>
+        <v>9.033792199405047</v>
       </c>
       <c r="H429" t="n">
-        <v>8.660362178270125</v>
+        <v>8.246575452740341</v>
       </c>
       <c r="I429" t="n">
-        <v>8.660362178270125</v>
+        <v>9.469222088932568</v>
       </c>
       <c r="J429" t="n">
-        <v>8.660362178270125</v>
+        <v>9.515668302153642</v>
       </c>
       <c r="K429" t="n">
-        <v>8.660362178270125</v>
+        <v>9.533203313014695</v>
       </c>
       <c r="L429" t="n">
-        <v>8.660362178270125</v>
+        <v>9.4346838917448</v>
       </c>
     </row>
     <row r="430">
@@ -17016,34 +17016,34 @@
         <v>2.0131735635580466</v>
       </c>
       <c r="C446" t="n">
-        <v>2.0131735635580466</v>
+        <v>1.8786689541133763</v>
       </c>
       <c r="D446" t="n">
-        <v>2.0131735635580466</v>
+        <v>2.0033303401647706</v>
       </c>
       <c r="E446" t="n">
-        <v>2.0131735635580466</v>
+        <v>2.110191002390341</v>
       </c>
       <c r="F446" t="n">
-        <v>2.0131735635580466</v>
+        <v>2.1497323693365367</v>
       </c>
       <c r="G446" t="n">
-        <v>2.0131735635580466</v>
+        <v>2.0596777525933225</v>
       </c>
       <c r="H446" t="n">
-        <v>2.0131735635580466</v>
+        <v>2.114079559764439</v>
       </c>
       <c r="I446" t="n">
-        <v>2.0131735635580466</v>
+        <v>1.9015036039275177</v>
       </c>
       <c r="J446" t="n">
-        <v>2.0131735635580466</v>
+        <v>2.099891107719567</v>
       </c>
       <c r="K446" t="n">
-        <v>2.0131735635580466</v>
+        <v>2.0033303401647706</v>
       </c>
       <c r="L446" t="n">
-        <v>2.0131735635580466</v>
+        <v>2.094778773028744</v>
       </c>
     </row>
     <row r="447">
@@ -17051,37 +17051,37 @@
         <v>446.0</v>
       </c>
       <c r="B447" t="n">
-        <v>1.024713074471306</v>
+        <v>1.0352771267854433</v>
       </c>
       <c r="C447" t="n">
-        <v>1.024713074471306</v>
+        <v>0.9661079562151872</v>
       </c>
       <c r="D447" t="n">
-        <v>1.024713074471306</v>
+        <v>1.030215236336769</v>
       </c>
       <c r="E447" t="n">
-        <v>1.024713074471306</v>
+        <v>1.0851684710493052</v>
       </c>
       <c r="F447" t="n">
-        <v>1.024713074471306</v>
+        <v>1.1055026704955149</v>
       </c>
       <c r="G447" t="n">
-        <v>1.024713074471306</v>
+        <v>1.0591919665585412</v>
       </c>
       <c r="H447" t="n">
-        <v>1.024713074471306</v>
+        <v>1.0871681667429451</v>
       </c>
       <c r="I447" t="n">
-        <v>1.024713074471306</v>
+        <v>0.9778507046193312</v>
       </c>
       <c r="J447" t="n">
-        <v>1.024713074471306</v>
+        <v>1.0798717368014612</v>
       </c>
       <c r="K447" t="n">
-        <v>1.024713074471306</v>
+        <v>1.030215236336769</v>
       </c>
       <c r="L447" t="n">
-        <v>1.024713074471306</v>
+        <v>1.077242712028989</v>
       </c>
     </row>
     <row r="448">
@@ -17127,37 +17127,37 @@
         <v>448.0</v>
       </c>
       <c r="B449" t="n">
-        <v>1.6373417197061948</v>
+        <v>1.6209683025091328</v>
       </c>
       <c r="C449" t="n">
-        <v>1.6373417197061948</v>
+        <v>1.512667800059735</v>
       </c>
       <c r="D449" t="n">
-        <v>1.6373417197061948</v>
+        <v>1.6130427299684238</v>
       </c>
       <c r="E449" t="n">
-        <v>1.6373417197061948</v>
+        <v>1.6990848623450496</v>
       </c>
       <c r="F449" t="n">
-        <v>1.6373417197061948</v>
+        <v>1.7309228039999083</v>
       </c>
       <c r="G449" t="n">
-        <v>1.6373417197061948</v>
+        <v>1.6584125734476236</v>
       </c>
       <c r="H449" t="n">
-        <v>1.6373417197061948</v>
+        <v>1.7022158533137373</v>
       </c>
       <c r="I449" t="n">
-        <v>1.6373417197061948</v>
+        <v>1.5310538171511778</v>
       </c>
       <c r="J449" t="n">
-        <v>1.6373417197061948</v>
+        <v>1.6907915869500558</v>
       </c>
       <c r="K449" t="n">
-        <v>1.6373417197061948</v>
+        <v>1.6130427299684238</v>
       </c>
       <c r="L449" t="n">
-        <v>1.6373417197061948</v>
+        <v>1.6866752342243647</v>
       </c>
     </row>
     <row r="450">
@@ -17165,37 +17165,37 @@
         <v>449.0</v>
       </c>
       <c r="B450" t="n">
-        <v>2.9951149761124705</v>
+        <v>3.0550172756347194</v>
       </c>
       <c r="C450" t="n">
-        <v>2.9951149761124705</v>
+        <v>2.8509047674316377</v>
       </c>
       <c r="D450" t="n">
-        <v>2.9951149761124705</v>
+        <v>3.04008005508964</v>
       </c>
       <c r="E450" t="n">
-        <v>2.9951149761124705</v>
+        <v>3.2022425109724324</v>
       </c>
       <c r="F450" t="n">
-        <v>2.9951149761124705</v>
+        <v>3.2622470537051207</v>
       </c>
       <c r="G450" t="n">
-        <v>2.9951149761124705</v>
+        <v>3.125587992170981</v>
       </c>
       <c r="H450" t="n">
-        <v>2.9951149761124705</v>
+        <v>3.208143447767057</v>
       </c>
       <c r="I450" t="n">
-        <v>2.9951149761124705</v>
+        <v>2.885556647889465</v>
       </c>
       <c r="J450" t="n">
-        <v>2.9951149761124705</v>
+        <v>3.1866122857767363</v>
       </c>
       <c r="K450" t="n">
-        <v>2.9951149761124705</v>
+        <v>3.04008005508964</v>
       </c>
       <c r="L450" t="n">
-        <v>2.9951149761124705</v>
+        <v>3.178854250860121</v>
       </c>
     </row>
     <row r="451">
@@ -17244,34 +17244,34 @@
         <v>2.579745528036672</v>
       </c>
       <c r="C452" t="n">
-        <v>2.579745528036672</v>
+        <v>2.4073869837977204</v>
       </c>
       <c r="D452" t="n">
-        <v>2.579745528036672</v>
+        <v>2.5671321041422166</v>
       </c>
       <c r="E452" t="n">
-        <v>2.579745528036672</v>
+        <v>2.7040668029131627</v>
       </c>
       <c r="F452" t="n">
-        <v>2.579745528036672</v>
+        <v>2.7547363857044345</v>
       </c>
       <c r="G452" t="n">
-        <v>2.579745528036672</v>
+        <v>2.6393374955999125</v>
       </c>
       <c r="H452" t="n">
-        <v>2.579745528036672</v>
+        <v>2.7090497257360777</v>
       </c>
       <c r="I452" t="n">
-        <v>2.579745528036672</v>
+        <v>2.436648040473928</v>
       </c>
       <c r="J452" t="n">
-        <v>2.579745528036672</v>
+        <v>2.690868185716333</v>
       </c>
       <c r="K452" t="n">
-        <v>2.579745528036672</v>
+        <v>2.5671321041422166</v>
       </c>
       <c r="L452" t="n">
-        <v>2.579745528036672</v>
+        <v>2.68431707517365</v>
       </c>
     </row>
     <row r="453">
@@ -17279,37 +17279,37 @@
         <v>452.0</v>
       </c>
       <c r="B453" t="n">
-        <v>1.2644905007267124</v>
+        <v>1.277662276775949</v>
       </c>
       <c r="C453" t="n">
-        <v>1.2644905007267124</v>
+        <v>1.1922988145038684</v>
       </c>
       <c r="D453" t="n">
-        <v>1.2644905007267124</v>
+        <v>1.2714152668612946</v>
       </c>
       <c r="E453" t="n">
-        <v>1.2644905007267124</v>
+        <v>1.3392344750350818</v>
       </c>
       <c r="F453" t="n">
-        <v>1.2644905007267124</v>
+        <v>1.3643294364600769</v>
       </c>
       <c r="G453" t="n">
-        <v>1.2644905007267124</v>
+        <v>1.3071761990318211</v>
       </c>
       <c r="H453" t="n">
-        <v>1.2644905007267124</v>
+        <v>1.34170235120726</v>
       </c>
       <c r="I453" t="n">
-        <v>1.2644905007267124</v>
+        <v>1.206790844003478</v>
       </c>
       <c r="J453" t="n">
-        <v>1.2644905007267124</v>
+        <v>1.3326976383142797</v>
       </c>
       <c r="K453" t="n">
-        <v>1.2644905007267124</v>
+        <v>1.2714152668612946</v>
       </c>
       <c r="L453" t="n">
-        <v>1.2644905007267124</v>
+        <v>1.3294530908500397</v>
       </c>
     </row>
     <row r="454">
@@ -17393,37 +17393,37 @@
         <v>455.0</v>
       </c>
       <c r="B456" t="n">
-        <v>5.191490652560664</v>
+        <v>5.1400897550105595</v>
       </c>
       <c r="C456" t="n">
-        <v>5.191490652560664</v>
+        <v>5.237966153799815</v>
       </c>
       <c r="D456" t="n">
-        <v>5.191490652560664</v>
+        <v>5.168126606457365</v>
       </c>
       <c r="E456" t="n">
-        <v>5.191490652560664</v>
+        <v>5.190145404956027</v>
       </c>
       <c r="F456" t="n">
-        <v>5.191490652560664</v>
+        <v>4.557674451186917</v>
       </c>
       <c r="G456" t="n">
-        <v>5.191490652560664</v>
+        <v>4.828657362358683</v>
       </c>
       <c r="H456" t="n">
-        <v>5.191490652560664</v>
+        <v>4.76125566691294</v>
       </c>
       <c r="I456" t="n">
-        <v>5.191490652560664</v>
+        <v>4.654699181206229</v>
       </c>
       <c r="J456" t="n">
-        <v>5.191490652560664</v>
+        <v>4.662334010061952</v>
       </c>
       <c r="K456" t="n">
-        <v>5.191490652560664</v>
+        <v>5.168126606457365</v>
       </c>
       <c r="L456" t="n">
-        <v>5.191490652560664</v>
+        <v>5.3363009408545246</v>
       </c>
     </row>
     <row r="457">
@@ -17469,37 +17469,37 @@
         <v>457.0</v>
       </c>
       <c r="B458" t="n">
-        <v>0.3702158253936265</v>
+        <v>0.37411283408198054</v>
       </c>
       <c r="C458" t="n">
-        <v>0.3702158253936265</v>
+        <v>0.38123660403270804</v>
       </c>
       <c r="D458" t="n">
-        <v>0.3702158253936265</v>
+        <v>0.3761534494123404</v>
       </c>
       <c r="E458" t="n">
-        <v>0.3702158253936265</v>
+        <v>0.3777560508263301</v>
       </c>
       <c r="F458" t="n">
-        <v>0.3702158253936265</v>
+        <v>0.33172271050217683</v>
       </c>
       <c r="G458" t="n">
-        <v>0.3702158253936265</v>
+        <v>0.35144574837081166</v>
       </c>
       <c r="H458" t="n">
-        <v>0.3702158253936265</v>
+        <v>0.3465400287225201</v>
       </c>
       <c r="I458" t="n">
-        <v>0.3702158253936265</v>
+        <v>0.33878449316622083</v>
       </c>
       <c r="J458" t="n">
-        <v>0.3702158253936265</v>
+        <v>0.3393401814123572</v>
       </c>
       <c r="K458" t="n">
-        <v>0.3702158253936265</v>
+        <v>0.3761534494123404</v>
       </c>
       <c r="L458" t="n">
-        <v>0.3702158253936265</v>
+        <v>0.3883937370065096</v>
       </c>
     </row>
     <row r="459">
@@ -17545,37 +17545,37 @@
         <v>459.0</v>
       </c>
       <c r="B460" t="n">
-        <v>1.5008486412047268</v>
+        <v>1.516008728489623</v>
       </c>
       <c r="C460" t="n">
-        <v>1.5008486412047268</v>
+        <v>1.6525694662276402</v>
       </c>
       <c r="D460" t="n">
-        <v>1.5008486412047268</v>
+        <v>1.588191175215363</v>
       </c>
       <c r="E460" t="n">
-        <v>1.5008486412047268</v>
+        <v>1.6455585655220146</v>
       </c>
       <c r="F460" t="n">
-        <v>1.5008486412047268</v>
+        <v>1.4845115551147707</v>
       </c>
       <c r="G460" t="n">
-        <v>1.5008486412047268</v>
+        <v>1.6505602637365968</v>
       </c>
       <c r="H460" t="n">
-        <v>1.5008486412047268</v>
+        <v>1.5400860081387249</v>
       </c>
       <c r="I460" t="n">
-        <v>1.5008486412047268</v>
+        <v>1.451187403698785</v>
       </c>
       <c r="J460" t="n">
-        <v>1.5008486412047268</v>
+        <v>1.5374697811528582</v>
       </c>
       <c r="K460" t="n">
-        <v>1.5008486412047268</v>
+        <v>1.588191175215363</v>
       </c>
       <c r="L460" t="n">
-        <v>1.5008486412047268</v>
+        <v>1.5000948244425012</v>
       </c>
     </row>
     <row r="461">
@@ -17586,34 +17586,34 @@
         <v>0.3823263630787175</v>
       </c>
       <c r="C461" t="n">
-        <v>0.3823263630787175</v>
+        <v>0.38960653314653787</v>
       </c>
       <c r="D461" t="n">
-        <v>0.3823263630787175</v>
+        <v>0.3844117794735162</v>
       </c>
       <c r="E461" t="n">
-        <v>0.3823263630787175</v>
+        <v>0.38604956549488867</v>
       </c>
       <c r="F461" t="n">
-        <v>0.3823263630787175</v>
+        <v>0.3390055777373296</v>
       </c>
       <c r="G461" t="n">
-        <v>0.3823263630787175</v>
+        <v>0.3591616286669445</v>
       </c>
       <c r="H461" t="n">
-        <v>0.3823263630787175</v>
+        <v>0.3541482054947149</v>
       </c>
       <c r="I461" t="n">
-        <v>0.3823263630787175</v>
+        <v>0.34622239960718465</v>
       </c>
       <c r="J461" t="n">
-        <v>0.3823263630787175</v>
+        <v>0.34679028781308446</v>
       </c>
       <c r="K461" t="n">
-        <v>0.3823263630787175</v>
+        <v>0.3844117794735162</v>
       </c>
       <c r="L461" t="n">
-        <v>0.3823263630787175</v>
+        <v>0.39692079871205627</v>
       </c>
     </row>
     <row r="462">
@@ -17776,34 +17776,34 @@
         <v>1.5623444962118271</v>
       </c>
       <c r="C466" t="n">
-        <v>1.5623444962118271</v>
+        <v>1.5920942983059179</v>
       </c>
       <c r="D466" t="n">
-        <v>1.5623444962118271</v>
+        <v>1.5708663747464047</v>
       </c>
       <c r="E466" t="n">
-        <v>1.5623444962118271</v>
+        <v>1.5775590494441658</v>
       </c>
       <c r="F466" t="n">
-        <v>1.5623444962118271</v>
+        <v>1.3853177539158579</v>
       </c>
       <c r="G466" t="n">
-        <v>1.5623444962118271</v>
+        <v>1.4676837591833667</v>
       </c>
       <c r="H466" t="n">
-        <v>1.5623444962118271</v>
+        <v>1.4471968274498592</v>
       </c>
       <c r="I466" t="n">
-        <v>1.5623444962118271</v>
+        <v>1.4148086889319913</v>
       </c>
       <c r="J466" t="n">
-        <v>1.5623444962118271</v>
+        <v>1.417129316277191</v>
       </c>
       <c r="K466" t="n">
-        <v>1.5623444962118271</v>
+        <v>1.5708663747464047</v>
       </c>
       <c r="L466" t="n">
-        <v>1.5623444962118271</v>
+        <v>1.6219834287809893</v>
       </c>
     </row>
     <row r="467">
@@ -17852,34 +17852,34 @@
         <v>2.9467590578352754</v>
       </c>
       <c r="C468" t="n">
-        <v>2.9467590578352754</v>
+        <v>3.0239442495409032</v>
       </c>
       <c r="D468" t="n">
-        <v>2.9467590578352754</v>
+        <v>3.1852459972160116</v>
       </c>
       <c r="E468" t="n">
-        <v>2.9467590578352754</v>
+        <v>2.870241004838468</v>
       </c>
       <c r="F468" t="n">
-        <v>2.9467590578352754</v>
+        <v>3.2510239187407195</v>
       </c>
       <c r="G468" t="n">
-        <v>2.9467590578352754</v>
+        <v>3.1696987324259203</v>
       </c>
       <c r="H468" t="n">
-        <v>2.9467590578352754</v>
+        <v>3.2449320543772577</v>
       </c>
       <c r="I468" t="n">
-        <v>2.9467590578352754</v>
+        <v>3.131486571545854</v>
       </c>
       <c r="J468" t="n">
-        <v>2.9467590578352754</v>
+        <v>3.191115613661518</v>
       </c>
       <c r="K468" t="n">
-        <v>2.9467590578352754</v>
+        <v>3.1852459972160116</v>
       </c>
       <c r="L468" t="n">
-        <v>2.9467590578352754</v>
+        <v>2.776662864195478</v>
       </c>
     </row>
     <row r="469">
@@ -17963,37 +17963,37 @@
         <v>470.0</v>
       </c>
       <c r="B471" t="n">
-        <v>1.9309870539630491</v>
+        <v>1.950894136993596</v>
       </c>
       <c r="C471" t="n">
-        <v>1.9309870539630491</v>
+        <v>2.1559943970970004</v>
       </c>
       <c r="D471" t="n">
-        <v>1.9309870539630491</v>
+        <v>2.1020616514697417</v>
       </c>
       <c r="E471" t="n">
-        <v>1.9309870539630491</v>
+        <v>2.151954431300444</v>
       </c>
       <c r="F471" t="n">
-        <v>1.9309870539630491</v>
+        <v>2.112372192584002</v>
       </c>
       <c r="G471" t="n">
-        <v>1.9309870539630491</v>
+        <v>1.9034690852557006</v>
       </c>
       <c r="H471" t="n">
-        <v>1.9309870539630491</v>
+        <v>2.0767203415262876</v>
       </c>
       <c r="I471" t="n">
-        <v>1.9309870539630491</v>
+        <v>1.8306477398410332</v>
       </c>
       <c r="J471" t="n">
-        <v>1.9309870539630491</v>
+        <v>2.0054010742773136</v>
       </c>
       <c r="K471" t="n">
-        <v>1.9309870539630491</v>
+        <v>2.1020616514697417</v>
       </c>
       <c r="L471" t="n">
-        <v>1.9309870539630491</v>
+        <v>2.116264769349332</v>
       </c>
     </row>
     <row r="472">
@@ -18039,37 +18039,37 @@
         <v>472.0</v>
       </c>
       <c r="B473" t="n">
-        <v>4.375515329441653</v>
+        <v>4.3317601761472355</v>
       </c>
       <c r="C473" t="n">
-        <v>4.375515329441653</v>
+        <v>4.44522304605162</v>
       </c>
       <c r="D473" t="n">
-        <v>4.375515329441653</v>
+        <v>4.6823379486304795</v>
       </c>
       <c r="E473" t="n">
-        <v>4.375515329441653</v>
+        <v>4.219278005660115</v>
       </c>
       <c r="F473" t="n">
-        <v>4.375515329441653</v>
+        <v>4.7790320370639545</v>
       </c>
       <c r="G473" t="n">
-        <v>4.375515329441653</v>
+        <v>4.659483340858371</v>
       </c>
       <c r="H473" t="n">
-        <v>4.375515329441653</v>
+        <v>4.77007694608766</v>
       </c>
       <c r="I473" t="n">
-        <v>4.375515329441653</v>
+        <v>4.603311148461209</v>
       </c>
       <c r="J473" t="n">
-        <v>4.375515329441653</v>
+        <v>4.690966333330036</v>
       </c>
       <c r="K473" t="n">
-        <v>4.375515329441653</v>
+        <v>4.6823379486304795</v>
       </c>
       <c r="L473" t="n">
-        <v>4.375515329441653</v>
+        <v>4.081717365295786</v>
       </c>
     </row>
     <row r="474">
@@ -18118,34 +18118,34 @@
         <v>1.9755872960972047</v>
       </c>
       <c r="C475" t="n">
-        <v>1.9755872960972047</v>
+        <v>2.0273343446979424</v>
       </c>
       <c r="D475" t="n">
-        <v>1.9755872960972047</v>
+        <v>2.135475416733644</v>
       </c>
       <c r="E475" t="n">
-        <v>1.9755872960972047</v>
+        <v>1.9242875154040266</v>
       </c>
       <c r="F475" t="n">
-        <v>1.9755872960972047</v>
+        <v>2.17957472162332</v>
       </c>
       <c r="G475" t="n">
-        <v>1.9755872960972047</v>
+        <v>2.125052108208743</v>
       </c>
       <c r="H475" t="n">
-        <v>1.9755872960972047</v>
+        <v>2.1754905703202123</v>
       </c>
       <c r="I475" t="n">
-        <v>1.9755872960972047</v>
+        <v>2.0994336378453946</v>
       </c>
       <c r="J475" t="n">
-        <v>1.9755872960972047</v>
+        <v>2.1394105669970744</v>
       </c>
       <c r="K475" t="n">
-        <v>1.9755872960972047</v>
+        <v>2.135475416733644</v>
       </c>
       <c r="L475" t="n">
-        <v>1.9755872960972047</v>
+        <v>1.8615501886602184</v>
       </c>
     </row>
     <row r="476">
@@ -18384,34 +18384,34 @@
         <v>3.62080735242627</v>
       </c>
       <c r="C482" t="n">
-        <v>3.62080735242627</v>
+        <v>4.0835024476630615</v>
       </c>
       <c r="D482" t="n">
-        <v>3.62080735242627</v>
+        <v>3.7039532866817826</v>
       </c>
       <c r="E482" t="n">
-        <v>3.62080735242627</v>
+        <v>4.118255659694655</v>
       </c>
       <c r="F482" t="n">
-        <v>3.62080735242627</v>
+        <v>3.842615176664648</v>
       </c>
       <c r="G482" t="n">
-        <v>3.62080735242627</v>
+        <v>3.96264071037369</v>
       </c>
       <c r="H482" t="n">
-        <v>3.62080735242627</v>
+        <v>4.123268751135182</v>
       </c>
       <c r="I482" t="n">
-        <v>3.62080735242627</v>
+        <v>3.8360875194634505</v>
       </c>
       <c r="J482" t="n">
-        <v>3.62080735242627</v>
+        <v>4.105776095977509</v>
       </c>
       <c r="K482" t="n">
-        <v>3.62080735242627</v>
+        <v>3.7039532866817826</v>
       </c>
       <c r="L482" t="n">
-        <v>3.62080735242627</v>
+        <v>4.133331641855396</v>
       </c>
     </row>
     <row r="483">
@@ -18460,34 +18460,34 @@
         <v>1.2921095535283922</v>
       </c>
       <c r="C484" t="n">
-        <v>1.2921095535283922</v>
+        <v>1.4572254226523245</v>
       </c>
       <c r="D484" t="n">
-        <v>1.2921095535283922</v>
+        <v>1.3217807416175904</v>
       </c>
       <c r="E484" t="n">
-        <v>1.2921095535283922</v>
+        <v>1.469627341039871</v>
       </c>
       <c r="F484" t="n">
-        <v>1.2921095535283922</v>
+        <v>1.3712631733843912</v>
       </c>
       <c r="G484" t="n">
-        <v>1.2921095535283922</v>
+        <v>1.414095095571269</v>
       </c>
       <c r="H484" t="n">
-        <v>1.2921095535283922</v>
+        <v>1.471416296571757</v>
       </c>
       <c r="I484" t="n">
-        <v>1.2921095535283922</v>
+        <v>1.3689337348335735</v>
       </c>
       <c r="J484" t="n">
-        <v>1.2921095535283922</v>
+        <v>1.4651739244580735</v>
       </c>
       <c r="K484" t="n">
-        <v>1.2921095535283922</v>
+        <v>1.3217807416175904</v>
       </c>
       <c r="L484" t="n">
-        <v>1.2921095535283922</v>
+        <v>1.475007307075806</v>
       </c>
     </row>
     <row r="485">
@@ -18498,34 +18498,34 @@
         <v>2.235392565792525</v>
       </c>
       <c r="C485" t="n">
-        <v>2.235392565792525</v>
+        <v>2.5210485191334033</v>
       </c>
       <c r="D485" t="n">
-        <v>2.235392565792525</v>
+        <v>2.2867247094886265</v>
       </c>
       <c r="E485" t="n">
-        <v>2.235392565792525</v>
+        <v>2.542504251032748</v>
       </c>
       <c r="F485" t="n">
-        <v>2.235392565792525</v>
+        <v>2.372330964629137</v>
       </c>
       <c r="G485" t="n">
-        <v>2.235392565792525</v>
+        <v>2.4464316166781015</v>
       </c>
       <c r="H485" t="n">
-        <v>2.235392565792525</v>
+        <v>2.545599203690277</v>
       </c>
       <c r="I485" t="n">
-        <v>2.235392565792525</v>
+        <v>2.368300958346195</v>
       </c>
       <c r="J485" t="n">
-        <v>2.235392565792525</v>
+        <v>2.534799692009759</v>
       </c>
       <c r="K485" t="n">
-        <v>2.235392565792525</v>
+        <v>2.2867247094886265</v>
       </c>
       <c r="L485" t="n">
-        <v>2.235392565792525</v>
+        <v>2.5518117714733366</v>
       </c>
     </row>
     <row r="486">
@@ -18533,37 +18533,37 @@
         <v>485.0</v>
       </c>
       <c r="B486" t="n">
-        <v>1.2018314627604103</v>
+        <v>1.213971174505465</v>
       </c>
       <c r="C486" t="n">
-        <v>1.2018314627604103</v>
+        <v>1.369101910148204</v>
       </c>
       <c r="D486" t="n">
-        <v>1.2018314627604103</v>
+        <v>1.2418480421868903</v>
       </c>
       <c r="E486" t="n">
-        <v>1.2018314627604103</v>
+        <v>1.3807538412015257</v>
       </c>
       <c r="F486" t="n">
-        <v>1.2018314627604103</v>
+        <v>1.2883380984249968</v>
       </c>
       <c r="G486" t="n">
-        <v>1.2018314627604103</v>
+        <v>1.3285798246327647</v>
       </c>
       <c r="H486" t="n">
-        <v>1.2018314627604103</v>
+        <v>1.3824346123422167</v>
       </c>
       <c r="I486" t="n">
-        <v>1.2018314627604103</v>
+        <v>1.286149529161847</v>
       </c>
       <c r="J486" t="n">
-        <v>1.2018314627604103</v>
+        <v>1.3765697382795994</v>
       </c>
       <c r="K486" t="n">
-        <v>1.2018314627604103</v>
+        <v>1.2418480421868903</v>
       </c>
       <c r="L486" t="n">
-        <v>1.2018314627604103</v>
+        <v>1.385808461894956</v>
       </c>
     </row>
     <row r="487">
@@ -18723,37 +18723,37 @@
         <v>490.0</v>
       </c>
       <c r="B491" t="n">
-        <v>1.4426427791942364</v>
+        <v>1.4572149284790268</v>
       </c>
       <c r="C491" t="n">
-        <v>1.4426427791942364</v>
+        <v>1.643429254314747</v>
       </c>
       <c r="D491" t="n">
-        <v>1.4426427791942364</v>
+        <v>1.4906774921689396</v>
       </c>
       <c r="E491" t="n">
-        <v>1.4426427791942364</v>
+        <v>1.657415886150075</v>
       </c>
       <c r="F491" t="n">
-        <v>1.4426427791942364</v>
+        <v>1.5464827743689853</v>
       </c>
       <c r="G491" t="n">
-        <v>1.4426427791942364</v>
+        <v>1.5947877468504064</v>
       </c>
       <c r="H491" t="n">
-        <v>1.4426427791942364</v>
+        <v>1.6594334338884464</v>
       </c>
       <c r="I491" t="n">
-        <v>1.4426427791942364</v>
+        <v>1.5438556808520643</v>
       </c>
       <c r="J491" t="n">
-        <v>1.4426427791942364</v>
+        <v>1.6523934133202671</v>
       </c>
       <c r="K491" t="n">
-        <v>1.4426427791942364</v>
+        <v>1.4906774921689396</v>
       </c>
       <c r="L491" t="n">
-        <v>1.4426427791942364</v>
+        <v>1.6634833026480542</v>
       </c>
     </row>
     <row r="492">
@@ -18840,34 +18840,34 @@
         <v>1.4051800973494613</v>
       </c>
       <c r="C494" t="n">
-        <v>1.4051800973494613</v>
+        <v>1.4373478158484625</v>
       </c>
       <c r="D494" t="n">
-        <v>1.4051800973494613</v>
+        <v>1.540568485235606</v>
       </c>
       <c r="E494" t="n">
-        <v>1.4051800973494613</v>
+        <v>1.5706466989343641</v>
       </c>
       <c r="F494" t="n">
-        <v>1.4051800973494613</v>
+        <v>1.498422548715827</v>
       </c>
       <c r="G494" t="n">
-        <v>1.4051800973494613</v>
+        <v>1.3678480017380035</v>
       </c>
       <c r="H494" t="n">
-        <v>1.4051800973494613</v>
+        <v>1.6109448932450272</v>
       </c>
       <c r="I494" t="n">
-        <v>1.4051800973494613</v>
+        <v>1.5783506677280565</v>
       </c>
       <c r="J494" t="n">
-        <v>1.4051800973494613</v>
+        <v>1.4222596341026086</v>
       </c>
       <c r="K494" t="n">
-        <v>1.4051800973494613</v>
+        <v>1.540568485235606</v>
       </c>
       <c r="L494" t="n">
-        <v>1.4051800973494613</v>
+        <v>1.6079262572608106</v>
       </c>
     </row>
     <row r="495">
@@ -18916,34 +18916,34 @@
         <v>3.0625084802149933</v>
       </c>
       <c r="C496" t="n">
-        <v>3.0625084802149933</v>
+        <v>3.1326161560055796</v>
       </c>
       <c r="D496" t="n">
-        <v>3.0625084802149933</v>
+        <v>3.3575796150866393</v>
       </c>
       <c r="E496" t="n">
-        <v>3.0625084802149933</v>
+        <v>3.4231333364181027</v>
       </c>
       <c r="F496" t="n">
-        <v>3.0625084802149933</v>
+        <v>3.2657249921511946</v>
       </c>
       <c r="G496" t="n">
-        <v>3.0625084802149933</v>
+        <v>2.9811453441942493</v>
       </c>
       <c r="H496" t="n">
-        <v>3.0625084802149933</v>
+        <v>3.5109609124324144</v>
       </c>
       <c r="I496" t="n">
-        <v>3.0625084802149933</v>
+        <v>3.439923689346171</v>
       </c>
       <c r="J496" t="n">
-        <v>3.0625084802149933</v>
+        <v>3.0997323394507745</v>
       </c>
       <c r="K496" t="n">
-        <v>3.0625084802149933</v>
+        <v>3.3575796150866393</v>
       </c>
       <c r="L496" t="n">
-        <v>3.0625084802149933</v>
+        <v>3.5043819704748795</v>
       </c>
     </row>
     <row r="497">
@@ -19255,37 +19255,37 @@
         <v>504.0</v>
       </c>
       <c r="B505" t="n">
-        <v>2.7381978824257884</v>
+        <v>2.711087012302761</v>
       </c>
       <c r="C505" t="n">
-        <v>2.7381978824257884</v>
+        <v>2.773149863892072</v>
       </c>
       <c r="D505" t="n">
-        <v>2.7381978824257884</v>
+        <v>2.972298867428725</v>
       </c>
       <c r="E505" t="n">
-        <v>2.7381978824257884</v>
+        <v>3.03033032878075</v>
       </c>
       <c r="F505" t="n">
-        <v>2.7381978824257884</v>
+        <v>2.8909845210786473</v>
       </c>
       <c r="G505" t="n">
-        <v>2.7381978824257884</v>
+        <v>2.639060259472161</v>
       </c>
       <c r="H505" t="n">
-        <v>2.7381978824257884</v>
+        <v>3.1080797300290093</v>
       </c>
       <c r="I505" t="n">
-        <v>2.7381978824257884</v>
+        <v>3.045193996277295</v>
       </c>
       <c r="J505" t="n">
-        <v>2.7381978824257884</v>
+        <v>2.7440394504670556</v>
       </c>
       <c r="K505" t="n">
-        <v>2.7381978824257884</v>
+        <v>2.972298867428725</v>
       </c>
       <c r="L505" t="n">
-        <v>2.7381978824257884</v>
+        <v>3.102255718696145</v>
       </c>
     </row>
     <row r="506">
@@ -19369,37 +19369,37 @@
         <v>507.0</v>
       </c>
       <c r="B508" t="n">
-        <v>1.0181627857202213</v>
+        <v>1.02855220190104</v>
       </c>
       <c r="C508" t="n">
-        <v>1.0181627857202213</v>
+        <v>1.0520980646375604</v>
       </c>
       <c r="D508" t="n">
-        <v>1.0181627857202213</v>
+        <v>1.1276526835651315</v>
       </c>
       <c r="E508" t="n">
-        <v>1.0181627857202213</v>
+        <v>1.1496690877167863</v>
       </c>
       <c r="F508" t="n">
-        <v>1.0181627857202213</v>
+        <v>1.0968030466464413</v>
       </c>
       <c r="G508" t="n">
-        <v>1.0181627857202213</v>
+        <v>1.0012261607656912</v>
       </c>
       <c r="H508" t="n">
-        <v>1.0181627857202213</v>
+        <v>1.1791662294490468</v>
       </c>
       <c r="I508" t="n">
-        <v>1.0181627857202213</v>
+        <v>1.1553081756038663</v>
       </c>
       <c r="J508" t="n">
-        <v>1.0181627857202213</v>
+        <v>1.0410539411215398</v>
       </c>
       <c r="K508" t="n">
-        <v>1.0181627857202213</v>
+        <v>1.1276526835651315</v>
       </c>
       <c r="L508" t="n">
-        <v>1.0181627857202213</v>
+        <v>1.1769566730411811</v>
       </c>
     </row>
     <row r="509">
@@ -19445,37 +19445,37 @@
         <v>509.0</v>
       </c>
       <c r="B510" t="n">
-        <v>1.6389780165777363</v>
+        <v>1.622588236411959</v>
       </c>
       <c r="C510" t="n">
-        <v>1.6389780165777363</v>
+        <v>1.804081388387015</v>
       </c>
       <c r="D510" t="n">
-        <v>1.6389780165777363</v>
+        <v>1.680472187732232</v>
       </c>
       <c r="E510" t="n">
-        <v>1.6389780165777363</v>
+        <v>1.6833317539757042</v>
       </c>
       <c r="F510" t="n">
-        <v>1.6389780165777363</v>
+        <v>1.7986144746017354</v>
       </c>
       <c r="G510" t="n">
-        <v>1.6389780165777363</v>
+        <v>1.586164554905614</v>
       </c>
       <c r="H510" t="n">
-        <v>1.6389780165777363</v>
+        <v>1.6199311587633867</v>
       </c>
       <c r="I510" t="n">
-        <v>1.6389780165777363</v>
+        <v>1.6570150098662835</v>
       </c>
       <c r="J510" t="n">
-        <v>1.6389780165777363</v>
+        <v>1.7359112559272067</v>
       </c>
       <c r="K510" t="n">
-        <v>1.6389780165777363</v>
+        <v>1.680472187732232</v>
       </c>
       <c r="L510" t="n">
-        <v>1.6389780165777363</v>
+        <v>1.5768936683968442</v>
       </c>
     </row>
     <row r="511">
@@ -19600,34 +19600,34 @@
         <v>0.3227558989971238</v>
       </c>
       <c r="C514" t="n">
-        <v>0.3227558989971238</v>
+        <v>0.3518294675380228</v>
       </c>
       <c r="D514" t="n">
-        <v>0.3227558989971238</v>
+        <v>0.3381234295706377</v>
       </c>
       <c r="E514" t="n">
-        <v>0.3227558989971238</v>
+        <v>0.3503368576885543</v>
       </c>
       <c r="F514" t="n">
-        <v>0.3227558989971238</v>
+        <v>0.3160501998032961</v>
       </c>
       <c r="G514" t="n">
-        <v>0.3227558989971238</v>
+        <v>0.35140171145451393</v>
       </c>
       <c r="H514" t="n">
-        <v>0.3227558989971238</v>
+        <v>0.32788191436399655</v>
       </c>
       <c r="I514" t="n">
-        <v>0.3227558989971238</v>
+        <v>0.3089555398277573</v>
       </c>
       <c r="J514" t="n">
-        <v>0.3227558989971238</v>
+        <v>0.3273249237102256</v>
       </c>
       <c r="K514" t="n">
-        <v>0.3227558989971238</v>
+        <v>0.3381234295706377</v>
       </c>
       <c r="L514" t="n">
-        <v>0.3227558989971238</v>
+        <v>0.3193678535916069</v>
       </c>
     </row>
     <row r="515">
@@ -19711,37 +19711,37 @@
         <v>516.0</v>
       </c>
       <c r="B517" t="n">
-        <v>0.5900198860011462</v>
+        <v>0.5961659264803247</v>
       </c>
       <c r="C517" t="n">
-        <v>0.5900198860011462</v>
+        <v>0.6498680306994292</v>
       </c>
       <c r="D517" t="n">
-        <v>0.5900198860011462</v>
+        <v>0.6245514591089795</v>
       </c>
       <c r="E517" t="n">
-        <v>0.5900198860011462</v>
+        <v>0.6471110148352824</v>
       </c>
       <c r="F517" t="n">
-        <v>0.5900198860011462</v>
+        <v>0.5837797566689953</v>
       </c>
       <c r="G517" t="n">
-        <v>0.5900198860011462</v>
+        <v>0.6490779177917332</v>
       </c>
       <c r="H517" t="n">
-        <v>0.5900198860011462</v>
+        <v>0.6056342451379841</v>
       </c>
       <c r="I517" t="n">
-        <v>0.5900198860011462</v>
+        <v>0.5706751331732752</v>
       </c>
       <c r="J517" t="n">
-        <v>0.5900198860011462</v>
+        <v>0.6046054216519439</v>
       </c>
       <c r="K517" t="n">
-        <v>0.5900198860011462</v>
+        <v>0.6245514591089795</v>
       </c>
       <c r="L517" t="n">
-        <v>0.5900198860011462</v>
+        <v>0.5899078310143288</v>
       </c>
     </row>
     <row r="518">
@@ -19752,34 +19752,34 @@
         <v>2.046209425208153</v>
       </c>
       <c r="C518" t="n">
-        <v>2.046209425208153</v>
+        <v>2.2613303163821707</v>
       </c>
       <c r="D518" t="n">
-        <v>2.046209425208153</v>
+        <v>2.204762566068504</v>
       </c>
       <c r="E518" t="n">
-        <v>2.046209425208153</v>
+        <v>2.2570929690378554</v>
       </c>
       <c r="F518" t="n">
-        <v>2.046209425208153</v>
+        <v>2.2155768516860253</v>
       </c>
       <c r="G518" t="n">
-        <v>2.046209425208153</v>
+        <v>1.9964673166965086</v>
       </c>
       <c r="H518" t="n">
-        <v>2.046209425208153</v>
+        <v>2.1781831498561384</v>
       </c>
       <c r="I518" t="n">
-        <v>2.046209425208153</v>
+        <v>1.9200881218861447</v>
       </c>
       <c r="J518" t="n">
-        <v>2.046209425208153</v>
+        <v>2.1033794205934733</v>
       </c>
       <c r="K518" t="n">
-        <v>2.046209425208153</v>
+        <v>2.204762566068504</v>
       </c>
       <c r="L518" t="n">
-        <v>2.046209425208153</v>
+        <v>2.1279960796380517</v>
       </c>
     </row>
     <row r="519">
@@ -19863,37 +19863,37 @@
         <v>520.0</v>
       </c>
       <c r="B521" t="n">
-        <v>1.820515702422358</v>
+        <v>1.8390923932634027</v>
       </c>
       <c r="C521" t="n">
-        <v>1.820515702422358</v>
+        <v>2.004756224396249</v>
       </c>
       <c r="D521" t="n">
-        <v>1.820515702422358</v>
+        <v>1.9266579766309249</v>
       </c>
       <c r="E521" t="n">
-        <v>1.820515702422358</v>
+        <v>1.9962511980627353</v>
       </c>
       <c r="F521" t="n">
-        <v>1.820515702422358</v>
+        <v>1.8008827109084071</v>
       </c>
       <c r="G521" t="n">
-        <v>1.820515702422358</v>
+        <v>2.002318831425903</v>
       </c>
       <c r="H521" t="n">
-        <v>1.820515702422358</v>
+        <v>1.8683008938617172</v>
       </c>
       <c r="I521" t="n">
-        <v>1.820515702422358</v>
+        <v>1.760456694732263</v>
       </c>
       <c r="J521" t="n">
-        <v>1.820515702422358</v>
+        <v>1.8651271105857121</v>
       </c>
       <c r="K521" t="n">
-        <v>1.820515702422358</v>
+        <v>1.9266579766309249</v>
       </c>
       <c r="L521" t="n">
-        <v>1.820515702422358</v>
+        <v>1.8197870031754817</v>
       </c>
     </row>
     <row r="522">
@@ -19901,37 +19901,37 @@
         <v>521.0</v>
       </c>
       <c r="B522" t="n">
-        <v>0.7827086107680976</v>
+        <v>0.7906954333269558</v>
       </c>
       <c r="C522" t="n">
-        <v>0.7827086107680976</v>
+        <v>0.8619205850507108</v>
       </c>
       <c r="D522" t="n">
-        <v>0.7827086107680976</v>
+        <v>0.8283431921556739</v>
       </c>
       <c r="E522" t="n">
-        <v>0.7827086107680976</v>
+        <v>0.8582639522970393</v>
       </c>
       <c r="F522" t="n">
-        <v>0.7827086107680976</v>
+        <v>0.7742676445667848</v>
       </c>
       <c r="G522" t="n">
-        <v>0.7827086107680976</v>
+        <v>0.8608726575523777</v>
       </c>
       <c r="H522" t="n">
-        <v>0.7827086107680976</v>
+        <v>0.8032532733365235</v>
       </c>
       <c r="I522" t="n">
-        <v>0.7827086107680976</v>
+        <v>0.7568869700040681</v>
       </c>
       <c r="J522" t="n">
-        <v>0.7827086107680976</v>
+        <v>0.8018887437718867</v>
       </c>
       <c r="K522" t="n">
-        <v>0.7827086107680976</v>
+        <v>0.8283431921556739</v>
       </c>
       <c r="L522" t="n">
-        <v>0.7827086107680976</v>
+        <v>0.7823953153790869</v>
       </c>
     </row>
     <row r="523">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>5.618226818381334</v>
+        <v>5.674976584223569</v>
       </c>
       <c r="C523" t="n">
-        <v>5.618226818381334</v>
+        <v>5.239163463079869</v>
       </c>
       <c r="D523" t="n">
-        <v>5.618226818381334</v>
+        <v>5.378834865882312</v>
       </c>
       <c r="E523" t="n">
-        <v>5.618226818381334</v>
+        <v>5.068351613282854</v>
       </c>
       <c r="F523" t="n">
-        <v>5.618226818381334</v>
+        <v>5.1762477458804</v>
       </c>
       <c r="G523" t="n">
-        <v>5.618226818381334</v>
+        <v>5.77168951361389</v>
       </c>
       <c r="H523" t="n">
-        <v>5.618226818381334</v>
+        <v>5.546844800738891</v>
       </c>
       <c r="I523" t="n">
-        <v>5.618226818381334</v>
+        <v>5.764672263697761</v>
       </c>
       <c r="J523" t="n">
-        <v>5.618226818381334</v>
+        <v>5.294743645932392</v>
       </c>
       <c r="K523" t="n">
-        <v>5.618226818381334</v>
+        <v>5.378834865882312</v>
       </c>
       <c r="L523" t="n">
-        <v>5.618226818381334</v>
+        <v>5.814154428636456</v>
       </c>
     </row>
     <row r="524">
@@ -19977,37 +19977,37 @@
         <v>523.0</v>
       </c>
       <c r="B524" t="n">
-        <v>2.107286860909148</v>
+        <v>2.1285725867769174</v>
       </c>
       <c r="C524" t="n">
-        <v>2.107286860909148</v>
+        <v>2.1691043730462463</v>
       </c>
       <c r="D524" t="n">
-        <v>2.107286860909148</v>
+        <v>2.1401829819749847</v>
       </c>
       <c r="E524" t="n">
-        <v>2.107286860909148</v>
+        <v>2.1493012295371656</v>
       </c>
       <c r="F524" t="n">
-        <v>2.107286860909148</v>
+        <v>1.8873874501497057</v>
       </c>
       <c r="G524" t="n">
-        <v>2.107286860909148</v>
+        <v>1.999604711656269</v>
       </c>
       <c r="H524" t="n">
-        <v>2.107286860909148</v>
+        <v>1.9716928641854652</v>
       </c>
       <c r="I524" t="n">
-        <v>2.107286860909148</v>
+        <v>1.9275665502047616</v>
       </c>
       <c r="J524" t="n">
-        <v>2.107286860909148</v>
+        <v>1.9307282240629242</v>
       </c>
       <c r="K524" t="n">
-        <v>2.107286860909148</v>
+        <v>2.1401829819749847</v>
       </c>
       <c r="L524" t="n">
-        <v>2.107286860909148</v>
+        <v>2.209825983373608</v>
       </c>
     </row>
     <row r="525">
@@ -20246,34 +20246,34 @@
         <v>2.6212799223869343</v>
       </c>
       <c r="C531" t="n">
-        <v>2.6212799223869343</v>
+        <v>2.4199772090783713</v>
       </c>
       <c r="D531" t="n">
-        <v>2.6212799223869343</v>
+        <v>2.4844916327881483</v>
       </c>
       <c r="E531" t="n">
-        <v>2.6212799223869343</v>
+        <v>2.341078967696473</v>
       </c>
       <c r="F531" t="n">
-        <v>2.6212799223869343</v>
+        <v>2.3909163479717335</v>
       </c>
       <c r="G531" t="n">
-        <v>2.6212799223869343</v>
+        <v>2.665951764866573</v>
       </c>
       <c r="H531" t="n">
-        <v>2.6212799223869343</v>
+        <v>2.562095665591632</v>
       </c>
       <c r="I531" t="n">
-        <v>2.6212799223869343</v>
+        <v>2.6627104869436553</v>
       </c>
       <c r="J531" t="n">
-        <v>2.6212799223869343</v>
+        <v>2.4456497762214564</v>
       </c>
       <c r="K531" t="n">
-        <v>2.6212799223869343</v>
+        <v>2.4844916327881483</v>
       </c>
       <c r="L531" t="n">
-        <v>2.6212799223869343</v>
+        <v>2.6855663707600965</v>
       </c>
     </row>
     <row r="532">
@@ -20284,34 +20284,34 @@
         <v>4.275321148768357</v>
       </c>
       <c r="C532" t="n">
-        <v>4.275321148768357</v>
+        <v>3.9469953792988903</v>
       </c>
       <c r="D532" t="n">
-        <v>4.275321148768357</v>
+        <v>4.052218738975736</v>
       </c>
       <c r="E532" t="n">
-        <v>4.275321148768357</v>
+        <v>3.818311938396669</v>
       </c>
       <c r="F532" t="n">
-        <v>4.275321148768357</v>
+        <v>3.899596964108844</v>
       </c>
       <c r="G532" t="n">
-        <v>4.275321148768357</v>
+        <v>4.348181155544641</v>
       </c>
       <c r="H532" t="n">
-        <v>4.275321148768357</v>
+        <v>4.178791318974107</v>
       </c>
       <c r="I532" t="n">
-        <v>4.275321148768357</v>
+        <v>4.342894614441366</v>
       </c>
       <c r="J532" t="n">
-        <v>4.275321148768357</v>
+        <v>3.988867469460883</v>
       </c>
       <c r="K532" t="n">
-        <v>4.275321148768357</v>
+        <v>4.052218738975736</v>
       </c>
       <c r="L532" t="n">
-        <v>4.275321148768357</v>
+        <v>4.380172679488782</v>
       </c>
     </row>
     <row r="533">
@@ -20360,34 +20360,34 @@
         <v>2.140177131641087</v>
       </c>
       <c r="C534" t="n">
-        <v>2.140177131641087</v>
+        <v>1.9758209864309324</v>
       </c>
       <c r="D534" t="n">
-        <v>2.140177131641087</v>
+        <v>2.028494603279506</v>
       </c>
       <c r="E534" t="n">
-        <v>2.140177131641087</v>
+        <v>1.9114035197994115</v>
       </c>
       <c r="F534" t="n">
-        <v>2.140177131641087</v>
+        <v>1.9520938789842817</v>
       </c>
       <c r="G534" t="n">
-        <v>2.140177131641087</v>
+        <v>2.176650022188441</v>
       </c>
       <c r="H534" t="n">
-        <v>2.140177131641087</v>
+        <v>2.091855396955407</v>
       </c>
       <c r="I534" t="n">
-        <v>2.140177131641087</v>
+        <v>2.1740036398510654</v>
       </c>
       <c r="J534" t="n">
-        <v>2.140177131641087</v>
+        <v>1.9967816784352108</v>
       </c>
       <c r="K534" t="n">
-        <v>2.140177131641087</v>
+        <v>2.028494603279506</v>
       </c>
       <c r="L534" t="n">
-        <v>2.140177131641087</v>
+        <v>2.1926646151439484</v>
       </c>
     </row>
     <row r="535">
@@ -20471,37 +20471,37 @@
         <v>536.0</v>
       </c>
       <c r="B537" t="n">
-        <v>3.485831361196163</v>
+        <v>3.521041778986023</v>
       </c>
       <c r="C537" t="n">
-        <v>3.485831361196163</v>
+        <v>3.8912138816188566</v>
       </c>
       <c r="D537" t="n">
-        <v>3.485831361196163</v>
+        <v>3.7938741813203847</v>
       </c>
       <c r="E537" t="n">
-        <v>3.485831361196163</v>
+        <v>3.883922410448992</v>
       </c>
       <c r="F537" t="n">
-        <v>3.485831361196163</v>
+        <v>3.812483005519944</v>
       </c>
       <c r="G537" t="n">
-        <v>3.485831361196163</v>
+        <v>3.4354473915852624</v>
       </c>
       <c r="H537" t="n">
-        <v>3.485831361196163</v>
+        <v>3.748137301315896</v>
       </c>
       <c r="I537" t="n">
-        <v>3.485831361196163</v>
+        <v>3.3040168876204756</v>
       </c>
       <c r="J537" t="n">
-        <v>3.485831361196163</v>
+        <v>3.6194178004119215</v>
       </c>
       <c r="K537" t="n">
-        <v>3.485831361196163</v>
+        <v>3.7938741813203847</v>
       </c>
       <c r="L537" t="n">
-        <v>3.485831361196163</v>
+        <v>3.8195084638258248</v>
       </c>
     </row>
     <row r="538">
@@ -20854,34 +20854,34 @@
         <v>0.6334936921185718</v>
       </c>
       <c r="C547" t="n">
-        <v>0.6334936921185718</v>
+        <v>0.629270400592734</v>
       </c>
       <c r="D547" t="n">
-        <v>0.6334936921185718</v>
+        <v>0.648529769334914</v>
       </c>
       <c r="E547" t="n">
-        <v>0.6334936921185718</v>
+        <v>0.6497472849328525</v>
       </c>
       <c r="F547" t="n">
-        <v>0.6334936921185718</v>
+        <v>0.5516982791011676</v>
       </c>
       <c r="G547" t="n">
-        <v>0.6334936921185718</v>
+        <v>0.6377740544851304</v>
       </c>
       <c r="H547" t="n">
-        <v>0.6334936921185718</v>
+        <v>0.6213621550508879</v>
       </c>
       <c r="I547" t="n">
-        <v>0.6334936921185718</v>
+        <v>0.6043633067727713</v>
       </c>
       <c r="J547" t="n">
-        <v>0.6334936921185718</v>
+        <v>0.6258566373309659</v>
       </c>
       <c r="K547" t="n">
-        <v>0.6334936921185718</v>
+        <v>0.648529769334914</v>
       </c>
       <c r="L547" t="n">
-        <v>0.6334936921185718</v>
+        <v>0.5676851620746021</v>
       </c>
     </row>
     <row r="548">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>3.645426762311625</v>
+        <v>3.609333428031312</v>
       </c>
       <c r="C549" t="n">
-        <v>3.645426762311625</v>
+        <v>3.4370582723900003</v>
       </c>
       <c r="D549" t="n">
-        <v>3.645426762311625</v>
+        <v>3.2074207543265656</v>
       </c>
       <c r="E549" t="n">
-        <v>3.645426762311625</v>
+        <v>3.2808457965169917</v>
       </c>
       <c r="F549" t="n">
-        <v>3.645426762311625</v>
+        <v>3.5720333276532696</v>
       </c>
       <c r="G549" t="n">
-        <v>3.645426762311625</v>
+        <v>3.2126816976387453</v>
       </c>
       <c r="H549" t="n">
-        <v>3.645426762311625</v>
+        <v>3.56120898327162</v>
       </c>
       <c r="I549" t="n">
-        <v>3.645426762311625</v>
+        <v>3.3329522522674284</v>
       </c>
       <c r="J549" t="n">
-        <v>3.645426762311625</v>
+        <v>3.5763815107627823</v>
       </c>
       <c r="K549" t="n">
-        <v>3.645426762311625</v>
+        <v>3.2074207543265656</v>
       </c>
       <c r="L549" t="n">
-        <v>3.645426762311625</v>
+        <v>3.5164541131251568</v>
       </c>
     </row>
     <row r="550">
@@ -20968,34 +20968,34 @@
         <v>4.424691283141338</v>
       </c>
       <c r="C550" t="n">
-        <v>4.424691283141338</v>
+        <v>4.231392381134316</v>
       </c>
       <c r="D550" t="n">
-        <v>4.424691283141338</v>
+        <v>3.7790789235986035</v>
       </c>
       <c r="E550" t="n">
-        <v>4.424691283141338</v>
+        <v>3.85952874865979</v>
       </c>
       <c r="F550" t="n">
-        <v>4.424691283141338</v>
+        <v>4.303503754019456</v>
       </c>
       <c r="G550" t="n">
-        <v>4.424691283141338</v>
+        <v>3.9478820028511032</v>
       </c>
       <c r="H550" t="n">
-        <v>4.424691283141338</v>
+        <v>4.003769348338775</v>
       </c>
       <c r="I550" t="n">
-        <v>4.424691283141338</v>
+        <v>3.8658593062989897</v>
       </c>
       <c r="J550" t="n">
-        <v>4.424691283141338</v>
+        <v>4.2982715319316736</v>
       </c>
       <c r="K550" t="n">
-        <v>4.424691283141338</v>
+        <v>3.7790789235986035</v>
       </c>
       <c r="L550" t="n">
-        <v>4.424691283141338</v>
+        <v>4.135854391792568</v>
       </c>
     </row>
     <row r="551">
@@ -21041,37 +21041,37 @@
         <v>551.0</v>
       </c>
       <c r="B552" t="n">
-        <v>5.037187553140784</v>
+        <v>5.088068235495741</v>
       </c>
       <c r="C552" t="n">
-        <v>5.037187553140784</v>
+        <v>4.86578877229218</v>
       </c>
       <c r="D552" t="n">
-        <v>5.037187553140784</v>
+        <v>4.345661697089588</v>
       </c>
       <c r="E552" t="n">
-        <v>5.037187553140784</v>
+        <v>4.438173055114639</v>
       </c>
       <c r="F552" t="n">
-        <v>5.037187553140784</v>
+        <v>4.948711526065497</v>
       </c>
       <c r="G552" t="n">
-        <v>5.037187553140784</v>
+        <v>4.539772773012775</v>
       </c>
       <c r="H552" t="n">
-        <v>5.037187553140784</v>
+        <v>4.6040390933378665</v>
       </c>
       <c r="I552" t="n">
-        <v>5.037187553140784</v>
+        <v>4.445452728921422</v>
       </c>
       <c r="J552" t="n">
-        <v>5.037187553140784</v>
+        <v>4.942694857036555</v>
       </c>
       <c r="K552" t="n">
-        <v>5.037187553140784</v>
+        <v>4.345661697089588</v>
       </c>
       <c r="L552" t="n">
-        <v>5.037187553140784</v>
+        <v>4.755927139525845</v>
       </c>
     </row>
     <row r="553">
@@ -21117,37 +21117,37 @@
         <v>553.0</v>
       </c>
       <c r="B554" t="n">
-        <v>4.022251489654602</v>
+        <v>4.1026965194476945</v>
       </c>
       <c r="C554" t="n">
-        <v>4.022251489654602</v>
+        <v>4.0826711558817435</v>
       </c>
       <c r="D554" t="n">
-        <v>4.022251489654602</v>
+        <v>3.5555249860551847</v>
       </c>
       <c r="E554" t="n">
-        <v>4.022251489654602</v>
+        <v>4.0044871469816625</v>
       </c>
       <c r="F554" t="n">
-        <v>4.022251489654602</v>
+        <v>4.1102567691058125</v>
       </c>
       <c r="G554" t="n">
-        <v>4.022251489654602</v>
+        <v>4.033452696905499</v>
       </c>
       <c r="H554" t="n">
-        <v>4.022251489654602</v>
+        <v>3.6969602319001824</v>
       </c>
       <c r="I554" t="n">
-        <v>4.022251489654602</v>
+        <v>4.1795740288108725</v>
       </c>
       <c r="J554" t="n">
-        <v>4.022251489654602</v>
+        <v>4.1874205407420595</v>
       </c>
       <c r="K554" t="n">
-        <v>4.022251489654602</v>
+        <v>3.5555249860551847</v>
       </c>
       <c r="L554" t="n">
-        <v>4.022251489654602</v>
+        <v>3.7890702281322746</v>
       </c>
     </row>
     <row r="555">
@@ -21234,34 +21234,34 @@
         <v>0.7579325583780675</v>
       </c>
       <c r="C557" t="n">
-        <v>0.7579325583780675</v>
+        <v>0.813321758200584</v>
       </c>
       <c r="D557" t="n">
-        <v>0.7579325583780675</v>
+        <v>0.7194078092838956</v>
       </c>
       <c r="E557" t="n">
-        <v>0.7579325583780675</v>
+        <v>0.6918853005236159</v>
       </c>
       <c r="F557" t="n">
-        <v>0.7579325583780675</v>
+        <v>0.7944650004443803</v>
       </c>
       <c r="G557" t="n">
-        <v>0.7579325583780675</v>
+        <v>0.8148486455904529</v>
       </c>
       <c r="H557" t="n">
-        <v>0.7579325583780675</v>
+        <v>0.7983618243292533</v>
       </c>
       <c r="I557" t="n">
-        <v>0.7579325583780675</v>
+        <v>0.7998330066798922</v>
       </c>
       <c r="J557" t="n">
-        <v>0.7579325583780675</v>
+        <v>0.7792508290614953</v>
       </c>
       <c r="K557" t="n">
-        <v>0.7579325583780675</v>
+        <v>0.7194078092838956</v>
       </c>
       <c r="L557" t="n">
-        <v>0.7579325583780675</v>
+        <v>0.7270397180546952</v>
       </c>
     </row>
     <row r="558">
@@ -21269,37 +21269,37 @@
         <v>557.0</v>
       </c>
       <c r="B558" t="n">
-        <v>8.20513789551074</v>
+        <v>8.123898906446279</v>
       </c>
       <c r="C558" t="n">
-        <v>8.20513789551074</v>
+        <v>8.717587955548485</v>
       </c>
       <c r="D558" t="n">
-        <v>8.20513789551074</v>
+        <v>7.710971445318338</v>
       </c>
       <c r="E558" t="n">
-        <v>8.20513789551074</v>
+        <v>7.415971479491872</v>
       </c>
       <c r="F558" t="n">
-        <v>8.20513789551074</v>
+        <v>8.515471827904403</v>
       </c>
       <c r="G558" t="n">
-        <v>8.20513789551074</v>
+        <v>8.733953895577985</v>
       </c>
       <c r="H558" t="n">
-        <v>8.20513789551074</v>
+        <v>8.557239928439204</v>
       </c>
       <c r="I558" t="n">
-        <v>8.20513789551074</v>
+        <v>8.573008794095424</v>
       </c>
       <c r="J558" t="n">
-        <v>8.20513789551074</v>
+        <v>8.352398756436937</v>
       </c>
       <c r="K558" t="n">
-        <v>8.20513789551074</v>
+        <v>7.710971445318338</v>
       </c>
       <c r="L558" t="n">
-        <v>8.20513789551074</v>
+        <v>7.792774047188186</v>
       </c>
     </row>
     <row r="559">
@@ -21424,34 +21424,34 @@
         <v>2.408588723794568</v>
       </c>
       <c r="C562" t="n">
-        <v>2.408588723794568</v>
+        <v>2.102715873775761</v>
       </c>
       <c r="D562" t="n">
-        <v>2.408588723794568</v>
+        <v>2.4056603491860287</v>
       </c>
       <c r="E562" t="n">
-        <v>2.408588723794568</v>
+        <v>2.240833110945045</v>
       </c>
       <c r="F562" t="n">
-        <v>2.408588723794568</v>
+        <v>2.31475858293925</v>
       </c>
       <c r="G562" t="n">
-        <v>2.408588723794568</v>
+        <v>2.244646212267454</v>
       </c>
       <c r="H562" t="n">
-        <v>2.408588723794568</v>
+        <v>2.163647498676247</v>
       </c>
       <c r="I562" t="n">
-        <v>2.408588723794568</v>
+        <v>2.3983704686904357</v>
       </c>
       <c r="J562" t="n">
-        <v>2.408588723794568</v>
+        <v>2.1150781786138433</v>
       </c>
       <c r="K562" t="n">
-        <v>2.408588723794568</v>
+        <v>2.4056603491860287</v>
       </c>
       <c r="L562" t="n">
-        <v>2.408588723794568</v>
+        <v>2.3853594181366304</v>
       </c>
     </row>
     <row r="563">
@@ -21652,34 +21652,34 @@
         <v>0.9298657640058128</v>
       </c>
       <c r="C568" t="n">
-        <v>0.9298657640058128</v>
+        <v>0.8175463286636634</v>
       </c>
       <c r="D568" t="n">
-        <v>0.9298657640058128</v>
+        <v>0.9220187955978802</v>
       </c>
       <c r="E568" t="n">
-        <v>0.9298657640058128</v>
+        <v>0.890354587578666</v>
       </c>
       <c r="F568" t="n">
-        <v>0.9298657640058128</v>
+        <v>0.8450989949640481</v>
       </c>
       <c r="G568" t="n">
-        <v>0.9298657640058128</v>
+        <v>0.9378474443166144</v>
       </c>
       <c r="H568" t="n">
-        <v>0.9298657640058128</v>
+        <v>0.9332697876576797</v>
       </c>
       <c r="I568" t="n">
-        <v>0.9298657640058128</v>
+        <v>0.9572147571233252</v>
       </c>
       <c r="J568" t="n">
-        <v>0.9298657640058128</v>
+        <v>0.9554210999209022</v>
       </c>
       <c r="K568" t="n">
-        <v>0.9298657640058128</v>
+        <v>0.9220187955978802</v>
       </c>
       <c r="L568" t="n">
-        <v>0.9298657640058128</v>
+        <v>0.8349504264478336</v>
       </c>
     </row>
     <row r="569">
@@ -21953,37 +21953,37 @@
         <v>575.0</v>
       </c>
       <c r="B576" t="n">
-        <v>1.9323439682030505</v>
+        <v>1.951667407885081</v>
       </c>
       <c r="C576" t="n">
-        <v>1.9323439682030505</v>
+        <v>1.9386562910775722</v>
       </c>
       <c r="D576" t="n">
-        <v>1.9323439682030505</v>
+        <v>1.9979905555512238</v>
       </c>
       <c r="E576" t="n">
-        <v>1.9323439682030505</v>
+        <v>2.0017414776845475</v>
       </c>
       <c r="F576" t="n">
-        <v>1.9323439682030505</v>
+        <v>1.6996720941406038</v>
       </c>
       <c r="G576" t="n">
-        <v>1.9323439682030505</v>
+        <v>1.9648543485423948</v>
       </c>
       <c r="H576" t="n">
-        <v>1.9323439682030505</v>
+        <v>1.9142925676978535</v>
       </c>
       <c r="I576" t="n">
-        <v>1.9323439682030505</v>
+        <v>1.861922514816926</v>
       </c>
       <c r="J576" t="n">
-        <v>1.9323439682030505</v>
+        <v>1.9281391689986653</v>
       </c>
       <c r="K576" t="n">
-        <v>1.9323439682030505</v>
+        <v>1.9979905555512238</v>
       </c>
       <c r="L576" t="n">
-        <v>1.9323439682030505</v>
+        <v>1.7489244842450424</v>
       </c>
     </row>
     <row r="577">
@@ -21991,37 +21991,37 @@
         <v>576.0</v>
       </c>
       <c r="B577" t="n">
-        <v>4.570025179907057</v>
+        <v>4.524324928107986</v>
       </c>
       <c r="C577" t="n">
-        <v>4.570025179907057</v>
+        <v>4.494162760170505</v>
       </c>
       <c r="D577" t="n">
-        <v>4.570025179907057</v>
+        <v>4.631710526129254</v>
       </c>
       <c r="E577" t="n">
-        <v>4.570025179907057</v>
+        <v>4.640405855283506</v>
       </c>
       <c r="F577" t="n">
-        <v>4.570025179907057</v>
+        <v>3.940153324312026</v>
       </c>
       <c r="G577" t="n">
-        <v>4.570025179907057</v>
+        <v>4.554894688150255</v>
       </c>
       <c r="H577" t="n">
-        <v>4.570025179907057</v>
+        <v>4.437683156841043</v>
       </c>
       <c r="I577" t="n">
-        <v>4.570025179907057</v>
+        <v>4.316279717516168</v>
       </c>
       <c r="J577" t="n">
-        <v>4.570025179907057</v>
+        <v>4.469782131892701</v>
       </c>
       <c r="K577" t="n">
-        <v>4.570025179907057</v>
+        <v>4.631710526129254</v>
       </c>
       <c r="L577" t="n">
-        <v>4.570025179907057</v>
+        <v>4.0543294464413</v>
       </c>
     </row>
     <row r="578">
@@ -22029,37 +22029,37 @@
         <v>577.0</v>
       </c>
       <c r="B578" t="n">
-        <v>6.977200713908472</v>
+        <v>6.9087967853407415</v>
       </c>
       <c r="C578" t="n">
-        <v>6.977200713908472</v>
+        <v>6.45499133494395</v>
       </c>
       <c r="D578" t="n">
-        <v>6.977200713908472</v>
+        <v>7.133613704378325</v>
       </c>
       <c r="E578" t="n">
-        <v>6.977200713908472</v>
+        <v>7.0021589021987705</v>
       </c>
       <c r="F578" t="n">
-        <v>6.977200713908472</v>
+        <v>6.871316877455986</v>
       </c>
       <c r="G578" t="n">
-        <v>6.977200713908472</v>
+        <v>7.120246528930034</v>
       </c>
       <c r="H578" t="n">
-        <v>6.977200713908472</v>
+        <v>6.635340335532437</v>
       </c>
       <c r="I578" t="n">
-        <v>6.977200713908472</v>
+        <v>6.821971691826526</v>
       </c>
       <c r="J578" t="n">
-        <v>6.977200713908472</v>
+        <v>6.0571278953243315</v>
       </c>
       <c r="K578" t="n">
-        <v>6.977200713908472</v>
+        <v>7.133613704378325</v>
       </c>
       <c r="L578" t="n">
-        <v>6.977200713908472</v>
+        <v>6.465975435399799</v>
       </c>
     </row>
     <row r="579">
@@ -22260,34 +22260,34 @@
         <v>1.9781863507663522</v>
       </c>
       <c r="C584" t="n">
-        <v>1.9781863507663522</v>
+        <v>1.7392392010590156</v>
       </c>
       <c r="D584" t="n">
-        <v>1.9781863507663522</v>
+        <v>1.9614927952013042</v>
       </c>
       <c r="E584" t="n">
-        <v>1.9781863507663522</v>
+        <v>1.894130702159405</v>
       </c>
       <c r="F584" t="n">
-        <v>1.9781863507663522</v>
+        <v>1.7978544447989715</v>
       </c>
       <c r="G584" t="n">
-        <v>1.9781863507663522</v>
+        <v>1.9951664909738902</v>
       </c>
       <c r="H584" t="n">
-        <v>1.9781863507663522</v>
+        <v>1.9854280337989654</v>
       </c>
       <c r="I584" t="n">
-        <v>1.9781863507663522</v>
+        <v>2.0363683023839707</v>
       </c>
       <c r="J584" t="n">
-        <v>1.9781863507663522</v>
+        <v>2.0325524954867453</v>
       </c>
       <c r="K584" t="n">
-        <v>1.9781863507663522</v>
+        <v>1.9614927952013042</v>
       </c>
       <c r="L584" t="n">
-        <v>1.9781863507663522</v>
+        <v>1.7762644901025997</v>
       </c>
     </row>
     <row r="585">
@@ -22295,37 +22295,37 @@
         <v>584.0</v>
       </c>
       <c r="B585" t="n">
-        <v>5.687594649651351</v>
+        <v>5.63290623955855</v>
       </c>
       <c r="C585" t="n">
-        <v>5.687594649651351</v>
+        <v>6.262969915145238</v>
       </c>
       <c r="D585" t="n">
-        <v>5.687594649651351</v>
+        <v>5.833853629195292</v>
       </c>
       <c r="E585" t="n">
-        <v>5.687594649651351</v>
+        <v>5.843780774094916</v>
       </c>
       <c r="F585" t="n">
-        <v>5.687594649651351</v>
+        <v>6.243991216741552</v>
       </c>
       <c r="G585" t="n">
-        <v>5.687594649651351</v>
+        <v>5.5064593824813155</v>
       </c>
       <c r="H585" t="n">
-        <v>5.687594649651351</v>
+        <v>5.623682045194407</v>
       </c>
       <c r="I585" t="n">
-        <v>5.687594649651351</v>
+        <v>5.752420718122474</v>
       </c>
       <c r="J585" t="n">
-        <v>5.687594649651351</v>
+        <v>6.026313469679122</v>
       </c>
       <c r="K585" t="n">
-        <v>5.687594649651351</v>
+        <v>5.833853629195292</v>
       </c>
       <c r="L585" t="n">
-        <v>5.687594649651351</v>
+        <v>5.474274979014317</v>
       </c>
     </row>
     <row r="586">
@@ -22336,34 +22336,34 @@
         <v>2.455338462536959</v>
       </c>
       <c r="C586" t="n">
-        <v>2.455338462536959</v>
+        <v>2.1587556219149353</v>
       </c>
       <c r="D586" t="n">
-        <v>2.455338462536959</v>
+        <v>2.4346183069057763</v>
       </c>
       <c r="E586" t="n">
-        <v>2.455338462536959</v>
+        <v>2.3510080151358967</v>
       </c>
       <c r="F586" t="n">
-        <v>2.455338462536959</v>
+        <v>2.2315092643561227</v>
       </c>
       <c r="G586" t="n">
-        <v>2.455338462536959</v>
+        <v>2.4764143289914453</v>
       </c>
       <c r="H586" t="n">
-        <v>2.455338462536959</v>
+        <v>2.4643268891715824</v>
       </c>
       <c r="I586" t="n">
-        <v>2.455338462536959</v>
+        <v>2.5275542998249176</v>
       </c>
       <c r="J586" t="n">
-        <v>2.455338462536959</v>
+        <v>2.522818094139977</v>
       </c>
       <c r="K586" t="n">
-        <v>2.455338462536959</v>
+        <v>2.4346183069057763</v>
       </c>
       <c r="L586" t="n">
-        <v>2.455338462536959</v>
+        <v>2.2047116645496656</v>
       </c>
     </row>
     <row r="587">
@@ -22716,34 +22716,34 @@
         <v>0.3665048301022247</v>
       </c>
       <c r="C596" t="n">
-        <v>0.3665048301022247</v>
+        <v>0.34201782613751974</v>
       </c>
       <c r="D596" t="n">
-        <v>0.3665048301022247</v>
+        <v>0.3647128390972192</v>
       </c>
       <c r="E596" t="n">
-        <v>0.3665048301022247</v>
+        <v>0.38416717207801526</v>
       </c>
       <c r="F596" t="n">
-        <v>0.3665048301022247</v>
+        <v>0.3913658072264979</v>
       </c>
       <c r="G596" t="n">
-        <v>0.3665048301022247</v>
+        <v>0.374971069779688</v>
       </c>
       <c r="H596" t="n">
-        <v>0.3665048301022247</v>
+        <v>0.38487509666312536</v>
       </c>
       <c r="I596" t="n">
-        <v>0.3665048301022247</v>
+        <v>0.3461749488029816</v>
       </c>
       <c r="J596" t="n">
-        <v>0.3665048301022247</v>
+        <v>0.3822920425736762</v>
       </c>
       <c r="K596" t="n">
-        <v>0.3665048301022247</v>
+        <v>0.3647128390972192</v>
       </c>
       <c r="L596" t="n">
-        <v>0.3665048301022247</v>
+        <v>0.3813613253264389</v>
       </c>
     </row>
     <row r="597">
@@ -22792,34 +22792,34 @@
         <v>0.24237906160839212</v>
       </c>
       <c r="C598" t="n">
-        <v>0.24237906160839212</v>
+        <v>0.26421235507396923</v>
       </c>
       <c r="D598" t="n">
-        <v>0.24237906160839212</v>
+        <v>0.2539195714835649</v>
       </c>
       <c r="E598" t="n">
-        <v>0.24237906160839212</v>
+        <v>0.26309145418327834</v>
       </c>
       <c r="F598" t="n">
-        <v>0.24237906160839212</v>
+        <v>0.23734330212861696</v>
       </c>
       <c r="G598" t="n">
-        <v>0.24237906160839212</v>
+        <v>0.26389112432825607</v>
       </c>
       <c r="H598" t="n">
-        <v>0.24237906160839212</v>
+        <v>0.24622853050508264</v>
       </c>
       <c r="I598" t="n">
-        <v>0.24237906160839212</v>
+        <v>0.23201544589842912</v>
       </c>
       <c r="J598" t="n">
-        <v>0.24237906160839212</v>
+        <v>0.2458102488488677</v>
       </c>
       <c r="K598" t="n">
-        <v>0.24237906160839212</v>
+        <v>0.2539195714835649</v>
       </c>
       <c r="L598" t="n">
-        <v>0.24237906160839212</v>
+        <v>0.2445173087191369</v>
       </c>
     </row>
     <row r="599">
@@ -23093,37 +23093,37 @@
         <v>605.0</v>
       </c>
       <c r="B606" t="n">
-        <v>1.9298855438937483</v>
+        <v>1.8916699885691195</v>
       </c>
       <c r="C606" t="n">
-        <v>1.9298855438937483</v>
+        <v>2.133402381465157</v>
       </c>
       <c r="D606" t="n">
-        <v>1.9298855438937483</v>
+        <v>1.9351091039910706</v>
       </c>
       <c r="E606" t="n">
-        <v>1.9298855438937483</v>
+        <v>2.1515589973266693</v>
       </c>
       <c r="F606" t="n">
-        <v>1.9298855438937483</v>
+        <v>2.0075522113723827</v>
       </c>
       <c r="G606" t="n">
-        <v>1.9298855438937483</v>
+        <v>2.0702588615417827</v>
       </c>
       <c r="H606" t="n">
-        <v>1.9298855438937483</v>
+        <v>2.1541780581341006</v>
       </c>
       <c r="I606" t="n">
-        <v>1.9298855438937483</v>
+        <v>2.004141874389141</v>
       </c>
       <c r="J606" t="n">
-        <v>1.9298855438937483</v>
+        <v>2.1450391209962314</v>
       </c>
       <c r="K606" t="n">
-        <v>1.9298855438937483</v>
+        <v>1.9351091039910706</v>
       </c>
       <c r="L606" t="n">
-        <v>1.9298855438937483</v>
+        <v>2.159435357548532</v>
       </c>
     </row>
     <row r="607">
@@ -23131,37 +23131,37 @@
         <v>606.0</v>
       </c>
       <c r="B607" t="n">
-        <v>1.368390626040525</v>
+        <v>1.3827947378935832</v>
       </c>
       <c r="C607" t="n">
-        <v>1.368390626040525</v>
+        <v>1.559499069460374</v>
       </c>
       <c r="D607" t="n">
-        <v>1.368390626040525</v>
+        <v>1.41454836330774</v>
       </c>
       <c r="E607" t="n">
-        <v>1.368390626040525</v>
+        <v>1.5727714018560714</v>
       </c>
       <c r="F607" t="n">
-        <v>1.368390626040525</v>
+        <v>1.467503661160359</v>
       </c>
       <c r="G607" t="n">
-        <v>1.368390626040525</v>
+        <v>1.513341691265583</v>
       </c>
       <c r="H607" t="n">
-        <v>1.368390626040525</v>
+        <v>1.5746859131210509</v>
       </c>
       <c r="I607" t="n">
-        <v>1.368390626040525</v>
+        <v>1.4650107337135172</v>
       </c>
       <c r="J607" t="n">
-        <v>1.368390626040525</v>
+        <v>1.568005427486374</v>
       </c>
       <c r="K607" t="n">
-        <v>1.368390626040525</v>
+        <v>1.41454836330774</v>
       </c>
       <c r="L607" t="n">
-        <v>1.368390626040525</v>
+        <v>1.5785289544600456</v>
       </c>
     </row>
     <row r="608">
@@ -23169,37 +23169,37 @@
         <v>607.0</v>
       </c>
       <c r="B608" t="n">
-        <v>2.5028140150577545</v>
+        <v>2.427729594606022</v>
       </c>
       <c r="C608" t="n">
-        <v>2.5028140150577545</v>
+        <v>2.4913197187021354</v>
       </c>
       <c r="D608" t="n">
-        <v>2.5028140150577545</v>
+        <v>2.6242104704761218</v>
       </c>
       <c r="E608" t="n">
-        <v>2.5028140150577545</v>
+        <v>2.3646891022766465</v>
       </c>
       <c r="F608" t="n">
-        <v>2.5028140150577545</v>
+        <v>2.6784025518858985</v>
       </c>
       <c r="G608" t="n">
-        <v>2.5028140150577545</v>
+        <v>2.6114016340204502</v>
       </c>
       <c r="H608" t="n">
-        <v>2.5028140150577545</v>
+        <v>2.6733836823036783</v>
       </c>
       <c r="I608" t="n">
-        <v>2.5028140150577545</v>
+        <v>2.579919998765706</v>
       </c>
       <c r="J608" t="n">
-        <v>2.5028140150577545</v>
+        <v>2.6290462379325255</v>
       </c>
       <c r="K608" t="n">
-        <v>2.5028140150577545</v>
+        <v>2.6242104704761218</v>
       </c>
       <c r="L608" t="n">
-        <v>2.5028140150577545</v>
+        <v>2.2875934127450828</v>
       </c>
     </row>
     <row r="609">
@@ -23210,34 +23210,34 @@
         <v>2.650179635531248</v>
       </c>
       <c r="C609" t="n">
-        <v>2.650179635531248</v>
+        <v>2.710848180900172</v>
       </c>
       <c r="D609" t="n">
-        <v>2.650179635531248</v>
+        <v>2.9055230958749183</v>
       </c>
       <c r="E609" t="n">
-        <v>2.650179635531248</v>
+        <v>2.9622508203623092</v>
       </c>
       <c r="F609" t="n">
-        <v>2.650179635531248</v>
+        <v>2.8260355605078886</v>
       </c>
       <c r="G609" t="n">
-        <v>2.650179635531248</v>
+        <v>2.579771038278973</v>
       </c>
       <c r="H609" t="n">
-        <v>2.650179635531248</v>
+        <v>3.038253500810352</v>
       </c>
       <c r="I609" t="n">
-        <v>2.650179635531248</v>
+        <v>2.9767805601788093</v>
       </c>
       <c r="J609" t="n">
-        <v>2.650179635531248</v>
+        <v>2.6823917630534626</v>
       </c>
       <c r="K609" t="n">
-        <v>2.650179635531248</v>
+        <v>2.9055230958749183</v>
       </c>
       <c r="L609" t="n">
-        <v>2.650179635531248</v>
+        <v>3.0325603319222196</v>
       </c>
     </row>
     <row r="610">
@@ -23283,37 +23283,37 @@
         <v>610.0</v>
       </c>
       <c r="B611" t="n">
-        <v>1.1230287441980866</v>
+        <v>1.1348500994001718</v>
       </c>
       <c r="C611" t="n">
-        <v>1.1230287441980866</v>
+        <v>1.1293108678909392</v>
       </c>
       <c r="D611" t="n">
-        <v>1.1230287441980866</v>
+        <v>0.9834965527471459</v>
       </c>
       <c r="E611" t="n">
-        <v>1.1230287441980866</v>
+        <v>1.10768432791871</v>
       </c>
       <c r="F611" t="n">
-        <v>1.1230287441980866</v>
+        <v>1.1369413459828366</v>
       </c>
       <c r="G611" t="n">
-        <v>1.1230287441980866</v>
+        <v>1.1156965113825437</v>
       </c>
       <c r="H611" t="n">
-        <v>1.1230287441980866</v>
+        <v>1.0226190669387367</v>
       </c>
       <c r="I611" t="n">
-        <v>1.1230287441980866</v>
+        <v>1.1561152475116354</v>
       </c>
       <c r="J611" t="n">
-        <v>1.1230287441980866</v>
+        <v>1.1582856773259882</v>
       </c>
       <c r="K611" t="n">
-        <v>1.1230287441980866</v>
+        <v>0.9834965527471459</v>
       </c>
       <c r="L611" t="n">
-        <v>1.1230287441980866</v>
+        <v>1.048097685180237</v>
       </c>
     </row>
     <row r="612">
@@ -23476,34 +23476,34 @@
         <v>0.7033959052496285</v>
       </c>
       <c r="C616" t="n">
-        <v>0.7033959052496285</v>
+        <v>0.6564004582433756</v>
       </c>
       <c r="D616" t="n">
-        <v>0.7033959052496285</v>
+        <v>0.699956716918022</v>
       </c>
       <c r="E616" t="n">
-        <v>0.7033959052496285</v>
+        <v>0.7372934640333001</v>
       </c>
       <c r="F616" t="n">
-        <v>0.7033959052496285</v>
+        <v>0.7511090813756867</v>
       </c>
       <c r="G616" t="n">
-        <v>0.7033959052496285</v>
+        <v>0.7196443086344589</v>
       </c>
       <c r="H616" t="n">
-        <v>0.7033959052496285</v>
+        <v>0.7386521125789498</v>
       </c>
       <c r="I616" t="n">
-        <v>0.7033959052496285</v>
+        <v>0.6643788061949992</v>
       </c>
       <c r="J616" t="n">
-        <v>0.7033959052496285</v>
+        <v>0.7336947163311294</v>
       </c>
       <c r="K616" t="n">
-        <v>0.7033959052496285</v>
+        <v>0.699956716918022</v>
       </c>
       <c r="L616" t="n">
-        <v>0.7033959052496285</v>
+        <v>0.7319084842084331</v>
       </c>
     </row>
     <row r="617">
@@ -23514,34 +23514,34 @@
         <v>2.593367563156309</v>
       </c>
       <c r="C617" t="n">
-        <v>2.593367563156309</v>
+        <v>2.8269758405989505</v>
       </c>
       <c r="D617" t="n">
-        <v>2.593367563156309</v>
+        <v>2.716846809977198</v>
       </c>
       <c r="E617" t="n">
-        <v>2.593367563156309</v>
+        <v>2.8149826098630077</v>
       </c>
       <c r="F617" t="n">
-        <v>2.593367563156309</v>
+        <v>2.5394867732727096</v>
       </c>
       <c r="G617" t="n">
-        <v>2.593367563156309</v>
+        <v>2.8235387887732157</v>
       </c>
       <c r="H617" t="n">
-        <v>2.593367563156309</v>
+        <v>2.634555476443084</v>
       </c>
       <c r="I617" t="n">
-        <v>2.593367563156309</v>
+        <v>2.482480654687873</v>
       </c>
       <c r="J617" t="n">
-        <v>2.593367563156309</v>
+        <v>2.6300800152696113</v>
       </c>
       <c r="K617" t="n">
-        <v>2.593367563156309</v>
+        <v>2.716846809977198</v>
       </c>
       <c r="L617" t="n">
-        <v>2.593367563156309</v>
+        <v>2.566144367284538</v>
       </c>
     </row>
     <row r="618">
@@ -23549,37 +23549,37 @@
         <v>617.0</v>
       </c>
       <c r="B618" t="n">
-        <v>2.0950095180960155</v>
+        <v>2.1168325339095158</v>
       </c>
       <c r="C618" t="n">
-        <v>2.0950095180960155</v>
+        <v>1.977788041603174</v>
       </c>
       <c r="D618" t="n">
-        <v>2.0950095180960155</v>
+        <v>2.185715695938805</v>
       </c>
       <c r="E618" t="n">
-        <v>2.0950095180960155</v>
+        <v>2.1454383783915936</v>
       </c>
       <c r="F618" t="n">
-        <v>2.0950095180960155</v>
+        <v>2.105348813828658</v>
       </c>
       <c r="G618" t="n">
-        <v>2.0950095180960155</v>
+        <v>2.18162003749717</v>
       </c>
       <c r="H618" t="n">
-        <v>2.0950095180960155</v>
+        <v>2.0330463801772396</v>
       </c>
       <c r="I618" t="n">
-        <v>2.0950095180960155</v>
+        <v>2.090229611805828</v>
       </c>
       <c r="J618" t="n">
-        <v>2.0950095180960155</v>
+        <v>1.8558839967734033</v>
       </c>
       <c r="K618" t="n">
-        <v>2.0950095180960155</v>
+        <v>2.185715695938805</v>
       </c>
       <c r="L618" t="n">
-        <v>2.0950095180960155</v>
+        <v>1.9811535337319928</v>
       </c>
     </row>
     <row r="619">
@@ -23704,34 +23704,34 @@
         <v>0.7379465577534452</v>
       </c>
       <c r="C622" t="n">
-        <v>0.7379465577534452</v>
+        <v>0.6812755234683266</v>
       </c>
       <c r="D622" t="n">
-        <v>0.7379465577534452</v>
+        <v>0.6994377183928295</v>
       </c>
       <c r="E622" t="n">
-        <v>0.7379465577534452</v>
+        <v>0.6590639751543432</v>
       </c>
       <c r="F622" t="n">
-        <v>0.7379465577534452</v>
+        <v>0.6730942673438506</v>
       </c>
       <c r="G622" t="n">
-        <v>0.7379465577534452</v>
+        <v>0.7505226401873789</v>
       </c>
       <c r="H622" t="n">
-        <v>0.7379465577534452</v>
+        <v>0.7212849192148494</v>
       </c>
       <c r="I622" t="n">
-        <v>0.7379465577534452</v>
+        <v>0.7496101508856787</v>
       </c>
       <c r="J622" t="n">
-        <v>0.7379465577534452</v>
+        <v>0.6885029021203107</v>
       </c>
       <c r="K622" t="n">
-        <v>0.7379465577534452</v>
+        <v>0.6994377183928295</v>
       </c>
       <c r="L622" t="n">
-        <v>0.7379465577534452</v>
+        <v>0.7560445727277372</v>
       </c>
     </row>
     <row r="623">
